--- a/BLACK_SUNRISE_HSV/90_Degree_GLCM/RGB_resmat.xlsx
+++ b/BLACK_SUNRISE_HSV/90_Degree_GLCM/RGB_resmat.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_HSV\90_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3EFC7F-A6BE-45EB-B500-DCF983F5CB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,16 +51,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,30 +336,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L400"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.046875" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="15.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.002232530853467756</v>
+        <v>2.232530853467756E-3</v>
       </c>
       <c r="B1">
         <v>0.77041799798081734</v>
@@ -369,7 +368,7 @@
         <v>0.99888373457326607</v>
       </c>
       <c r="E1">
-        <v>0.049490483226142884</v>
+        <v>4.9490483226142884E-2</v>
       </c>
       <c r="F1">
         <v>0.53810818397089777</v>
@@ -393,9 +392,9 @@
         <v>0.92266987513760945</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.021557894736842106</v>
+        <v>2.1557894736842106E-2</v>
       </c>
       <c r="B2">
         <v>0.95232103726410144</v>
@@ -407,7 +406,7 @@
         <v>0.989221052631579</v>
       </c>
       <c r="E2">
-        <v>0.00087719298245614037</v>
+        <v>8.7719298245614037E-4</v>
       </c>
       <c r="F2">
         <v>0.5224770399514157</v>
@@ -419,7 +418,7 @@
         <v>0.99956140350877187</v>
       </c>
       <c r="I2">
-        <v>0.032084210526315785</v>
+        <v>3.2084210526315785E-2</v>
       </c>
       <c r="J2">
         <v>0.93565043139736448</v>
@@ -431,9 +430,9 @@
         <v>0.98395789473684214</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.039392303161201653</v>
+        <v>3.9392303161201653E-2</v>
       </c>
       <c r="B3">
         <v>0.91599872615936673</v>
@@ -445,7 +444,7 @@
         <v>0.9803038484193991</v>
       </c>
       <c r="E3">
-        <v>0.023908866511458307</v>
+        <v>2.3908866511458307E-2</v>
       </c>
       <c r="F3">
         <v>0.5477919849587124</v>
@@ -457,7 +456,7 @@
         <v>0.98805959159630874</v>
       </c>
       <c r="I3">
-        <v>0.076635297747608772</v>
+        <v>7.6635297747608772E-2</v>
       </c>
       <c r="J3">
         <v>0.88439167972563104</v>
@@ -469,9 +468,9 @@
         <v>0.96267256411694846</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.038886279369584553</v>
+        <v>3.8886279369584553E-2</v>
       </c>
       <c r="B4">
         <v>0.9174012409363177</v>
@@ -483,7 +482,7 @@
         <v>0.98055686031520772</v>
       </c>
       <c r="E4">
-        <v>0.024849841596626059</v>
+        <v>2.4849841596626059E-2</v>
       </c>
       <c r="F4">
         <v>0.53003462470170504</v>
@@ -495,7 +494,7 @@
         <v>0.987598398310364</v>
       </c>
       <c r="I4">
-        <v>0.077220395558709187</v>
+        <v>7.7220395558709187E-2</v>
       </c>
       <c r="J4">
         <v>0.8713271646705143</v>
@@ -507,9 +506,9 @@
         <v>0.96267318602319252</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.033051617865955382</v>
+        <v>3.3051617865955382E-2</v>
       </c>
       <c r="B5">
         <v>0.92839818776629923</v>
@@ -521,7 +520,7 @@
         <v>0.98347419106702227</v>
       </c>
       <c r="E5">
-        <v>0.023074195062986386</v>
+        <v>2.3074195062986386E-2</v>
       </c>
       <c r="F5">
         <v>0.60649487260064816</v>
@@ -533,7 +532,7 @@
         <v>0.98848621225895184</v>
       </c>
       <c r="I5">
-        <v>0.07785137011618265</v>
+        <v>7.785137011618265E-2</v>
       </c>
       <c r="J5">
         <v>0.91746075364563096</v>
@@ -545,9 +544,9 @@
         <v>0.96172365910430468</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.042139364770144579</v>
+        <v>4.2139364770144579E-2</v>
       </c>
       <c r="B6">
         <v>0.91063625016257843</v>
@@ -559,7 +558,7 @@
         <v>0.97893031761492766</v>
       </c>
       <c r="E6">
-        <v>0.040885998586680419</v>
+        <v>4.0885998586680419E-2</v>
       </c>
       <c r="F6">
         <v>0.60421608553292183</v>
@@ -571,7 +570,7 @@
         <v>0.97969705940398655</v>
       </c>
       <c r="I6">
-        <v>0.097619320460665793</v>
+        <v>9.7619320460665793E-2</v>
       </c>
       <c r="J6">
         <v>0.88947155530652799</v>
@@ -583,9 +582,9 @@
         <v>0.95323511717183296</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.023693696198074481</v>
+        <v>2.3693696198074481E-2</v>
       </c>
       <c r="B7">
         <v>0.93476754011312579</v>
@@ -597,7 +596,7 @@
         <v>0.98815315190096276</v>
       </c>
       <c r="E7">
-        <v>0.009805965585300086</v>
+        <v>9.805965585300086E-3</v>
       </c>
       <c r="F7">
         <v>0.61909748096236938</v>
@@ -609,7 +608,7 @@
         <v>0.99510319467996067</v>
       </c>
       <c r="I7">
-        <v>0.056725414431193763</v>
+        <v>5.6725414431193763E-2</v>
       </c>
       <c r="J7">
         <v>0.92235306371619474</v>
@@ -621,9 +620,9 @@
         <v>0.97181277161574886</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.026394686907020876</v>
+        <v>2.6394686907020876E-2</v>
       </c>
       <c r="B8">
         <v>0.94606268944159644</v>
@@ -635,7 +634,7 @@
         <v>0.98680265654648958</v>
       </c>
       <c r="E8">
-        <v>0.0039712659257251284</v>
+        <v>3.9712659257251284E-3</v>
       </c>
       <c r="F8">
         <v>0.64863079218884756</v>
@@ -647,7 +646,7 @@
         <v>0.99801436703713742</v>
       </c>
       <c r="I8">
-        <v>0.040712930333423693</v>
+        <v>4.0712930333423693E-2</v>
       </c>
       <c r="J8">
         <v>0.93434522750368254</v>
@@ -659,9 +658,9 @@
         <v>0.97965437788018428</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.056025562994522216</v>
+        <v>5.6025562994522216E-2</v>
       </c>
       <c r="B9">
         <v>0.87895510165479473</v>
@@ -673,7 +672,7 @@
         <v>0.97198721850273895</v>
       </c>
       <c r="E9">
-        <v>0.072890499640347481</v>
+        <v>7.2890499640347481E-2</v>
       </c>
       <c r="F9">
         <v>0.56769614447827665</v>
@@ -697,9 +696,9 @@
         <v>0.94061800291410769</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.030795262267343484</v>
+        <v>3.0795262267343484E-2</v>
       </c>
       <c r="B10">
         <v>0.91342814358146052</v>
@@ -711,7 +710,7 @@
         <v>0.98460236886632824</v>
       </c>
       <c r="E10">
-        <v>0.042576824409147965</v>
+        <v>4.2576824409147965E-2</v>
       </c>
       <c r="F10">
         <v>0.60953284766749172</v>
@@ -723,7 +722,7 @@
         <v>0.97875889234575986</v>
       </c>
       <c r="I10">
-        <v>0.097363681021778295</v>
+        <v>9.7363681021778295E-2</v>
       </c>
       <c r="J10">
         <v>0.89224075830837468</v>
@@ -735,9 +734,9 @@
         <v>0.95293606608081793</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.045378963650425368</v>
+        <v>4.5378963650425368E-2</v>
       </c>
       <c r="B11">
         <v>0.90592980837418446</v>
@@ -749,7 +748,7 @@
         <v>0.97731051817478731</v>
       </c>
       <c r="E11">
-        <v>0.034217904098994591</v>
+        <v>3.4217904098994591E-2</v>
       </c>
       <c r="F11">
         <v>0.55752089769010993</v>
@@ -761,7 +760,7 @@
         <v>0.98299416731116263</v>
       </c>
       <c r="I11">
-        <v>0.086895784996133013</v>
+        <v>8.6895784996133013E-2</v>
       </c>
       <c r="J11">
         <v>0.86161097278793086</v>
@@ -773,9 +772,9 @@
         <v>0.95907289249806649</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.045706594138543513</v>
+        <v>4.5706594138543513E-2</v>
       </c>
       <c r="B12">
         <v>0.8993402374616386</v>
@@ -787,7 +786,7 @@
         <v>0.97714670293072825</v>
       </c>
       <c r="E12">
-        <v>0.043175510657193605</v>
+        <v>4.3175510657193605E-2</v>
       </c>
       <c r="F12">
         <v>0.54858198506502442</v>
@@ -811,9 +810,9 @@
         <v>0.95095470692717576</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.029496734537072605</v>
+        <v>2.9496734537072605E-2</v>
       </c>
       <c r="B13">
         <v>0.94034181996034871</v>
@@ -825,7 +824,7 @@
         <v>0.98525163273146366</v>
       </c>
       <c r="E13">
-        <v>0.0047176334998079144</v>
+        <v>4.7176334998079144E-3</v>
       </c>
       <c r="F13">
         <v>0.53074796685068615</v>
@@ -837,7 +836,7 @@
         <v>0.99764118325009599</v>
       </c>
       <c r="I13">
-        <v>0.042792931233192472</v>
+        <v>4.2792931233192472E-2</v>
       </c>
       <c r="J13">
         <v>0.91556279224839643</v>
@@ -849,9 +848,9 @@
         <v>0.97866500192086048</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.034308754647737694</v>
+        <v>3.4308754647737694E-2</v>
       </c>
       <c r="B14">
         <v>0.92930786086693573</v>
@@ -863,7 +862,7 @@
         <v>0.98284562267613107</v>
       </c>
       <c r="E14">
-        <v>0.01327925056738616</v>
+        <v>1.327925056738616E-2</v>
       </c>
       <c r="F14">
         <v>0.53780629777060363</v>
@@ -875,7 +874,7 @@
         <v>0.99336842274695381</v>
       </c>
       <c r="I14">
-        <v>0.064253464677193492</v>
+        <v>6.4253464677193492E-2</v>
       </c>
       <c r="J14">
         <v>0.90048332621091598</v>
@@ -887,9 +886,9 @@
         <v>0.96834005343892349</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.040923645851302398</v>
+        <v>4.0923645851302398E-2</v>
       </c>
       <c r="B15">
         <v>0.9151618190332691</v>
@@ -901,7 +900,7 @@
         <v>0.97953817707434876</v>
       </c>
       <c r="E15">
-        <v>0.024368746765568397</v>
+        <v>2.4368746765568397E-2</v>
       </c>
       <c r="F15">
         <v>0.52683065308407728</v>
@@ -913,7 +912,7 @@
         <v>0.98785515855902484</v>
       </c>
       <c r="I15">
-        <v>0.078289416939796436</v>
+        <v>7.8289416939796436E-2</v>
       </c>
       <c r="J15">
         <v>0.86959735442210828</v>
@@ -925,9 +924,9 @@
         <v>0.9620520312230465</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.024598658200551099</v>
+        <v>2.4598658200551099E-2</v>
       </c>
       <c r="B16">
         <v>0.93676828755187302</v>
@@ -939,7 +938,7 @@
         <v>0.98770067089972446</v>
       </c>
       <c r="E16">
-        <v>0.0069486042889660964</v>
+        <v>6.9486042889660964E-3</v>
       </c>
       <c r="F16">
         <v>0.51783022698577608</v>
@@ -951,7 +950,7 @@
         <v>0.99653368475699855</v>
       </c>
       <c r="I16">
-        <v>0.050895531328621062</v>
+        <v>5.0895531328621062E-2</v>
       </c>
       <c r="J16">
         <v>0.90490443967179601</v>
@@ -963,9 +962,9 @@
         <v>0.97478635038536798</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.028353057199211044</v>
+        <v>2.8353057199211044E-2</v>
       </c>
       <c r="B17">
         <v>0.94095129951197287</v>
@@ -977,7 +976,7 @@
         <v>0.98582347140039439</v>
       </c>
       <c r="E17">
-        <v>0.0034804938651092497</v>
+        <v>3.4804938651092497E-3</v>
       </c>
       <c r="F17">
         <v>0.42221271617710793</v>
@@ -989,7 +988,7 @@
         <v>0.9982597530674453</v>
       </c>
       <c r="I17">
-        <v>0.040325059555828782</v>
+        <v>4.0325059555828782E-2</v>
       </c>
       <c r="J17">
         <v>0.89613633912921098</v>
@@ -1001,9 +1000,9 @@
         <v>0.98002104732873963</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.030813709199946523</v>
+        <v>3.0813709199946523E-2</v>
       </c>
       <c r="B18">
         <v>0.9300852157070264</v>
@@ -1015,7 +1014,7 @@
         <v>0.98459314540002674</v>
       </c>
       <c r="E18">
-        <v>0.022185775129395138</v>
+        <v>2.2185775129395138E-2</v>
       </c>
       <c r="F18">
         <v>0.64503576483547742</v>
@@ -1027,7 +1026,7 @@
         <v>0.98891029558751442</v>
       </c>
       <c r="I18">
-        <v>0.041807521152046445</v>
+        <v>4.1807521152046445E-2</v>
       </c>
       <c r="J18">
         <v>0.89782517363021186</v>
@@ -1039,9 +1038,9 @@
         <v>0.9792331149690916</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.036473336998350744</v>
+        <v>3.6473336998350744E-2</v>
       </c>
       <c r="B19">
         <v>0.91282339006087854</v>
@@ -1053,7 +1052,7 @@
         <v>0.98176333150082473</v>
       </c>
       <c r="E19">
-        <v>0.026726223199560195</v>
+        <v>2.6726223199560195E-2</v>
       </c>
       <c r="F19">
         <v>0.54369259484527832</v>
@@ -1065,7 +1064,7 @@
         <v>0.98670652373098777</v>
       </c>
       <c r="I19">
-        <v>0.073191313908741076</v>
+        <v>7.3191313908741076E-2</v>
       </c>
       <c r="J19">
         <v>0.85693267857100253</v>
@@ -1077,9 +1076,9 @@
         <v>0.96488226131574129</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.019749876999587784</v>
+        <v>1.9749876999587784E-2</v>
       </c>
       <c r="B20">
         <v>0.93906896145972329</v>
@@ -1091,7 +1090,7 @@
         <v>0.99012506150020596</v>
       </c>
       <c r="E20">
-        <v>0.0026827387205297661</v>
+        <v>2.6827387205297661E-3</v>
       </c>
       <c r="F20">
         <v>0.36769692638682577</v>
@@ -1103,7 +1102,7 @@
         <v>0.99865863063973503</v>
       </c>
       <c r="I20">
-        <v>0.042598034652872888</v>
+        <v>4.2598034652872888E-2</v>
       </c>
       <c r="J20">
         <v>0.92072034480057308</v>
@@ -1115,9 +1114,9 @@
         <v>0.97875417204100901</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.037304607710335634</v>
+        <v>3.7304607710335634E-2</v>
       </c>
       <c r="B21">
         <v>0.91089949906783985</v>
@@ -1141,7 +1140,7 @@
         <v>0.92781952596988382</v>
       </c>
       <c r="I21">
-        <v>0.063691973596508203</v>
+        <v>6.3691973596508203E-2</v>
       </c>
       <c r="J21">
         <v>0.8036896294420427</v>
@@ -1153,9 +1152,9 @@
         <v>0.97025978842804617</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.0051932194789337648</v>
+        <v>5.1932194789337648E-3</v>
       </c>
       <c r="B22">
         <v>0.70126837687540067</v>
@@ -1191,9 +1190,9 @@
         <v>0.95050220943078079</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.023984909521069124</v>
+        <v>2.3984909521069124E-2</v>
       </c>
       <c r="B23">
         <v>0.86990804979630165</v>
@@ -1217,7 +1216,7 @@
         <v>0.94126329475456649</v>
       </c>
       <c r="I23">
-        <v>0.054543129356096932</v>
+        <v>5.4543129356096932E-2</v>
       </c>
       <c r="J23">
         <v>0.82997222348839506</v>
@@ -1229,10 +1228,13 @@
         <v>0.97408775070869835</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
@@ -1240,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.087613561105143248</v>
+        <v>8.7613561105143248E-2</v>
       </c>
       <c r="F24">
         <v>0.62780649703103475</v>
@@ -1252,7 +1254,7 @@
         <v>0.95632208311283917</v>
       </c>
       <c r="I24">
-        <v>0.077048853060564859</v>
+        <v>7.7048853060564859E-2</v>
       </c>
       <c r="J24">
         <v>0.88940475643087435</v>
@@ -1264,9 +1266,9 @@
         <v>0.96255427853775644</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.025908876298394713</v>
+        <v>2.5908876298394713E-2</v>
       </c>
       <c r="B25">
         <v>0.91660175448286141</v>
@@ -1278,7 +1280,7 @@
         <v>0.9870455618508025</v>
       </c>
       <c r="E25">
-        <v>0.052981249156886553</v>
+        <v>5.2981249156886553E-2</v>
       </c>
       <c r="F25">
         <v>0.6928371029996</v>
@@ -1290,7 +1292,7 @@
         <v>0.97350937542155669</v>
       </c>
       <c r="I25">
-        <v>0.012638270605692701</v>
+        <v>1.2638270605692701E-2</v>
       </c>
       <c r="J25">
         <v>0.82582706235910353</v>
@@ -1302,9 +1304,9 @@
         <v>0.99371458923512757</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.033907874816965722</v>
+        <v>3.3907874816965722E-2</v>
       </c>
       <c r="B26">
         <v>0.89037356117544963</v>
@@ -1328,7 +1330,7 @@
         <v>0.91877207786298698</v>
       </c>
       <c r="I26">
-        <v>0.062610130791948965</v>
+        <v>6.2610130791948965E-2</v>
       </c>
       <c r="J26">
         <v>0.78504856385610577</v>
@@ -1340,9 +1342,9 @@
         <v>0.97150197718379538</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.019727315829264853</v>
+        <v>1.9727315829264853E-2</v>
       </c>
       <c r="B27">
         <v>0.9025473599788757</v>
@@ -1354,7 +1356,7 @@
         <v>0.9901363420853676</v>
       </c>
       <c r="E27">
-        <v>0.094375888978587619</v>
+        <v>9.4375888978587619E-2</v>
       </c>
       <c r="F27">
         <v>0.67362480056013985</v>
@@ -1366,7 +1368,7 @@
         <v>0.95282914098506299</v>
       </c>
       <c r="I27">
-        <v>0.046899627109522168</v>
+        <v>4.6899627109522168E-2</v>
       </c>
       <c r="J27">
         <v>0.86334507355658308</v>
@@ -1378,9 +1380,9 @@
         <v>0.97688335319519726</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.0017688006390505536</v>
+        <v>1.7688006390505536E-3</v>
       </c>
       <c r="B28">
         <v>0.94150902740686404</v>
@@ -1392,7 +1394,7 @@
         <v>0.99992439803720179</v>
       </c>
       <c r="E28">
-        <v>0.01631575944311309</v>
+        <v>1.631575944311309E-2</v>
       </c>
       <c r="F28">
         <v>0.77001064812384257</v>
@@ -1404,7 +1406,7 @@
         <v>0.99184212027844343</v>
       </c>
       <c r="I28">
-        <v>0.026532009585758302</v>
+        <v>2.6532009585758302E-2</v>
       </c>
       <c r="J28">
         <v>0.9168620532904872</v>
@@ -1416,9 +1418,9 @@
         <v>0.98673779907946291</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.0034785932721712537</v>
+        <v>3.4785932721712537E-3</v>
       </c>
       <c r="B29">
         <v>0.70356125767092648</v>
@@ -1442,7 +1444,7 @@
         <v>0.93725917431192662</v>
       </c>
       <c r="I29">
-        <v>0.092412079510703363</v>
+        <v>9.2412079510703363E-2</v>
       </c>
       <c r="J29">
         <v>0.83946378465251359</v>
@@ -1454,9 +1456,9 @@
         <v>0.95615889398572884</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.027261423361859088</v>
+        <v>2.7261423361859088E-2</v>
       </c>
       <c r="B30">
         <v>0.85815159190107249</v>
@@ -1480,7 +1482,7 @@
         <v>0.91740419143948815</v>
       </c>
       <c r="I30">
-        <v>0.098889272018641006</v>
+        <v>9.8889272018641006E-2</v>
       </c>
       <c r="J30">
         <v>0.82645231890293869</v>
@@ -1492,9 +1494,9 @@
         <v>0.9543535730332382</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.024095337508698675</v>
+        <v>2.4095337508698675E-2</v>
       </c>
       <c r="B31">
         <v>0.90036363349375981</v>
@@ -1506,7 +1508,7 @@
         <v>0.98897986256089088</v>
       </c>
       <c r="E31">
-        <v>0.092040709812108559</v>
+        <v>9.2040709812108559E-2</v>
       </c>
       <c r="F31">
         <v>0.72231620645082917</v>
@@ -1518,7 +1520,7 @@
         <v>0.95403763627928551</v>
       </c>
       <c r="I31">
-        <v>0.050561064718162844</v>
+        <v>5.0561064718162844E-2</v>
       </c>
       <c r="J31">
         <v>0.86681950404207131</v>
@@ -1530,9 +1532,9 @@
         <v>0.97553134423567622</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.0030317571104519279</v>
+        <v>3.0317571104519279E-3</v>
       </c>
       <c r="B32">
         <v>0.64448778888930269</v>
@@ -1568,9 +1570,9 @@
         <v>0.94791575786657367</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.019648002837256727</v>
+        <v>1.9648002837256727E-2</v>
       </c>
       <c r="B33">
         <v>0.85140621809142536</v>
@@ -1594,7 +1596,7 @@
         <v>0.94556604749449547</v>
       </c>
       <c r="I33">
-        <v>0.054701423061577333</v>
+        <v>5.4701423061577333E-2</v>
       </c>
       <c r="J33">
         <v>0.83498723377908923</v>
@@ -1606,9 +1608,9 @@
         <v>0.97366597212986361</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.020874063212772891</v>
+        <v>2.0874063212772891E-2</v>
       </c>
       <c r="B34">
         <v>0.95306602251712447</v>
@@ -1620,7 +1622,7 @@
         <v>0.98956296839361357</v>
       </c>
       <c r="E34">
-        <v>0.028347996089931576</v>
+        <v>2.8347996089931576E-2</v>
       </c>
       <c r="F34">
         <v>0.82360137528547195</v>
@@ -1632,7 +1634,7 @@
         <v>0.98582600195503423</v>
       </c>
       <c r="I34">
-        <v>0.0060992994460736406</v>
+        <v>6.0992994460736406E-3</v>
       </c>
       <c r="J34">
         <v>0.88033348180451187</v>
@@ -1644,9 +1646,9 @@
         <v>0.99695035027696322</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.032956553281613836</v>
+        <v>3.2956553281613836E-2</v>
       </c>
       <c r="B35">
         <v>0.92638777266931238</v>
@@ -1658,7 +1660,7 @@
         <v>0.98352172335919308</v>
       </c>
       <c r="E35">
-        <v>0.084254806285908201</v>
+        <v>8.4254806285908201E-2</v>
       </c>
       <c r="F35">
         <v>0.73890636516005692</v>
@@ -1670,7 +1672,7 @@
         <v>0.95787259685704595</v>
       </c>
       <c r="I35">
-        <v>0.028129790196697906</v>
+        <v>2.8129790196697906E-2</v>
       </c>
       <c r="J35">
         <v>0.85201128636739298</v>
@@ -1682,9 +1684,9 @@
         <v>0.98609892231544216</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.022256014715411467</v>
+        <v>2.2256014715411467E-2</v>
       </c>
       <c r="B36">
         <v>0.88940618707435071</v>
@@ -1696,7 +1698,7 @@
         <v>0.9888719926422942</v>
       </c>
       <c r="E36">
-        <v>0.075029786166677118</v>
+        <v>7.5029786166677118E-2</v>
       </c>
       <c r="F36">
         <v>0.66434236018417847</v>
@@ -1708,7 +1710,7 @@
         <v>0.96251994453850609</v>
       </c>
       <c r="I36">
-        <v>0.030721556823644993</v>
+        <v>3.0721556823644993E-2</v>
       </c>
       <c r="J36">
         <v>0.86109384986061055</v>
@@ -1720,9 +1722,9 @@
         <v>0.98489005246545847</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.014837425948537059</v>
+        <v>1.4837425948537059E-2</v>
       </c>
       <c r="B37">
         <v>0.87740838845824964</v>
@@ -1734,7 +1736,7 @@
         <v>0.99258128702573134</v>
       </c>
       <c r="E37">
-        <v>0.058440736218513999</v>
+        <v>5.8440736218513999E-2</v>
       </c>
       <c r="F37">
         <v>0.68241919611662905</v>
@@ -1746,7 +1748,7 @@
         <v>0.97077963189074301</v>
       </c>
       <c r="I37">
-        <v>0.032763532763532763</v>
+        <v>3.2763532763532763E-2</v>
       </c>
       <c r="J37">
         <v>0.88885457902098763</v>
@@ -1758,9 +1760,9 @@
         <v>0.98377500414537444</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.019592091757040211</v>
+        <v>1.9592091757040211E-2</v>
       </c>
       <c r="B38">
         <v>0.87410548523469911</v>
@@ -1784,7 +1786,7 @@
         <v>0.93364871096829849</v>
       </c>
       <c r="I38">
-        <v>0.071334850716294015</v>
+        <v>7.1334850716294015E-2</v>
       </c>
       <c r="J38">
         <v>0.8367653521680678</v>
@@ -1796,9 +1798,9 @@
         <v>0.96677377605212655</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.032900552850677542</v>
+        <v>3.2900552850677542E-2</v>
       </c>
       <c r="B39">
         <v>0.87772052615042639</v>
@@ -1822,7 +1824,7 @@
         <v>0.93522696785373416</v>
       </c>
       <c r="I39">
-        <v>0.062608030189077568</v>
+        <v>6.2608030189077568E-2</v>
       </c>
       <c r="J39">
         <v>0.84083965309681352</v>
@@ -1834,9 +1836,9 @@
         <v>0.96992747408375002</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.041164693899055187</v>
+        <v>4.1164693899055187E-2</v>
       </c>
       <c r="B40">
         <v>0.87981937164539559</v>
@@ -1872,10 +1874,13 @@
         <v>0.95219111844801141</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>1</v>
       </c>
@@ -1907,9 +1912,9 @@
         <v>0.90655486542443064</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.054082788671023965</v>
+        <v>5.4082788671023965E-2</v>
       </c>
       <c r="B42">
         <v>0.71811204340864798</v>
@@ -1945,10 +1950,13 @@
         <v>0.91202759622367469</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>1</v>
       </c>
@@ -1980,9 +1988,9 @@
         <v>0.8950714487832484</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.017274226175631117</v>
+        <v>1.7274226175631117E-2</v>
       </c>
       <c r="B44">
         <v>0.71244930691589681</v>
@@ -2006,7 +2014,7 @@
         <v>0.94084723492301015</v>
       </c>
       <c r="I44">
-        <v>0.095387535677667862</v>
+        <v>9.5387535677667862E-2</v>
       </c>
       <c r="J44">
         <v>0.88553334728910837</v>
@@ -2018,9 +2026,9 @@
         <v>0.95431353395959762</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.017552579261274459</v>
+        <v>1.7552579261274459E-2</v>
       </c>
       <c r="B45">
         <v>0.74409500048670263</v>
@@ -2056,9 +2064,9 @@
         <v>0.94531569978624508</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.025987577639751555</v>
+        <v>2.5987577639751555E-2</v>
       </c>
       <c r="B46">
         <v>0.77076999455255157</v>
@@ -2082,7 +2090,7 @@
         <v>0.94391166321601094</v>
       </c>
       <c r="I46">
-        <v>0.092364389233954458</v>
+        <v>9.2364389233954458E-2</v>
       </c>
       <c r="J46">
         <v>0.87634997272307247</v>
@@ -2094,9 +2102,9 @@
         <v>0.95505969634230503</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.032127731143831322</v>
+        <v>3.2127731143831322E-2</v>
       </c>
       <c r="B47">
         <v>0.73486822450962519</v>
@@ -2132,9 +2140,9 @@
         <v>0.94077265823688017</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.014438275888657568</v>
+        <v>1.4438275888657568E-2</v>
       </c>
       <c r="B48">
         <v>0.78981024913693254</v>
@@ -2146,7 +2154,7 @@
         <v>0.99278086205567129</v>
       </c>
       <c r="E48">
-        <v>0.094247821728737746</v>
+        <v>9.4247821728737746E-2</v>
       </c>
       <c r="F48">
         <v>0.61955573681021758</v>
@@ -2170,9 +2178,9 @@
         <v>0.94894010075307789</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.012758338619745584</v>
+        <v>1.2758338619745584E-2</v>
       </c>
       <c r="B49">
         <v>0.7088645962484883</v>
@@ -2208,9 +2216,9 @@
         <v>0.94068158547850378</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.011544604152407028</v>
+        <v>1.1544604152407028E-2</v>
       </c>
       <c r="B50">
         <v>0.69088133166982735</v>
@@ -2234,7 +2242,7 @@
         <v>0.94275863817273819</v>
       </c>
       <c r="I50">
-        <v>0.098809795421705066</v>
+        <v>9.8809795421705066E-2</v>
       </c>
       <c r="J50">
         <v>0.87120549560504068</v>
@@ -2246,9 +2254,9 @@
         <v>0.95171971252566734</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.01225240258335651</v>
+        <v>1.225240258335651E-2</v>
       </c>
       <c r="B51">
         <v>0.7382876138319967</v>
@@ -2260,7 +2268,7 @@
         <v>0.99387379870832171</v>
       </c>
       <c r="E51">
-        <v>0.08506381137789315</v>
+        <v>8.506381137789315E-2</v>
       </c>
       <c r="F51">
         <v>0.61824279395317183</v>
@@ -2272,7 +2280,7 @@
         <v>0.95751959663380826</v>
       </c>
       <c r="I51">
-        <v>0.084920892432248707</v>
+        <v>8.4920892432248707E-2</v>
       </c>
       <c r="J51">
         <v>0.88458765514427995</v>
@@ -2284,9 +2292,9 @@
         <v>0.95832045775264463</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.018787751614982237</v>
+        <v>1.8787751614982237E-2</v>
       </c>
       <c r="B52">
         <v>0.74563521501881513</v>
@@ -2310,7 +2318,7 @@
         <v>0.93860569452979403</v>
       </c>
       <c r="I52">
-        <v>0.099949040003597167</v>
+        <v>9.9949040003597167E-2</v>
       </c>
       <c r="J52">
         <v>0.8651620418357665</v>
@@ -2322,9 +2330,9 @@
         <v>0.95126450736172108</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.019885583524027459</v>
+        <v>1.9885583524027459E-2</v>
       </c>
       <c r="B53">
         <v>0.74040889557817169</v>
@@ -2348,7 +2356,7 @@
         <v>0.93147406559877954</v>
       </c>
       <c r="I53">
-        <v>0.092318840579710154</v>
+        <v>9.2318840579710154E-2</v>
       </c>
       <c r="J53">
         <v>0.86645336674488338</v>
@@ -2360,10 +2368,13 @@
         <v>0.9548321891685736</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>1</v>
       </c>
@@ -2395,10 +2406,13 @@
         <v>0.92676227653315224</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>1</v>
       </c>
@@ -2430,10 +2444,13 @@
         <v>0.9401393570199037</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>1</v>
       </c>
@@ -2465,9 +2482,9 @@
         <v>0.92702483166220706</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.017134919189027403</v>
+        <v>1.7134919189027403E-2</v>
       </c>
       <c r="B57">
         <v>0.77201808673999295</v>
@@ -2479,7 +2496,7 @@
         <v>0.99143254040548623</v>
       </c>
       <c r="E57">
-        <v>0.087284959529448508</v>
+        <v>8.7284959529448508E-2</v>
       </c>
       <c r="F57">
         <v>0.61443586568480191</v>
@@ -2491,7 +2508,7 @@
         <v>0.95640089703215958</v>
       </c>
       <c r="I57">
-        <v>0.080820732373838591</v>
+        <v>8.0820732373838591E-2</v>
       </c>
       <c r="J57">
         <v>0.87504152186113981</v>
@@ -2503,9 +2520,9 @@
         <v>0.96017793162081744</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.023866585362394884</v>
+        <v>2.3866585362394884E-2</v>
       </c>
       <c r="B58">
         <v>0.76151026077828154</v>
@@ -2529,7 +2546,7 @@
         <v>0.94545050602455205</v>
       </c>
       <c r="I58">
-        <v>0.089166442134520754</v>
+        <v>8.9166442134520754E-2</v>
       </c>
       <c r="J58">
         <v>0.86220259074697281</v>
@@ -2541,9 +2558,9 @@
         <v>0.95647592069997311</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.024540433766024349</v>
+        <v>2.4540433766024349E-2</v>
       </c>
       <c r="B59">
         <v>0.77544995234824976</v>
@@ -2555,7 +2572,7 @@
         <v>0.98772978311698778</v>
       </c>
       <c r="E59">
-        <v>0.09291434867908302</v>
+        <v>9.291434867908302E-2</v>
       </c>
       <c r="F59">
         <v>0.61309170690616877</v>
@@ -2567,7 +2584,7 @@
         <v>0.95355626326963905</v>
       </c>
       <c r="I59">
-        <v>0.081861915128060417</v>
+        <v>8.1861915128060417E-2</v>
       </c>
       <c r="J59">
         <v>0.87144091865014761</v>
@@ -2579,9 +2596,9 @@
         <v>0.95953935875728991</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.021831178603187631</v>
+        <v>2.1831178603187631E-2</v>
       </c>
       <c r="B60">
         <v>0.73789082200497824</v>
@@ -2605,7 +2622,7 @@
         <v>0.94013555418747297</v>
       </c>
       <c r="I60">
-        <v>0.094124085094739726</v>
+        <v>9.4124085094739726E-2</v>
       </c>
       <c r="J60">
         <v>0.86702082153032656</v>
@@ -2617,9 +2634,9 @@
         <v>0.95428523382812325</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.030419051378198801</v>
+        <v>3.0419051378198801E-2</v>
       </c>
       <c r="B61">
         <v>0.90509247349368471</v>
@@ -2631,7 +2648,7 @@
         <v>0.98479047431090061</v>
       </c>
       <c r="E61">
-        <v>0.0063482665614104337</v>
+        <v>6.3482665614104337E-3</v>
       </c>
       <c r="F61">
         <v>0.6072320868413813</v>
@@ -2655,9 +2672,9 @@
         <v>0.94651064622941472</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.018906140687413961</v>
+        <v>1.8906140687413961E-2</v>
       </c>
       <c r="B62">
         <v>0.92955734857451811</v>
@@ -2669,7 +2686,7 @@
         <v>0.9905469296562931</v>
       </c>
       <c r="E62">
-        <v>0.0046263907381914205</v>
+        <v>4.6263907381914205E-3</v>
       </c>
       <c r="F62">
         <v>0.75137942698083382</v>
@@ -2681,7 +2698,7 @@
         <v>0.9976868046309042</v>
       </c>
       <c r="I62">
-        <v>0.068800636410823499</v>
+        <v>6.8800636410823499E-2</v>
       </c>
       <c r="J62">
         <v>0.87010519878769921</v>
@@ -2693,9 +2710,9 @@
         <v>0.9655996817945881</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.023343526438130487</v>
+        <v>2.3343526438130487E-2</v>
       </c>
       <c r="B63">
         <v>0.9147986683183521</v>
@@ -2707,7 +2724,7 @@
         <v>0.98832823678093473</v>
       </c>
       <c r="E63">
-        <v>0.019853986594750739</v>
+        <v>1.9853986594750739E-2</v>
       </c>
       <c r="F63">
         <v>0.73662316305523501</v>
@@ -2731,9 +2748,9 @@
         <v>0.93835616438356162</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.041683702441794437</v>
+        <v>4.1683702441794437E-2</v>
       </c>
       <c r="B64">
         <v>0.88524792900291682</v>
@@ -2745,7 +2762,7 @@
         <v>0.97915814877910279</v>
       </c>
       <c r="E64">
-        <v>0.03595400340715503</v>
+        <v>3.595400340715503E-2</v>
       </c>
       <c r="F64">
         <v>0.6054010796087026</v>
@@ -2769,9 +2786,9 @@
         <v>0.91163685406019312</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.031187168448195565</v>
+        <v>3.1187168448195565E-2</v>
       </c>
       <c r="B65">
         <v>0.89859235401196058</v>
@@ -2783,7 +2800,7 @@
         <v>0.98440641577590227</v>
       </c>
       <c r="E65">
-        <v>0.012163052491679257</v>
+        <v>1.2163052491679257E-2</v>
       </c>
       <c r="F65">
         <v>0.65302682420693947</v>
@@ -2807,9 +2824,9 @@
         <v>0.94523171235029291</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.030297326786688488</v>
+        <v>3.0297326786688488E-2</v>
       </c>
       <c r="B66">
         <v>0.90544532819843115</v>
@@ -2821,7 +2838,7 @@
         <v>0.9848513366066558</v>
       </c>
       <c r="E66">
-        <v>0.012441352973267868</v>
+        <v>1.2441352973267868E-2</v>
       </c>
       <c r="F66">
         <v>0.64487200985762572</v>
@@ -2845,9 +2862,9 @@
         <v>0.94920440080014556</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.036961939762598747</v>
+        <v>3.6961939762598747E-2</v>
       </c>
       <c r="B67">
         <v>0.89546487754122028</v>
@@ -2859,7 +2876,7 @@
         <v>0.98151903011870067</v>
       </c>
       <c r="E67">
-        <v>0.018800426646390402</v>
+        <v>1.8800426646390402E-2</v>
       </c>
       <c r="F67">
         <v>0.62178138868898192</v>
@@ -2883,9 +2900,9 @@
         <v>0.93449992255593584</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.027223779962250564</v>
+        <v>2.7223779962250564E-2</v>
       </c>
       <c r="B68">
         <v>0.91833995468288299</v>
@@ -2897,7 +2914,7 @@
         <v>0.98638811001887472</v>
       </c>
       <c r="E68">
-        <v>0.0051169032370686363</v>
+        <v>5.1169032370686363E-3</v>
       </c>
       <c r="F68">
         <v>0.68722688905843088</v>
@@ -2909,7 +2926,7 @@
         <v>0.9974415483814657</v>
       </c>
       <c r="I68">
-        <v>0.078319168203192333</v>
+        <v>7.8319168203192333E-2</v>
       </c>
       <c r="J68">
         <v>0.8631513709195574</v>
@@ -2921,9 +2938,9 @@
         <v>0.96084041589840385</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.028189724278070878</v>
+        <v>2.8189724278070878E-2</v>
       </c>
       <c r="B69">
         <v>0.91753754878518479</v>
@@ -2935,7 +2952,7 @@
         <v>0.98590513786096456</v>
       </c>
       <c r="E69">
-        <v>0.0058770343580470154</v>
+        <v>5.8770343580470154E-3</v>
       </c>
       <c r="F69">
         <v>0.68925284824031474</v>
@@ -2947,7 +2964,7 @@
         <v>0.99706458989703151</v>
       </c>
       <c r="I69">
-        <v>0.07629192222367219</v>
+        <v>7.629192222367219E-2</v>
       </c>
       <c r="J69">
         <v>0.87193888732297153</v>
@@ -2959,9 +2976,9 @@
         <v>0.961872681344494</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.026837182405639596</v>
+        <v>2.6837182405639596E-2</v>
       </c>
       <c r="B70">
         <v>0.91528101834945275</v>
@@ -2973,7 +2990,7 @@
         <v>0.98658140879718026</v>
       </c>
       <c r="E70">
-        <v>0.0033251028051108824</v>
+        <v>3.3251028051108824E-3</v>
       </c>
       <c r="F70">
         <v>0.6151045609622946</v>
@@ -2985,7 +3002,7 @@
         <v>0.99833744859744455</v>
       </c>
       <c r="I70">
-        <v>0.072098968277280073</v>
+        <v>7.2098968277280073E-2</v>
       </c>
       <c r="J70">
         <v>0.87070878819405195</v>
@@ -2997,9 +3014,9 @@
         <v>0.96395051586135994</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.039314408995260064</v>
+        <v>3.9314408995260064E-2</v>
       </c>
       <c r="B71">
         <v>0.89756779811832965</v>
@@ -3011,7 +3028,7 @@
         <v>0.98034279550237002</v>
       </c>
       <c r="E71">
-        <v>0.023697047633217849</v>
+        <v>2.3697047633217849E-2</v>
       </c>
       <c r="F71">
         <v>0.63699192611261168</v>
@@ -3035,9 +3052,9 @@
         <v>0.93255680489723036</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.036589394378441033</v>
+        <v>3.6589394378441033E-2</v>
       </c>
       <c r="B72">
         <v>0.89386304083795565</v>
@@ -3049,7 +3066,7 @@
         <v>0.9817053028107795</v>
       </c>
       <c r="E72">
-        <v>0.025325992465951897</v>
+        <v>2.5325992465951897E-2</v>
       </c>
       <c r="F72">
         <v>0.61932226940000723</v>
@@ -3073,9 +3090,9 @@
         <v>0.93166304452815607</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.040906598883572565</v>
+        <v>4.0906598883572565E-2</v>
       </c>
       <c r="B73">
         <v>0.89115512027807486</v>
@@ -3087,7 +3104,7 @@
         <v>0.97954670055821369</v>
       </c>
       <c r="E73">
-        <v>0.025122109250398726</v>
+        <v>2.5122109250398726E-2</v>
       </c>
       <c r="F73">
         <v>0.60814468797586052</v>
@@ -3111,9 +3128,9 @@
         <v>0.92276361476608193</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.029595371805622613</v>
+        <v>2.9595371805622613E-2</v>
       </c>
       <c r="B74">
         <v>0.91357458163560934</v>
@@ -3125,7 +3142,7 @@
         <v>0.98520231409718872</v>
       </c>
       <c r="E74">
-        <v>0.0066132188143216523</v>
+        <v>6.6132188143216523E-3</v>
       </c>
       <c r="F74">
         <v>0.67675434736968998</v>
@@ -3137,7 +3154,7 @@
         <v>0.99669339059283923</v>
       </c>
       <c r="I74">
-        <v>0.086810408355144461</v>
+        <v>8.6810408355144461E-2</v>
       </c>
       <c r="J74">
         <v>0.87768808627305417</v>
@@ -3149,9 +3166,9 @@
         <v>0.95659479582242779</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.031015740235598391</v>
+        <v>3.1015740235598391E-2</v>
       </c>
       <c r="B75">
         <v>0.89910932625408624</v>
@@ -3163,7 +3180,7 @@
         <v>0.98449212988220081</v>
       </c>
       <c r="E75">
-        <v>0.01310591824776222</v>
+        <v>1.310591824776222E-2</v>
       </c>
       <c r="F75">
         <v>0.6498238954043184</v>
@@ -3187,9 +3204,9 @@
         <v>0.94033342762657202</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.039333670560103007</v>
+        <v>3.9333670560103007E-2</v>
       </c>
       <c r="B76">
         <v>0.898527054305442</v>
@@ -3201,7 +3218,7 @@
         <v>0.98033316471994847</v>
       </c>
       <c r="E76">
-        <v>0.02011634323553757</v>
+        <v>2.011634323553757E-2</v>
       </c>
       <c r="F76">
         <v>0.64965938796361522</v>
@@ -3225,9 +3242,9 @@
         <v>0.93434386400564096</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.035728902349185562</v>
+        <v>3.5728902349185562E-2</v>
       </c>
       <c r="B77">
         <v>0.90058661525263151</v>
@@ -3239,7 +3256,7 @@
         <v>0.98213554882540721</v>
       </c>
       <c r="E77">
-        <v>0.022655134466544796</v>
+        <v>2.2655134466544796E-2</v>
       </c>
       <c r="F77">
         <v>0.65629121149892466</v>
@@ -3263,9 +3280,9 @@
         <v>0.93572272546754831</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.023046087656028273</v>
+        <v>2.3046087656028273E-2</v>
       </c>
       <c r="B78">
         <v>0.92406398769392573</v>
@@ -3277,7 +3294,7 @@
         <v>0.98847695617198583</v>
       </c>
       <c r="E78">
-        <v>0.0023296907906035051</v>
+        <v>2.3296907906035051E-3</v>
       </c>
       <c r="F78">
         <v>0.66745415776683148</v>
@@ -3289,7 +3306,7 @@
         <v>0.99883515460469818</v>
       </c>
       <c r="I78">
-        <v>0.065581586630150859</v>
+        <v>6.5581586630150859E-2</v>
       </c>
       <c r="J78">
         <v>0.88679005971512304</v>
@@ -3301,9 +3318,9 @@
         <v>0.96720920668492449</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.029994070196603655</v>
+        <v>2.9994070196603655E-2</v>
       </c>
       <c r="B79">
         <v>0.89916184622337969</v>
@@ -3315,7 +3332,7 @@
         <v>0.98500296490169825</v>
       </c>
       <c r="E79">
-        <v>0.0060039259388003398</v>
+        <v>6.0039259388003398E-3</v>
       </c>
       <c r="F79">
         <v>0.68090736024522625</v>
@@ -3339,9 +3356,9 @@
         <v>0.94705179717346033</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.021515322815492403</v>
+        <v>2.1515322815492403E-2</v>
       </c>
       <c r="B80">
         <v>0.9287794088600736</v>
@@ -3353,7 +3370,7 @@
         <v>0.98924233859225374</v>
       </c>
       <c r="E80">
-        <v>0.00099568323140963042</v>
+        <v>9.9568323140963042E-4</v>
       </c>
       <c r="F80">
         <v>0.72274667185458474</v>
@@ -3365,7 +3382,7 @@
         <v>0.99950215838429524</v>
       </c>
       <c r="I80">
-        <v>0.054572006098292131</v>
+        <v>5.4572006098292131E-2</v>
       </c>
       <c r="J80">
         <v>0.892613804141136</v>
@@ -3377,9 +3394,9 @@
         <v>0.97271399695085392</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.030419051378198801</v>
+        <v>3.0419051378198801E-2</v>
       </c>
       <c r="B81">
         <v>0.90509247349368471</v>
@@ -3391,7 +3408,7 @@
         <v>0.98479047431090061</v>
       </c>
       <c r="E81">
-        <v>0.0063482665614104337</v>
+        <v>6.3482665614104337E-3</v>
       </c>
       <c r="F81">
         <v>0.6072320868413813</v>
@@ -3415,9 +3432,9 @@
         <v>0.94651064622941472</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.018906140687413961</v>
+        <v>1.8906140687413961E-2</v>
       </c>
       <c r="B82">
         <v>0.92955734857451811</v>
@@ -3429,7 +3446,7 @@
         <v>0.9905469296562931</v>
       </c>
       <c r="E82">
-        <v>0.0046263907381914205</v>
+        <v>4.6263907381914205E-3</v>
       </c>
       <c r="F82">
         <v>0.75137942698083382</v>
@@ -3441,7 +3458,7 @@
         <v>0.9976868046309042</v>
       </c>
       <c r="I82">
-        <v>0.068800636410823499</v>
+        <v>6.8800636410823499E-2</v>
       </c>
       <c r="J82">
         <v>0.87010519878769921</v>
@@ -3453,9 +3470,9 @@
         <v>0.9655996817945881</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.023343526438130487</v>
+        <v>2.3343526438130487E-2</v>
       </c>
       <c r="B83">
         <v>0.9147986683183521</v>
@@ -3467,7 +3484,7 @@
         <v>0.98832823678093473</v>
       </c>
       <c r="E83">
-        <v>0.019853986594750739</v>
+        <v>1.9853986594750739E-2</v>
       </c>
       <c r="F83">
         <v>0.73662316305523501</v>
@@ -3491,9 +3508,9 @@
         <v>0.93835616438356162</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0.041683702441794437</v>
+        <v>4.1683702441794437E-2</v>
       </c>
       <c r="B84">
         <v>0.88524792900291682</v>
@@ -3505,7 +3522,7 @@
         <v>0.97915814877910279</v>
       </c>
       <c r="E84">
-        <v>0.03595400340715503</v>
+        <v>3.595400340715503E-2</v>
       </c>
       <c r="F84">
         <v>0.6054010796087026</v>
@@ -3529,9 +3546,9 @@
         <v>0.91163685406019312</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0.031187168448195565</v>
+        <v>3.1187168448195565E-2</v>
       </c>
       <c r="B85">
         <v>0.89859235401196058</v>
@@ -3543,7 +3560,7 @@
         <v>0.98440641577590227</v>
       </c>
       <c r="E85">
-        <v>0.012163052491679257</v>
+        <v>1.2163052491679257E-2</v>
       </c>
       <c r="F85">
         <v>0.65302682420693947</v>
@@ -3567,9 +3584,9 @@
         <v>0.94523171235029291</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.030297326786688488</v>
+        <v>3.0297326786688488E-2</v>
       </c>
       <c r="B86">
         <v>0.90544532819843115</v>
@@ -3581,7 +3598,7 @@
         <v>0.9848513366066558</v>
       </c>
       <c r="E86">
-        <v>0.012441352973267868</v>
+        <v>1.2441352973267868E-2</v>
       </c>
       <c r="F86">
         <v>0.64487200985762572</v>
@@ -3605,9 +3622,9 @@
         <v>0.94920440080014556</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.036961939762598747</v>
+        <v>3.6961939762598747E-2</v>
       </c>
       <c r="B87">
         <v>0.89546487754122028</v>
@@ -3619,7 +3636,7 @@
         <v>0.98151903011870067</v>
       </c>
       <c r="E87">
-        <v>0.018800426646390402</v>
+        <v>1.8800426646390402E-2</v>
       </c>
       <c r="F87">
         <v>0.62178138868898192</v>
@@ -3643,9 +3660,9 @@
         <v>0.93449992255593584</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.027223779962250564</v>
+        <v>2.7223779962250564E-2</v>
       </c>
       <c r="B88">
         <v>0.91833995468288299</v>
@@ -3657,7 +3674,7 @@
         <v>0.98638811001887472</v>
       </c>
       <c r="E88">
-        <v>0.0051169032370686363</v>
+        <v>5.1169032370686363E-3</v>
       </c>
       <c r="F88">
         <v>0.68722688905843088</v>
@@ -3669,7 +3686,7 @@
         <v>0.9974415483814657</v>
       </c>
       <c r="I88">
-        <v>0.078319168203192333</v>
+        <v>7.8319168203192333E-2</v>
       </c>
       <c r="J88">
         <v>0.8631513709195574</v>
@@ -3681,9 +3698,9 @@
         <v>0.96084041589840385</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.028189724278070878</v>
+        <v>2.8189724278070878E-2</v>
       </c>
       <c r="B89">
         <v>0.91753754878518479</v>
@@ -3695,7 +3712,7 @@
         <v>0.98590513786096456</v>
       </c>
       <c r="E89">
-        <v>0.0058770343580470154</v>
+        <v>5.8770343580470154E-3</v>
       </c>
       <c r="F89">
         <v>0.68925284824031474</v>
@@ -3707,7 +3724,7 @@
         <v>0.99706458989703151</v>
       </c>
       <c r="I89">
-        <v>0.07629192222367219</v>
+        <v>7.629192222367219E-2</v>
       </c>
       <c r="J89">
         <v>0.87193888732297153</v>
@@ -3719,9 +3736,9 @@
         <v>0.961872681344494</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.026837182405639596</v>
+        <v>2.6837182405639596E-2</v>
       </c>
       <c r="B90">
         <v>0.91528101834945275</v>
@@ -3733,7 +3750,7 @@
         <v>0.98658140879718026</v>
       </c>
       <c r="E90">
-        <v>0.0033251028051108824</v>
+        <v>3.3251028051108824E-3</v>
       </c>
       <c r="F90">
         <v>0.6151045609622946</v>
@@ -3745,7 +3762,7 @@
         <v>0.99833744859744455</v>
       </c>
       <c r="I90">
-        <v>0.072098968277280073</v>
+        <v>7.2098968277280073E-2</v>
       </c>
       <c r="J90">
         <v>0.87070878819405195</v>
@@ -3757,9 +3774,9 @@
         <v>0.96395051586135994</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.039314408995260064</v>
+        <v>3.9314408995260064E-2</v>
       </c>
       <c r="B91">
         <v>0.89756779811832965</v>
@@ -3771,7 +3788,7 @@
         <v>0.98034279550237002</v>
       </c>
       <c r="E91">
-        <v>0.023697047633217849</v>
+        <v>2.3697047633217849E-2</v>
       </c>
       <c r="F91">
         <v>0.63699192611261168</v>
@@ -3795,9 +3812,9 @@
         <v>0.93255680489723036</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0.036589394378441033</v>
+        <v>3.6589394378441033E-2</v>
       </c>
       <c r="B92">
         <v>0.89386304083795565</v>
@@ -3809,7 +3826,7 @@
         <v>0.9817053028107795</v>
       </c>
       <c r="E92">
-        <v>0.025325992465951897</v>
+        <v>2.5325992465951897E-2</v>
       </c>
       <c r="F92">
         <v>0.61932226940000723</v>
@@ -3833,9 +3850,9 @@
         <v>0.93166304452815607</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0.040906598883572565</v>
+        <v>4.0906598883572565E-2</v>
       </c>
       <c r="B93">
         <v>0.89115512027807486</v>
@@ -3847,7 +3864,7 @@
         <v>0.97954670055821369</v>
       </c>
       <c r="E93">
-        <v>0.025122109250398726</v>
+        <v>2.5122109250398726E-2</v>
       </c>
       <c r="F93">
         <v>0.60814468797586052</v>
@@ -3871,9 +3888,9 @@
         <v>0.92276361476608193</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0.029595371805622613</v>
+        <v>2.9595371805622613E-2</v>
       </c>
       <c r="B94">
         <v>0.91357458163560934</v>
@@ -3885,7 +3902,7 @@
         <v>0.98520231409718872</v>
       </c>
       <c r="E94">
-        <v>0.0066132188143216523</v>
+        <v>6.6132188143216523E-3</v>
       </c>
       <c r="F94">
         <v>0.67675434736968998</v>
@@ -3897,7 +3914,7 @@
         <v>0.99669339059283923</v>
       </c>
       <c r="I94">
-        <v>0.086810408355144461</v>
+        <v>8.6810408355144461E-2</v>
       </c>
       <c r="J94">
         <v>0.87768808627305417</v>
@@ -3909,9 +3926,9 @@
         <v>0.95659479582242779</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0.031015740235598391</v>
+        <v>3.1015740235598391E-2</v>
       </c>
       <c r="B95">
         <v>0.89910932625408624</v>
@@ -3923,7 +3940,7 @@
         <v>0.98449212988220081</v>
       </c>
       <c r="E95">
-        <v>0.01310591824776222</v>
+        <v>1.310591824776222E-2</v>
       </c>
       <c r="F95">
         <v>0.6498238954043184</v>
@@ -3947,9 +3964,9 @@
         <v>0.94033342762657202</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0.039333670560103007</v>
+        <v>3.9333670560103007E-2</v>
       </c>
       <c r="B96">
         <v>0.898527054305442</v>
@@ -3961,7 +3978,7 @@
         <v>0.98033316471994847</v>
       </c>
       <c r="E96">
-        <v>0.02011634323553757</v>
+        <v>2.011634323553757E-2</v>
       </c>
       <c r="F96">
         <v>0.64965938796361522</v>
@@ -3985,9 +4002,9 @@
         <v>0.93434386400564096</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.035728902349185562</v>
+        <v>3.5728902349185562E-2</v>
       </c>
       <c r="B97">
         <v>0.90058661525263151</v>
@@ -3999,7 +4016,7 @@
         <v>0.98213554882540721</v>
       </c>
       <c r="E97">
-        <v>0.022655134466544796</v>
+        <v>2.2655134466544796E-2</v>
       </c>
       <c r="F97">
         <v>0.65629121149892466</v>
@@ -4023,9 +4040,9 @@
         <v>0.93572272546754831</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>0.023046087656028273</v>
+        <v>2.3046087656028273E-2</v>
       </c>
       <c r="B98">
         <v>0.92406398769392573</v>
@@ -4037,7 +4054,7 @@
         <v>0.98847695617198583</v>
       </c>
       <c r="E98">
-        <v>0.0023296907906035051</v>
+        <v>2.3296907906035051E-3</v>
       </c>
       <c r="F98">
         <v>0.66745415776683148</v>
@@ -4049,7 +4066,7 @@
         <v>0.99883515460469818</v>
       </c>
       <c r="I98">
-        <v>0.065581586630150859</v>
+        <v>6.5581586630150859E-2</v>
       </c>
       <c r="J98">
         <v>0.88679005971512304</v>
@@ -4061,9 +4078,9 @@
         <v>0.96720920668492449</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>0.029994070196603655</v>
+        <v>2.9994070196603655E-2</v>
       </c>
       <c r="B99">
         <v>0.89916184622337969</v>
@@ -4075,7 +4092,7 @@
         <v>0.98500296490169825</v>
       </c>
       <c r="E99">
-        <v>0.0060039259388003398</v>
+        <v>6.0039259388003398E-3</v>
       </c>
       <c r="F99">
         <v>0.68090736024522625</v>
@@ -4099,9 +4116,9 @@
         <v>0.94705179717346033</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0.021515322815492403</v>
+        <v>2.1515322815492403E-2</v>
       </c>
       <c r="B100">
         <v>0.9287794088600736</v>
@@ -4113,7 +4130,7 @@
         <v>0.98924233859225374</v>
       </c>
       <c r="E100">
-        <v>0.00099568323140963042</v>
+        <v>9.9568323140963042E-4</v>
       </c>
       <c r="F100">
         <v>0.72274667185458474</v>
@@ -4125,7 +4142,7 @@
         <v>0.99950215838429524</v>
       </c>
       <c r="I100">
-        <v>0.054572006098292131</v>
+        <v>5.4572006098292131E-2</v>
       </c>
       <c r="J100">
         <v>0.892613804141136</v>
@@ -4137,9 +4154,9 @@
         <v>0.97271399695085392</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0.0024842989981541889</v>
+        <v>2.4842989981541889E-3</v>
       </c>
       <c r="B101">
         <v>0.82382456066007448</v>
@@ -4151,7 +4168,7 @@
         <v>0.99985488907721065</v>
       </c>
       <c r="E101">
-        <v>0.094658757153968515</v>
+        <v>9.4658757153968515E-2</v>
       </c>
       <c r="F101">
         <v>0.78760294695825039</v>
@@ -4175,9 +4192,9 @@
         <v>0.92782182700456228</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>0.084271042050928197</v>
+        <v>8.4271042050928197E-2</v>
       </c>
       <c r="B102">
         <v>0.83249427632774531</v>
@@ -4201,7 +4218,7 @@
         <v>0.9352417032682685</v>
       </c>
       <c r="I102">
-        <v>0.039579490718010646</v>
+        <v>3.9579490718010646E-2</v>
       </c>
       <c r="J102">
         <v>0.60173437650923556</v>
@@ -4213,9 +4230,9 @@
         <v>0.98083226071840868</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0.0030759573132454489</v>
+        <v>3.0759573132454489E-3</v>
       </c>
       <c r="B103">
         <v>0.82349801886159479</v>
@@ -4251,9 +4268,9 @@
         <v>0.9327067494361907</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.037104979189147527</v>
+        <v>3.7104979189147527E-2</v>
       </c>
       <c r="B104">
         <v>0.7560356160358519</v>
@@ -4277,7 +4294,7 @@
         <v>0.93759506191870901</v>
       </c>
       <c r="I104">
-        <v>0.060432403268074614</v>
+        <v>6.0432403268074614E-2</v>
       </c>
       <c r="J104">
         <v>0.65412324300586222</v>
@@ -4289,9 +4306,9 @@
         <v>0.97039527773495715</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0.0097273570666998998</v>
+        <v>9.7273570666998998E-3</v>
       </c>
       <c r="B105">
         <v>0.77457464313782032</v>
@@ -4303,7 +4320,7 @@
         <v>0.9960584917305102</v>
       </c>
       <c r="E105">
-        <v>0.058194519447790735</v>
+        <v>5.8194519447790735E-2</v>
       </c>
       <c r="F105">
         <v>0.87670694425123163</v>
@@ -4315,7 +4332,7 @@
         <v>0.97092120263827175</v>
       </c>
       <c r="I105">
-        <v>0.013663301901161745</v>
+        <v>1.3663301901161745E-2</v>
       </c>
       <c r="J105">
         <v>0.69734785517315101</v>
@@ -4327,9 +4344,9 @@
         <v>0.99318219582104428</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0.043666485317339215</v>
+        <v>4.3666485317339215E-2</v>
       </c>
       <c r="B106">
         <v>0.82042329985199391</v>
@@ -4341,7 +4358,7 @@
         <v>0.97892282053809543</v>
       </c>
       <c r="E106">
-        <v>0.089021509799498452</v>
+        <v>8.9021509799498452E-2</v>
       </c>
       <c r="F106">
         <v>0.85498740755749114</v>
@@ -4353,7 +4370,7 @@
         <v>0.95557328503248795</v>
       </c>
       <c r="I106">
-        <v>0.023885033372699406</v>
+        <v>2.3885033372699406E-2</v>
       </c>
       <c r="J106">
         <v>0.63155798516303496</v>
@@ -4365,9 +4382,9 @@
         <v>0.98822114002379657</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.00294045577064445</v>
+        <v>2.94045577064445E-3</v>
       </c>
       <c r="B107">
         <v>0.71255731072281336</v>
@@ -4403,9 +4420,9 @@
         <v>0.9221885294998502</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.031377410468319551</v>
+        <v>3.1377410468319551E-2</v>
       </c>
       <c r="B108">
         <v>0.89073914356970263</v>
@@ -4417,7 +4434,7 @@
         <v>0.98499803227075955</v>
       </c>
       <c r="E108">
-        <v>0.061906336088154275</v>
+        <v>6.1906336088154275E-2</v>
       </c>
       <c r="F108">
         <v>0.88422641249998901</v>
@@ -4429,7 +4446,7 @@
         <v>0.96904683195592278</v>
       </c>
       <c r="I108">
-        <v>0.0081377410468319554</v>
+        <v>8.1377410468319554E-3</v>
       </c>
       <c r="J108">
         <v>0.67229791712118681</v>
@@ -4441,9 +4458,9 @@
         <v>0.99593112947658402</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.050507878987536392</v>
+        <v>5.0507878987536392E-2</v>
       </c>
       <c r="B109">
         <v>0.87977510988830121</v>
@@ -4455,7 +4472,7 @@
         <v>0.97553041325792933</v>
       </c>
       <c r="E109">
-        <v>0.059386152748037116</v>
+        <v>5.9386152748037116E-2</v>
       </c>
       <c r="F109">
         <v>0.89147375591237132</v>
@@ -4467,7 +4484,7 @@
         <v>0.97033254634967692</v>
       </c>
       <c r="I109">
-        <v>0.006503596332290122</v>
+        <v>6.503596332290122E-3</v>
       </c>
       <c r="J109">
         <v>0.69205099440726836</v>
@@ -4479,9 +4496,9 @@
         <v>0.99675186222295431</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.0091924522845575479</v>
+        <v>9.1924522845575479E-3</v>
       </c>
       <c r="B110">
         <v>0.88280694502713508</v>
@@ -4493,7 +4510,7 @@
         <v>0.99540377385772116</v>
       </c>
       <c r="E110">
-        <v>0.027154424522845576</v>
+        <v>2.7154424522845576E-2</v>
       </c>
       <c r="F110">
         <v>0.94709769973999691</v>
@@ -4505,7 +4522,7 @@
         <v>0.98642278773857717</v>
       </c>
       <c r="I110">
-        <v>0.00026749566223250432</v>
+        <v>2.6749566223250432E-4</v>
       </c>
       <c r="J110">
         <v>0.70386619170750242</v>
@@ -4517,9 +4534,9 @@
         <v>0.9998662521688837</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.012848160860188924</v>
+        <v>1.2848160860188924E-2</v>
       </c>
       <c r="B111">
         <v>0.89775181242395696</v>
@@ -4531,7 +4548,7 @@
         <v>0.99357591956990554</v>
       </c>
       <c r="E111">
-        <v>0.024709169881238037</v>
+        <v>2.4709169881238037E-2</v>
       </c>
       <c r="F111">
         <v>0.92609127747255893</v>
@@ -4543,7 +4560,7 @@
         <v>0.98764541505938086</v>
       </c>
       <c r="I111">
-        <v>0.00064544543328372262</v>
+        <v>6.4544543328372262E-4</v>
       </c>
       <c r="J111">
         <v>0.83621510040875191</v>
@@ -4555,9 +4572,9 @@
         <v>0.9996772772833582</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.028091036951796447</v>
+        <v>2.8091036951796447E-2</v>
       </c>
       <c r="B112">
         <v>0.79862060729438233</v>
@@ -4569,7 +4586,7 @@
         <v>0.98655862421685203</v>
       </c>
       <c r="E112">
-        <v>0.070997954225802309</v>
+        <v>7.0997954225802309E-2</v>
       </c>
       <c r="F112">
         <v>0.86746270259068636</v>
@@ -4581,7 +4598,7 @@
         <v>0.9645052849166772</v>
       </c>
       <c r="I112">
-        <v>0.012156373865234623</v>
+        <v>1.2156373865234623E-2</v>
       </c>
       <c r="J112">
         <v>0.61748074110940498</v>
@@ -4593,9 +4610,9 @@
         <v>0.99393033712653966</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.0018686524862108729</v>
+        <v>1.8686524862108729E-3</v>
       </c>
       <c r="B113">
         <v>0.74328380076233325</v>
@@ -4607,7 +4624,7 @@
         <v>0.99988624838490059</v>
       </c>
       <c r="E113">
-        <v>0.020860830543090153</v>
+        <v>2.0860830543090153E-2</v>
       </c>
       <c r="F113">
         <v>0.85599622340613046</v>
@@ -4619,7 +4636,7 @@
         <v>0.98956958472845491</v>
       </c>
       <c r="I113">
-        <v>0.064044764299706847</v>
+        <v>6.4044764299706847E-2</v>
       </c>
       <c r="J113">
         <v>0.86393763458281692</v>
@@ -4631,9 +4648,9 @@
         <v>0.96797761785014658</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>0.033951756619144596</v>
+        <v>3.3951756619144596E-2</v>
       </c>
       <c r="B114">
         <v>0.87887894944891121</v>
@@ -4645,7 +4662,7 @@
         <v>0.98420639593031711</v>
       </c>
       <c r="E114">
-        <v>0.046222632382892058</v>
+        <v>4.6222632382892058E-2</v>
       </c>
       <c r="F114">
         <v>0.88617363395007254</v>
@@ -4657,7 +4674,7 @@
         <v>0.97688868380855398</v>
       </c>
       <c r="I114">
-        <v>0.0030613543788187373</v>
+        <v>3.0613543788187373E-3</v>
       </c>
       <c r="J114">
         <v>0.62002578761171856</v>
@@ -4669,9 +4686,9 @@
         <v>0.99846932281059064</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>0.043276459064194264</v>
+        <v>4.3276459064194264E-2</v>
       </c>
       <c r="B115">
         <v>0.84864912530374781</v>
@@ -4683,7 +4700,7 @@
         <v>0.9797863899591911</v>
       </c>
       <c r="E115">
-        <v>0.063690259237322883</v>
+        <v>6.3690259237322883E-2</v>
       </c>
       <c r="F115">
         <v>0.87108978333165654</v>
@@ -4695,7 +4712,7 @@
         <v>0.96815866706152132</v>
       </c>
       <c r="I115">
-        <v>0.0078876030798669637</v>
+        <v>7.8876030798669637E-3</v>
       </c>
       <c r="J115">
         <v>0.60018625276900561</v>
@@ -4707,9 +4724,9 @@
         <v>0.99605619846006643</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>0.014643628509719222</v>
+        <v>1.4643628509719222E-2</v>
       </c>
       <c r="B116">
         <v>0.90189116346830522</v>
@@ -4721,7 +4738,7 @@
         <v>0.99326133909287273</v>
       </c>
       <c r="E116">
-        <v>0.034791730947238503</v>
+        <v>3.4791730947238503E-2</v>
       </c>
       <c r="F116">
         <v>0.92694908183601255</v>
@@ -4733,7 +4750,7 @@
         <v>0.98260413452638073</v>
       </c>
       <c r="I116">
-        <v>0.00079605060166615242</v>
+        <v>7.9605060166615242E-4</v>
       </c>
       <c r="J116">
         <v>0.78424230615610568</v>
@@ -4745,9 +4762,9 @@
         <v>0.99960197469916701</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0.014797290747831142</v>
+        <v>1.4797290747831142E-2</v>
       </c>
       <c r="B117">
         <v>0.85665071953580274</v>
@@ -4759,7 +4776,7 @@
         <v>0.99331698613870967</v>
       </c>
       <c r="E117">
-        <v>0.046793970823438169</v>
+        <v>4.6793970823438169E-2</v>
       </c>
       <c r="F117">
         <v>0.90965844477846847</v>
@@ -4771,7 +4788,7 @@
         <v>0.97660301458828092</v>
       </c>
       <c r="I117">
-        <v>0.0052979450394998306</v>
+        <v>5.2979450394998306E-3</v>
       </c>
       <c r="J117">
         <v>0.77601658207776281</v>
@@ -4783,9 +4800,9 @@
         <v>0.99735102748025006</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>0.04327583668662284</v>
+        <v>4.327583668662284E-2</v>
       </c>
       <c r="B118">
         <v>0.87196794710465353</v>
@@ -4797,7 +4814,7 @@
         <v>0.97942510071552413</v>
       </c>
       <c r="E118">
-        <v>0.061159706546275394</v>
+        <v>6.1159706546275394E-2</v>
       </c>
       <c r="F118">
         <v>0.88481267945096398</v>
@@ -4809,7 +4826,7 @@
         <v>0.96942423610429551</v>
       </c>
       <c r="I118">
-        <v>0.006998969476886838</v>
+        <v>6.998969476886838E-3</v>
       </c>
       <c r="J118">
         <v>0.67085126412348639</v>
@@ -4821,9 +4838,9 @@
         <v>0.99650869401642295</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>0.038868078317118429</v>
+        <v>3.8868078317118429E-2</v>
       </c>
       <c r="B119">
         <v>0.83511582422087827</v>
@@ -4835,7 +4852,7 @@
         <v>0.98150592048379626</v>
       </c>
       <c r="E119">
-        <v>0.079669805594575385</v>
+        <v>7.9669805594575385E-2</v>
       </c>
       <c r="F119">
         <v>0.86302716082974829</v>
@@ -4847,7 +4864,7 @@
         <v>0.96021712363213862</v>
       </c>
       <c r="I119">
-        <v>0.018105197440299675</v>
+        <v>1.8105197440299675E-2</v>
       </c>
       <c r="J119">
         <v>0.61742333198561961</v>
@@ -4859,9 +4876,9 @@
         <v>0.99106301556746379</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>0.056513687134672141</v>
+        <v>5.6513687134672141E-2</v>
       </c>
       <c r="B120">
         <v>0.8255988357357682</v>
@@ -4885,7 +4902,7 @@
         <v>0.94909162374365807</v>
       </c>
       <c r="I120">
-        <v>0.045825134556397938</v>
+        <v>4.5825134556397938E-2</v>
       </c>
       <c r="J120">
         <v>0.65384406186690425</v>
@@ -4897,9 +4914,9 @@
         <v>0.97732857321990085</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>0.050955493308434484</v>
+        <v>5.0955493308434484E-2</v>
       </c>
       <c r="B121">
         <v>0.941360315501372</v>
@@ -4911,7 +4928,7 @@
         <v>0.97922813569872391</v>
       </c>
       <c r="E121">
-        <v>0.064575163398692806</v>
+        <v>6.4575163398692806E-2</v>
       </c>
       <c r="F121">
         <v>0.84538842941221848</v>
@@ -4923,7 +4940,7 @@
         <v>0.96776221599751011</v>
       </c>
       <c r="I121">
-        <v>0.0089137877373171477</v>
+        <v>8.9137877373171477E-3</v>
       </c>
       <c r="J121">
         <v>0.64633152946779893</v>
@@ -4935,9 +4952,9 @@
         <v>0.99564270152505441</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>0.058304408537801715</v>
+        <v>5.8304408537801715E-2</v>
       </c>
       <c r="B122">
         <v>0.81430567394644726</v>
@@ -4961,7 +4978,7 @@
         <v>0.94402985570849107</v>
       </c>
       <c r="I122">
-        <v>0.066415320167564323</v>
+        <v>6.6415320167564323E-2</v>
       </c>
       <c r="J122">
         <v>0.72469875533396511</v>
@@ -4973,9 +4990,9 @@
         <v>0.96783496243101275</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0.023190325574689339</v>
+        <v>2.3190325574689339E-2</v>
       </c>
       <c r="B123">
         <v>0.79113073139997292</v>
@@ -4987,7 +5004,7 @@
         <v>0.98840483721265526</v>
       </c>
       <c r="E123">
-        <v>0.096500950681697339</v>
+        <v>9.6500950681697339E-2</v>
       </c>
       <c r="F123">
         <v>0.84362089574778132</v>
@@ -4999,7 +5016,7 @@
         <v>0.95191773374304267</v>
       </c>
       <c r="I123">
-        <v>0.070904634460634566</v>
+        <v>7.0904634460634566E-2</v>
       </c>
       <c r="J123">
         <v>0.73876319718756833</v>
@@ -5011,9 +5028,9 @@
         <v>0.9650402950867929</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>0.06693174287607688</v>
+        <v>6.693174287607688E-2</v>
       </c>
       <c r="B124">
         <v>0.82796101075932849</v>
@@ -5049,9 +5066,9 @@
         <v>0.95299921152099754</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>0.029713732584340981</v>
+        <v>2.9713732584340981E-2</v>
       </c>
       <c r="B125">
         <v>0.93656035391941683</v>
@@ -5063,7 +5080,7 @@
         <v>0.98514313370782958</v>
       </c>
       <c r="E125">
-        <v>0.096789806087149724</v>
+        <v>9.6789806087149724E-2</v>
       </c>
       <c r="F125">
         <v>0.80889379382696702</v>
@@ -5075,7 +5092,7 @@
         <v>0.95173204481259333</v>
       </c>
       <c r="I125">
-        <v>0.022255546034466344</v>
+        <v>2.2255546034466344E-2</v>
       </c>
       <c r="J125">
         <v>0.65884158574002438</v>
@@ -5087,9 +5104,9 @@
         <v>0.98917901763517302</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0.016105001078241095</v>
+        <v>1.6105001078241095E-2</v>
       </c>
       <c r="B126">
         <v>0.96075042729948623</v>
@@ -5101,7 +5118,7 @@
         <v>0.99310538336372012</v>
       </c>
       <c r="E126">
-        <v>0.046305553921856923</v>
+        <v>4.6305553921856923E-2</v>
       </c>
       <c r="F126">
         <v>0.84689834265614961</v>
@@ -5113,7 +5130,7 @@
         <v>0.97684722303907168</v>
       </c>
       <c r="I126">
-        <v>0.0059401282126683528</v>
+        <v>5.9401282126683528E-3</v>
       </c>
       <c r="J126">
         <v>0.60519709374868658</v>
@@ -5125,9 +5142,9 @@
         <v>0.99702993589366584</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.030503680212982536</v>
+        <v>3.0503680212982536E-2</v>
       </c>
       <c r="B127">
         <v>0.94041777503175483</v>
@@ -5139,7 +5156,7 @@
         <v>0.98546144585388773</v>
       </c>
       <c r="E127">
-        <v>0.045841163573721706</v>
+        <v>4.5841163573721706E-2</v>
       </c>
       <c r="F127">
         <v>0.87084034573254865</v>
@@ -5151,7 +5168,7 @@
         <v>0.97707941821313915</v>
       </c>
       <c r="I127">
-        <v>0.0064942056221125987</v>
+        <v>6.4942056221125987E-3</v>
       </c>
       <c r="J127">
         <v>0.65260994367344094</v>
@@ -5163,9 +5180,9 @@
         <v>0.99675289718894367</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0.046993267658133962</v>
+        <v>4.6993267658133962E-2</v>
       </c>
       <c r="B128">
         <v>0.90510364788765585</v>
@@ -5189,7 +5206,7 @@
         <v>0.94411374403577053</v>
       </c>
       <c r="I128">
-        <v>0.031018219162451025</v>
+        <v>3.1018219162451025E-2</v>
       </c>
       <c r="J128">
         <v>0.66622968360674706</v>
@@ -5201,9 +5218,9 @@
         <v>0.98493041556257099</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.060341886174423362</v>
+        <v>6.0341886174423362E-2</v>
       </c>
       <c r="B129">
         <v>0.9176063804298864</v>
@@ -5227,7 +5244,7 @@
         <v>0.92502378948485831</v>
       </c>
       <c r="I129">
-        <v>0.089492061325690361</v>
+        <v>8.9492061325690361E-2</v>
       </c>
       <c r="J129">
         <v>0.70286806144756397</v>
@@ -5239,9 +5256,9 @@
         <v>0.95893091381951079</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.05860107792633177</v>
+        <v>5.860107792633177E-2</v>
       </c>
       <c r="B130">
         <v>0.92990249744737852</v>
@@ -5265,7 +5282,7 @@
         <v>0.93046498393697874</v>
       </c>
       <c r="I130">
-        <v>0.058864107832335796</v>
+        <v>5.8864107832335796E-2</v>
       </c>
       <c r="J130">
         <v>0.67957472751406522</v>
@@ -5277,9 +5294,9 @@
         <v>0.97243810525828211</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.052446192801591615</v>
+        <v>5.2446192801591615E-2</v>
       </c>
       <c r="B131">
         <v>0.89436351556116334</v>
@@ -5291,7 +5308,7 @@
         <v>0.97484513474407675</v>
       </c>
       <c r="E131">
-        <v>0.076722734671730866</v>
+        <v>7.6722734671730866E-2</v>
       </c>
       <c r="F131">
         <v>0.84570814332753586</v>
@@ -5303,7 +5320,7 @@
         <v>0.96169289202387442</v>
       </c>
       <c r="I131">
-        <v>0.022296075239645503</v>
+        <v>2.2296075239645503E-2</v>
       </c>
       <c r="J131">
         <v>0.67123203134144949</v>
@@ -5315,9 +5332,9 @@
         <v>0.98900871164164705</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.021118771914316863</v>
+        <v>2.1118771914316863E-2</v>
       </c>
       <c r="B132">
         <v>0.96468179181101943</v>
@@ -5329,7 +5346,7 @@
         <v>0.9922250213618552</v>
       </c>
       <c r="E132">
-        <v>0.041581955861987686</v>
+        <v>4.1581955861987686E-2</v>
       </c>
       <c r="F132">
         <v>0.86970917079486021</v>
@@ -5341,7 +5358,7 @@
         <v>0.97920902206900629</v>
       </c>
       <c r="I132">
-        <v>0.001384837502578155</v>
+        <v>1.384837502578155E-3</v>
       </c>
       <c r="J132">
         <v>0.52214921459077346</v>
@@ -5353,9 +5370,9 @@
         <v>0.99930758124871089</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.029120956399437407</v>
+        <v>2.9120956399437407E-2</v>
       </c>
       <c r="B133">
         <v>0.95565756001500501</v>
@@ -5367,7 +5384,7 @@
         <v>0.98926072433192691</v>
       </c>
       <c r="E133">
-        <v>0.078839662447257361</v>
+        <v>7.8839662447257361E-2</v>
       </c>
       <c r="F133">
         <v>0.84039750452666306</v>
@@ -5379,7 +5396,7 @@
         <v>0.96062705110173463</v>
       </c>
       <c r="I133">
-        <v>0.015872011251758085</v>
+        <v>1.5872011251758085E-2</v>
       </c>
       <c r="J133">
         <v>0.64045088125417782</v>
@@ -5391,9 +5408,9 @@
         <v>0.99212025316455688</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.0080725285643318441</v>
+        <v>8.0725285643318441E-3</v>
       </c>
       <c r="B134">
         <v>0.93790057272874827</v>
@@ -5405,7 +5422,7 @@
         <v>0.99596373571783403</v>
       </c>
       <c r="E134">
-        <v>0.027906110283159466</v>
+        <v>2.7906110283159466E-2</v>
       </c>
       <c r="F134">
         <v>0.87838271639347987</v>
@@ -5417,7 +5434,7 @@
         <v>0.98604694485842026</v>
       </c>
       <c r="I134">
-        <v>0.0012170889220069548</v>
+        <v>1.2170889220069548E-3</v>
       </c>
       <c r="J134">
         <v>0.54984934623144233</v>
@@ -5429,9 +5446,9 @@
         <v>0.99939145553899655</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.041164692140830968</v>
+        <v>4.1164692140830968E-2</v>
       </c>
       <c r="B135">
         <v>0.89441590427632767</v>
@@ -5455,7 +5472,7 @@
         <v>0.94648988634888864</v>
       </c>
       <c r="I135">
-        <v>0.042466210579008845</v>
+        <v>4.2466210579008845E-2</v>
       </c>
       <c r="J135">
         <v>0.65535105533849169</v>
@@ -5467,9 +5484,9 @@
         <v>0.9796554313365593</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.027680890538033395</v>
+        <v>2.7680890538033395E-2</v>
       </c>
       <c r="B136">
         <v>0.83498836315851566</v>
@@ -5481,7 +5498,7 @@
         <v>0.98615955473098338</v>
       </c>
       <c r="E136">
-        <v>0.045739022881880032</v>
+        <v>4.5739022881880032E-2</v>
       </c>
       <c r="F136">
         <v>0.85456730104847145</v>
@@ -5493,7 +5510,7 @@
         <v>0.97713048855906015</v>
       </c>
       <c r="I136">
-        <v>0.0088105545248402389</v>
+        <v>8.8105545248402389E-3</v>
       </c>
       <c r="J136">
         <v>0.64929407582999565</v>
@@ -5505,9 +5522,9 @@
         <v>0.99560571703428846</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.024048918619444332</v>
+        <v>2.4048918619444332E-2</v>
       </c>
       <c r="B137">
         <v>0.94653826029642807</v>
@@ -5519,7 +5536,7 @@
         <v>0.98797554069027771</v>
       </c>
       <c r="E137">
-        <v>0.049753081353196255</v>
+        <v>4.9753081353196255E-2</v>
       </c>
       <c r="F137">
         <v>0.88091196948548478</v>
@@ -5531,7 +5548,7 @@
         <v>0.97512345932340183</v>
       </c>
       <c r="I137">
-        <v>0.0074143992558241339</v>
+        <v>7.4143992558241339E-3</v>
       </c>
       <c r="J137">
         <v>0.67229202176832736</v>
@@ -5543,9 +5560,9 @@
         <v>0.99629280037208789</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>0.034011299435028244</v>
+        <v>3.4011299435028244E-2</v>
       </c>
       <c r="B138">
         <v>0.92423893016626524</v>
@@ -5557,7 +5574,7 @@
         <v>0.98315137919574602</v>
       </c>
       <c r="E138">
-        <v>0.064200731139913578</v>
+        <v>6.4200731139913578E-2</v>
       </c>
       <c r="F138">
         <v>0.87415530186563339</v>
@@ -5569,7 +5586,7 @@
         <v>0.96789963443004334</v>
       </c>
       <c r="I138">
-        <v>0.0062811565304087737</v>
+        <v>6.2811565304087737E-3</v>
       </c>
       <c r="J138">
         <v>0.64515904639179755</v>
@@ -5581,9 +5598,9 @@
         <v>0.99685942173479558</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.034084631532427356</v>
+        <v>3.4084631532427356E-2</v>
       </c>
       <c r="B139">
         <v>0.92948735972481378</v>
@@ -5595,7 +5612,7 @@
         <v>0.98310269583471444</v>
       </c>
       <c r="E139">
-        <v>0.075915491228716284</v>
+        <v>7.5915491228716284E-2</v>
       </c>
       <c r="F139">
         <v>0.82051115889436543</v>
@@ -5607,7 +5624,7 @@
         <v>0.96210772699558467</v>
       </c>
       <c r="I139">
-        <v>0.018586037147522064</v>
+        <v>1.8586037147522064E-2</v>
       </c>
       <c r="J139">
         <v>0.62458588275403926</v>
@@ -5619,9 +5636,9 @@
         <v>0.99085429479861031</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.032400475341651809</v>
+        <v>3.2400475341651809E-2</v>
       </c>
       <c r="B140">
         <v>0.92729914708128225</v>
@@ -5645,7 +5662,7 @@
         <v>0.94821449792038015</v>
       </c>
       <c r="I140">
-        <v>0.03133095662507427</v>
+        <v>3.133095662507427E-2</v>
       </c>
       <c r="J140">
         <v>0.61914636831203196</v>
@@ -5657,9 +5674,9 @@
         <v>0.98484947514359278</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0.013570428515687759</v>
+        <v>1.3570428515687759E-2</v>
       </c>
       <c r="B141">
         <v>0.71058073641553776</v>
@@ -5671,7 +5688,7 @@
         <v>0.99321478574215616</v>
       </c>
       <c r="E141">
-        <v>0.080206109848745683</v>
+        <v>8.0206109848745683E-2</v>
       </c>
       <c r="F141">
         <v>0.8439765934661928</v>
@@ -5683,7 +5700,7 @@
         <v>0.95989694507562717</v>
       </c>
       <c r="I141">
-        <v>0.082570176042599086</v>
+        <v>8.2570176042599086E-2</v>
       </c>
       <c r="J141">
         <v>0.71083115110144546</v>
@@ -5695,9 +5712,9 @@
         <v>0.9587149119787004</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.0042490759998410309</v>
+        <v>4.2490759998410309E-3</v>
       </c>
       <c r="B142">
         <v>0.63771379656129035</v>
@@ -5733,9 +5750,9 @@
         <v>0.8875904681159229</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.0049430456656786251</v>
+        <v>4.9430456656786251E-3</v>
       </c>
       <c r="B143">
         <v>0.95276018089453773</v>
@@ -5771,9 +5788,9 @@
         <v>0.91398125750021764</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0.00057938208227225566</v>
+        <v>5.7938208227225566E-4</v>
       </c>
       <c r="B144">
         <v>0.55868447752239003</v>
@@ -5785,7 +5802,7 @@
         <v>0.99971030895886381</v>
       </c>
       <c r="E144">
-        <v>0.099673929153697938</v>
+        <v>9.9673929153697938E-2</v>
       </c>
       <c r="F144">
         <v>0.83104135362978648</v>
@@ -5809,9 +5826,9 @@
         <v>0.93653969665530368</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>0.00085764242397414912</v>
+        <v>8.5764242397414912E-4</v>
       </c>
       <c r="B145">
         <v>0.70216038130879632</v>
@@ -5823,7 +5840,7 @@
         <v>0.99957486757263225</v>
       </c>
       <c r="E145">
-        <v>0.063742198220530288</v>
+        <v>6.3742198220530288E-2</v>
       </c>
       <c r="F145">
         <v>0.88570245996706576</v>
@@ -5835,7 +5852,7 @@
         <v>0.96812890088973491</v>
       </c>
       <c r="I145">
-        <v>0.089903058740206265</v>
+        <v>8.9903058740206265E-2</v>
       </c>
       <c r="J145">
         <v>0.83956135570468404</v>
@@ -5847,9 +5864,9 @@
         <v>0.95504847062989706</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>0.0016566576931041626</v>
+        <v>1.6566576931041626E-3</v>
       </c>
       <c r="B146">
         <v>0.68745323406285908</v>
@@ -5885,9 +5902,9 @@
         <v>0.92168641912377658</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0.0049015668943350743</v>
+        <v>4.9015668943350743E-3</v>
       </c>
       <c r="B147">
         <v>0.63831035852482665</v>
@@ -5923,9 +5940,9 @@
         <v>0.90009541984732822</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.0014894805436603984</v>
+        <v>1.4894805436603984E-3</v>
       </c>
       <c r="B148">
         <v>0.74994064421144768</v>
@@ -5961,9 +5978,9 @@
         <v>0.94123674841883742</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.00065141864504921832</v>
+        <v>6.5141864504921832E-4</v>
       </c>
       <c r="B149">
         <v>0.58214826319936863</v>
@@ -5999,9 +6016,9 @@
         <v>0.94601535525102409</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.00042157881265338695</v>
+        <v>4.2157881265338695E-4</v>
       </c>
       <c r="B150">
         <v>0.70203677792128849</v>
@@ -6037,9 +6054,9 @@
         <v>0.89978594837667059</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.0015471993732863298</v>
+        <v>1.5471993732863298E-3</v>
       </c>
       <c r="B151">
         <v>0.60161079165334397</v>
@@ -6075,9 +6092,9 @@
         <v>0.93183890412151282</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.0011478702906571557</v>
+        <v>1.1478702906571557E-3</v>
       </c>
       <c r="B152">
         <v>0.68671267257756974</v>
@@ -6113,9 +6130,9 @@
         <v>0.92092050542733117</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>8.9276786607053586e-05</v>
+        <v>8.9276786607053586E-5</v>
       </c>
       <c r="B153">
         <v>0.79672966544396318</v>
@@ -6127,7 +6144,7 @@
         <v>0.99995536160669651</v>
       </c>
       <c r="E153">
-        <v>0.091098033053837485</v>
+        <v>9.1098033053837485E-2</v>
       </c>
       <c r="F153">
         <v>0.86151841999581447</v>
@@ -6151,9 +6168,9 @@
         <v>0.94220220835059343</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.0088667058132706946</v>
+        <v>8.8667058132706946E-3</v>
       </c>
       <c r="B154">
         <v>0.68508966410053418</v>
@@ -6189,9 +6206,9 @@
         <v>0.8995396778793725</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.0040758873929008562</v>
+        <v>4.0758873929008562E-3</v>
       </c>
       <c r="B155">
         <v>0.62173913832293282</v>
@@ -6227,9 +6244,9 @@
         <v>0.86814531483748125</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.00092289621612551384</v>
+        <v>9.2289621612551384E-4</v>
       </c>
       <c r="B156">
         <v>0.63739804545708822</v>
@@ -6241,7 +6258,7 @@
         <v>0.99953855189193719</v>
       </c>
       <c r="E156">
-        <v>0.046076642335766423</v>
+        <v>4.6076642335766423E-2</v>
       </c>
       <c r="F156">
         <v>0.86121689416492908</v>
@@ -6253,7 +6270,7 @@
         <v>0.97696167883211671</v>
       </c>
       <c r="I156">
-        <v>0.039181139357328636</v>
+        <v>3.9181139357328636E-2</v>
       </c>
       <c r="J156">
         <v>0.71036191779153968</v>
@@ -6265,9 +6282,9 @@
         <v>0.98040943032133554</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.00096763527443886877</v>
+        <v>9.6763527443886877E-4</v>
       </c>
       <c r="B157">
         <v>0.72734089718134431</v>
@@ -6279,7 +6296,7 @@
         <v>0.99951618236278073</v>
       </c>
       <c r="E157">
-        <v>0.036488116077333023</v>
+        <v>3.6488116077333023E-2</v>
       </c>
       <c r="F157">
         <v>0.86654667686216846</v>
@@ -6291,7 +6308,7 @@
         <v>0.98175594196133353</v>
       </c>
       <c r="I157">
-        <v>0.084971992064418245</v>
+        <v>8.4971992064418245E-2</v>
       </c>
       <c r="J157">
         <v>0.82036357978816954</v>
@@ -6303,9 +6320,9 @@
         <v>0.95751400396779074</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.0042288253036602266</v>
+        <v>4.2288253036602266E-3</v>
       </c>
       <c r="B158">
         <v>0.65659858374989932</v>
@@ -6317,7 +6334,7 @@
         <v>0.99789238064183039</v>
       </c>
       <c r="E158">
-        <v>0.059835330561669509</v>
+        <v>5.9835330561669509E-2</v>
       </c>
       <c r="F158">
         <v>0.85321530532220513</v>
@@ -6341,9 +6358,9 @@
         <v>0.9401774068639438</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.0048252560447682403</v>
+        <v>4.8252560447682403E-3</v>
       </c>
       <c r="B159">
         <v>0.6292631558368712</v>
@@ -6379,9 +6396,9 @@
         <v>0.92846320346320355</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.0021869328493647915</v>
+        <v>2.1869328493647915E-3</v>
       </c>
       <c r="B160">
         <v>0.65775053250719151</v>
@@ -6417,9 +6434,9 @@
         <v>0.94034936479128861</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.0087411658430309788</v>
+        <v>8.7411658430309788E-3</v>
       </c>
       <c r="B161">
         <v>0.97733778868315269</v>
@@ -6431,7 +6448,7 @@
         <v>0.99562941707848451</v>
       </c>
       <c r="E161">
-        <v>0.054036700497723925</v>
+        <v>5.4036700497723925E-2</v>
       </c>
       <c r="F161">
         <v>0.89624999288044038</v>
@@ -6443,7 +6460,7 @@
         <v>0.97298164975113821</v>
       </c>
       <c r="I161">
-        <v>0.055440423685282597</v>
+        <v>5.5440423685282597E-2</v>
       </c>
       <c r="J161">
         <v>0.88268650679493321</v>
@@ -6455,9 +6472,9 @@
         <v>0.9722797881573586</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.029776631397940026</v>
+        <v>2.9776631397940026E-2</v>
       </c>
       <c r="B162">
         <v>0.93425581796266066</v>
@@ -6469,7 +6486,7 @@
         <v>0.98511168430102991</v>
       </c>
       <c r="E162">
-        <v>0.070818199364811985</v>
+        <v>7.0818199364811985E-2</v>
       </c>
       <c r="F162">
         <v>0.80988072157222513</v>
@@ -6481,7 +6498,7 @@
         <v>0.96459674919431748</v>
       </c>
       <c r="I162">
-        <v>0.082298082153322447</v>
+        <v>8.2298082153322447E-2</v>
       </c>
       <c r="J162">
         <v>0.70662019123157083</v>
@@ -6493,9 +6510,9 @@
         <v>0.95885680780006199</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.049505247376311838</v>
+        <v>4.9505247376311838E-2</v>
       </c>
       <c r="B163">
         <v>0.89547433862043846</v>
@@ -6507,7 +6524,7 @@
         <v>0.97529152090621352</v>
       </c>
       <c r="E163">
-        <v>0.067056471764117942</v>
+        <v>6.7056471764117942E-2</v>
       </c>
       <c r="F163">
         <v>0.84619900529238112</v>
@@ -6519,7 +6536,7 @@
         <v>0.966471764117941</v>
       </c>
       <c r="I163">
-        <v>0.056416791604197901</v>
+        <v>5.6416791604197901E-2</v>
       </c>
       <c r="J163">
         <v>0.73649627637981463</v>
@@ -6531,9 +6548,9 @@
         <v>0.97179826753290011</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.0098600703471478819</v>
+        <v>9.8600703471478819E-3</v>
       </c>
       <c r="B164">
         <v>0.9191722313734404</v>
@@ -6545,7 +6562,7 @@
         <v>0.99506996482642607</v>
       </c>
       <c r="E164">
-        <v>0.062972166998011919</v>
+        <v>6.2972166998011919E-2</v>
       </c>
       <c r="F164">
         <v>0.82971335547970293</v>
@@ -6557,7 +6574,7 @@
         <v>0.96851391650099405</v>
       </c>
       <c r="I164">
-        <v>0.071474996176785446</v>
+        <v>7.1474996176785446E-2</v>
       </c>
       <c r="J164">
         <v>0.80722403632660711</v>
@@ -6569,9 +6586,9 @@
         <v>0.96426250191160723</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.069987792280965355</v>
+        <v>6.9987792280965355E-2</v>
       </c>
       <c r="B165">
         <v>0.85893205799870231</v>
@@ -6607,9 +6624,9 @@
         <v>0.89313550568128453</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.02305087688834867</v>
+        <v>2.305087688834867E-2</v>
       </c>
       <c r="B166">
         <v>0.95265930545498456</v>
@@ -6645,9 +6662,9 @@
         <v>0.89298151685284866</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.070069988705978983</v>
+        <v>7.0069988705978983E-2</v>
       </c>
       <c r="B167">
         <v>0.85932965275524353</v>
@@ -6683,9 +6700,9 @@
         <v>0.91377043476276854</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.020326768621410495</v>
+        <v>2.0326768621410495E-2</v>
       </c>
       <c r="B168">
         <v>0.9367289720869949</v>
@@ -6721,9 +6738,9 @@
         <v>0.86561441791665128</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.070079744816586909</v>
+        <v>7.0079744816586909E-2</v>
       </c>
       <c r="B169">
         <v>0.8487213951089041</v>
@@ -6759,9 +6776,9 @@
         <v>0.85747906698564602</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.072974756289642853</v>
+        <v>7.2974756289642853E-2</v>
       </c>
       <c r="B170">
         <v>0.84902277218973454</v>
@@ -6797,9 +6814,9 @@
         <v>0.91614193852018988</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.073475107888063357</v>
+        <v>7.3475107888063357E-2</v>
       </c>
       <c r="B171">
         <v>0.85149802327365054</v>
@@ -6835,9 +6852,9 @@
         <v>0.88012560988269484</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.078535594839942643</v>
+        <v>7.8535594839942643E-2</v>
       </c>
       <c r="B172">
         <v>0.84324164704614224</v>
@@ -6873,9 +6890,9 @@
         <v>0.89076916441046872</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.072059578015776296</v>
+        <v>7.2059578015776296E-2</v>
       </c>
       <c r="B173">
         <v>0.84603701695153422</v>
@@ -6911,9 +6928,9 @@
         <v>0.89951954937044398</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.037298519736842103</v>
+        <v>3.7298519736842103E-2</v>
       </c>
       <c r="B174">
         <v>0.92362455977829627</v>
@@ -6949,9 +6966,9 @@
         <v>0.88829872532894738</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.031707418151678407</v>
+        <v>3.1707418151678407E-2</v>
       </c>
       <c r="B175">
         <v>0.93658860198580696</v>
@@ -6987,9 +7004,9 @@
         <v>0.85385274209144935</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.068893480257116613</v>
+        <v>6.8893480257116613E-2</v>
       </c>
       <c r="B176">
         <v>0.8525617000856216</v>
@@ -7025,9 +7042,9 @@
         <v>0.86568653708805232</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.068629357708951233</v>
+        <v>6.8629357708951233E-2</v>
       </c>
       <c r="B177">
         <v>0.85012199471651462</v>
@@ -7063,9 +7080,9 @@
         <v>0.85121830818517263</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.063717364276833818</v>
+        <v>6.3717364276833818E-2</v>
       </c>
       <c r="B178">
         <v>0.85887388407098686</v>
@@ -7101,9 +7118,9 @@
         <v>0.87096318552286223</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.058078893269976069</v>
+        <v>5.8078893269976069E-2</v>
       </c>
       <c r="B179">
         <v>0.88399813353337175</v>
@@ -7115,7 +7132,7 @@
         <v>0.97096055336501219</v>
       </c>
       <c r="E179">
-        <v>0.099783473191116509</v>
+        <v>9.9783473191116509E-2</v>
       </c>
       <c r="F179">
         <v>0.85274104130838535</v>
@@ -7139,9 +7156,9 @@
         <v>0.9478580415416934</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.01369336330296936</v>
+        <v>1.369336330296936E-2</v>
       </c>
       <c r="B180">
         <v>0.96506335594044779</v>
@@ -7177,9 +7194,9 @@
         <v>0.90941480342284808</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.0087411658430309788</v>
+        <v>8.7411658430309788E-3</v>
       </c>
       <c r="B181">
         <v>0.97733778868315269</v>
@@ -7191,7 +7208,7 @@
         <v>0.99562941707848451</v>
       </c>
       <c r="E181">
-        <v>0.054036700497723925</v>
+        <v>5.4036700497723925E-2</v>
       </c>
       <c r="F181">
         <v>0.89624999288044038</v>
@@ -7203,7 +7220,7 @@
         <v>0.97298164975113821</v>
       </c>
       <c r="I181">
-        <v>0.055440423685282597</v>
+        <v>5.5440423685282597E-2</v>
       </c>
       <c r="J181">
         <v>0.88268650679493321</v>
@@ -7215,9 +7232,9 @@
         <v>0.9722797881573586</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.029776631397940026</v>
+        <v>2.9776631397940026E-2</v>
       </c>
       <c r="B182">
         <v>0.93425581796266066</v>
@@ -7229,7 +7246,7 @@
         <v>0.98511168430102991</v>
       </c>
       <c r="E182">
-        <v>0.070818199364811985</v>
+        <v>7.0818199364811985E-2</v>
       </c>
       <c r="F182">
         <v>0.80988072157222513</v>
@@ -7241,7 +7258,7 @@
         <v>0.96459674919431748</v>
       </c>
       <c r="I182">
-        <v>0.082298082153322447</v>
+        <v>8.2298082153322447E-2</v>
       </c>
       <c r="J182">
         <v>0.70662019123157083</v>
@@ -7253,9 +7270,9 @@
         <v>0.95885680780006199</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.049505247376311838</v>
+        <v>4.9505247376311838E-2</v>
       </c>
       <c r="B183">
         <v>0.89547433862043846</v>
@@ -7267,7 +7284,7 @@
         <v>0.97529152090621352</v>
       </c>
       <c r="E183">
-        <v>0.067056471764117942</v>
+        <v>6.7056471764117942E-2</v>
       </c>
       <c r="F183">
         <v>0.84619900529238112</v>
@@ -7279,7 +7296,7 @@
         <v>0.966471764117941</v>
       </c>
       <c r="I183">
-        <v>0.056416791604197901</v>
+        <v>5.6416791604197901E-2</v>
       </c>
       <c r="J183">
         <v>0.73649627637981463</v>
@@ -7291,9 +7308,9 @@
         <v>0.97179826753290011</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.0098600703471478819</v>
+        <v>9.8600703471478819E-3</v>
       </c>
       <c r="B184">
         <v>0.9191722313734404</v>
@@ -7305,7 +7322,7 @@
         <v>0.99506996482642607</v>
       </c>
       <c r="E184">
-        <v>0.062972166998011919</v>
+        <v>6.2972166998011919E-2</v>
       </c>
       <c r="F184">
         <v>0.82971335547970293</v>
@@ -7317,7 +7334,7 @@
         <v>0.96851391650099405</v>
       </c>
       <c r="I184">
-        <v>0.071474996176785446</v>
+        <v>7.1474996176785446E-2</v>
       </c>
       <c r="J184">
         <v>0.80722403632660711</v>
@@ -7329,9 +7346,9 @@
         <v>0.96426250191160723</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.069987792280965355</v>
+        <v>6.9987792280965355E-2</v>
       </c>
       <c r="B185">
         <v>0.85893205799870231</v>
@@ -7367,9 +7384,9 @@
         <v>0.89313550568128453</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.02305087688834867</v>
+        <v>2.305087688834867E-2</v>
       </c>
       <c r="B186">
         <v>0.95265930545498456</v>
@@ -7405,9 +7422,9 @@
         <v>0.89298151685284866</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.070069988705978983</v>
+        <v>7.0069988705978983E-2</v>
       </c>
       <c r="B187">
         <v>0.85932965275524353</v>
@@ -7443,9 +7460,9 @@
         <v>0.91377043476276854</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.020326768621410495</v>
+        <v>2.0326768621410495E-2</v>
       </c>
       <c r="B188">
         <v>0.9367289720869949</v>
@@ -7481,9 +7498,9 @@
         <v>0.86561441791665128</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.070079744816586909</v>
+        <v>7.0079744816586909E-2</v>
       </c>
       <c r="B189">
         <v>0.8487213951089041</v>
@@ -7519,9 +7536,9 @@
         <v>0.85747906698564602</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>0.072974756289642853</v>
+        <v>7.2974756289642853E-2</v>
       </c>
       <c r="B190">
         <v>0.84902277218973454</v>
@@ -7557,9 +7574,9 @@
         <v>0.91614193852018988</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>0.073475107888063357</v>
+        <v>7.3475107888063357E-2</v>
       </c>
       <c r="B191">
         <v>0.85149802327365054</v>
@@ -7595,9 +7612,9 @@
         <v>0.88012560988269484</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>0.078535594839942643</v>
+        <v>7.8535594839942643E-2</v>
       </c>
       <c r="B192">
         <v>0.84324164704614224</v>
@@ -7633,9 +7650,9 @@
         <v>0.89076916441046872</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>0.072059578015776296</v>
+        <v>7.2059578015776296E-2</v>
       </c>
       <c r="B193">
         <v>0.84603701695153422</v>
@@ -7671,9 +7688,9 @@
         <v>0.89951954937044398</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.037298519736842103</v>
+        <v>3.7298519736842103E-2</v>
       </c>
       <c r="B194">
         <v>0.92362455977829627</v>
@@ -7709,9 +7726,9 @@
         <v>0.88829872532894738</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.031707418151678407</v>
+        <v>3.1707418151678407E-2</v>
       </c>
       <c r="B195">
         <v>0.93658860198580696</v>
@@ -7747,9 +7764,9 @@
         <v>0.85385274209144935</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.068893480257116613</v>
+        <v>6.8893480257116613E-2</v>
       </c>
       <c r="B196">
         <v>0.8525617000856216</v>
@@ -7785,9 +7802,9 @@
         <v>0.86568653708805232</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.068629357708951233</v>
+        <v>6.8629357708951233E-2</v>
       </c>
       <c r="B197">
         <v>0.85012199471651462</v>
@@ -7823,9 +7840,9 @@
         <v>0.85121830818517263</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.063717364276833818</v>
+        <v>6.3717364276833818E-2</v>
       </c>
       <c r="B198">
         <v>0.85887388407098686</v>
@@ -7861,9 +7878,9 @@
         <v>0.87096318552286223</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.058078893269976069</v>
+        <v>5.8078893269976069E-2</v>
       </c>
       <c r="B199">
         <v>0.88399813353337175</v>
@@ -7875,7 +7892,7 @@
         <v>0.97096055336501219</v>
       </c>
       <c r="E199">
-        <v>0.099783473191116509</v>
+        <v>9.9783473191116509E-2</v>
       </c>
       <c r="F199">
         <v>0.85274104130838535</v>
@@ -7899,9 +7916,9 @@
         <v>0.9478580415416934</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.01369336330296936</v>
+        <v>1.369336330296936E-2</v>
       </c>
       <c r="B200">
         <v>0.96506335594044779</v>
@@ -7937,9 +7954,9 @@
         <v>0.90941480342284808</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>0.0068459158054533778</v>
+        <v>6.8459158054533778E-3</v>
       </c>
       <c r="B201">
         <v>0.76441653696513556</v>
@@ -7951,7 +7968,7 @@
         <v>0.99657704209727327</v>
       </c>
       <c r="E201">
-        <v>0.057958194663396974</v>
+        <v>5.7958194663396974E-2</v>
       </c>
       <c r="F201">
         <v>0.83156813150715447</v>
@@ -7963,7 +7980,7 @@
         <v>0.97102479515774331</v>
       </c>
       <c r="I201">
-        <v>0.037137268640158816</v>
+        <v>3.7137268640158816E-2</v>
       </c>
       <c r="J201">
         <v>0.76354094587141819</v>
@@ -7975,9 +7992,9 @@
         <v>0.98150143048986982</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0.020153864594797809</v>
+        <v>2.0153864594797809E-2</v>
       </c>
       <c r="B202">
         <v>0.86150695153164281</v>
@@ -7989,7 +8006,7 @@
         <v>0.98992306770260108</v>
       </c>
       <c r="E202">
-        <v>0.033437217360982464</v>
+        <v>3.3437217360982464E-2</v>
       </c>
       <c r="F202">
         <v>0.81208639955779149</v>
@@ -8001,7 +8018,7 @@
         <v>0.98329228824548609</v>
       </c>
       <c r="I202">
-        <v>0.033815885538689534</v>
+        <v>3.3815885538689534E-2</v>
       </c>
       <c r="J202">
         <v>0.76971684892975922</v>
@@ -8013,9 +8030,9 @@
         <v>0.9831828649471317</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>0.074179543212980328</v>
+        <v>7.4179543212980328E-2</v>
       </c>
       <c r="B203">
         <v>0.85061155151992773</v>
@@ -8027,7 +8044,7 @@
         <v>0.96291022839350981</v>
       </c>
       <c r="E203">
-        <v>0.080853913245276451</v>
+        <v>8.0853913245276451E-2</v>
       </c>
       <c r="F203">
         <v>0.84001653768511331</v>
@@ -8039,7 +8056,7 @@
         <v>0.9596503993502099</v>
       </c>
       <c r="I203">
-        <v>0.035298497360227429</v>
+        <v>3.5298497360227429E-2</v>
       </c>
       <c r="J203">
         <v>0.70682224083400902</v>
@@ -8051,9 +8068,9 @@
         <v>0.98277882799254801</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>0.069106732103444743</v>
+        <v>6.9106732103444743E-2</v>
       </c>
       <c r="B204">
         <v>0.86133741177134193</v>
@@ -8065,7 +8082,7 @@
         <v>0.96544663394827757</v>
       </c>
       <c r="E204">
-        <v>0.062986003110419908</v>
+        <v>6.2986003110419908E-2</v>
       </c>
       <c r="F204">
         <v>0.84973793186327129</v>
@@ -8077,7 +8094,7 @@
         <v>0.96855045740556223</v>
       </c>
       <c r="I204">
-        <v>0.022294446876076769</v>
+        <v>2.2294446876076769E-2</v>
       </c>
       <c r="J204">
         <v>0.68631280105301951</v>
@@ -8089,9 +8106,9 @@
         <v>0.98903282082801736</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>0.071271566905143802</v>
+        <v>7.1271566905143802E-2</v>
       </c>
       <c r="B205">
         <v>0.85745257597232027</v>
@@ -8103,7 +8120,7 @@
         <v>0.9643642165474281</v>
       </c>
       <c r="E205">
-        <v>0.064146956233928243</v>
+        <v>6.4146956233928243E-2</v>
       </c>
       <c r="F205">
         <v>0.84086501366439825</v>
@@ -8115,7 +8132,7 @@
         <v>0.9679519820760244</v>
       </c>
       <c r="I205">
-        <v>0.029103122268333462</v>
+        <v>2.9103122268333462E-2</v>
       </c>
       <c r="J205">
         <v>0.7393542835331961</v>
@@ -8127,9 +8144,9 @@
         <v>0.98555876636878248</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>0.034305058866074656</v>
+        <v>3.4305058866074656E-2</v>
       </c>
       <c r="B206">
         <v>0.7899849146721114</v>
@@ -8141,7 +8158,7 @@
         <v>0.98284747056696264</v>
       </c>
       <c r="E206">
-        <v>0.076990497046650883</v>
+        <v>7.6990497046650883E-2</v>
       </c>
       <c r="F206">
         <v>0.82158765324820204</v>
@@ -8153,7 +8170,7 @@
         <v>0.96154493309760092</v>
       </c>
       <c r="I206">
-        <v>0.039915417687949532</v>
+        <v>3.9915417687949532E-2</v>
       </c>
       <c r="J206">
         <v>0.70509445527937697</v>
@@ -8165,9 +8182,9 @@
         <v>0.98035369871820632</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>0.0072919102174421324</v>
+        <v>7.2919102174421324E-3</v>
       </c>
       <c r="B207">
         <v>0.74621657606645431</v>
@@ -8179,7 +8196,7 @@
         <v>0.99635404489127899</v>
       </c>
       <c r="E207">
-        <v>0.085030882238329039</v>
+        <v>8.5030882238329039E-2</v>
       </c>
       <c r="F207">
         <v>0.83128348917940187</v>
@@ -8191,7 +8208,7 @@
         <v>0.95753002169225587</v>
       </c>
       <c r="I207">
-        <v>0.052348803678590912</v>
+        <v>5.2348803678590912E-2</v>
       </c>
       <c r="J207">
         <v>0.75446804378411825</v>
@@ -8203,9 +8220,9 @@
         <v>0.97409512768555317</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0.06954169461211715</v>
+        <v>6.954169461211715E-2</v>
       </c>
       <c r="B208">
         <v>0.84393519797568628</v>
@@ -8217,7 +8234,7 @@
         <v>0.96522915269394138</v>
       </c>
       <c r="E208">
-        <v>0.069754080035770161</v>
+        <v>6.9754080035770161E-2</v>
       </c>
       <c r="F208">
         <v>0.84048939541885093</v>
@@ -8229,7 +8246,7 @@
         <v>0.96516767270288417</v>
       </c>
       <c r="I208">
-        <v>0.032506147999105742</v>
+        <v>3.2506147999105742E-2</v>
       </c>
       <c r="J208">
         <v>0.709350872030857</v>
@@ -8241,9 +8258,9 @@
         <v>0.98401818317311274</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>0.0001899614032966938</v>
+        <v>1.899614032966938E-4</v>
       </c>
       <c r="B209">
         <v>0.6922126822776562</v>
@@ -8255,7 +8272,7 @@
         <v>0.99990501929835163</v>
       </c>
       <c r="E209">
-        <v>0.070259815392054434</v>
+        <v>7.0259815392054434E-2</v>
       </c>
       <c r="F209">
         <v>0.80598781144485332</v>
@@ -8279,9 +8296,9 @@
         <v>0.94669639850448561</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>0.0021612144644456159</v>
+        <v>2.1612144644456159E-3</v>
       </c>
       <c r="B210">
         <v>0.72025343361455796</v>
@@ -8293,7 +8310,7 @@
         <v>0.99891939276777719</v>
       </c>
       <c r="E210">
-        <v>0.030510155406592857</v>
+        <v>3.0510155406592857E-2</v>
       </c>
       <c r="F210">
         <v>0.86178523521166961</v>
@@ -8305,7 +8322,7 @@
         <v>0.98474492229670352</v>
       </c>
       <c r="I210">
-        <v>0.012923351158645277</v>
+        <v>1.2923351158645277E-2</v>
       </c>
       <c r="J210">
         <v>0.78219724950736336</v>
@@ -8317,9 +8334,9 @@
         <v>0.99353832442067735</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>0.0002482811306340718</v>
+        <v>2.482811306340718E-4</v>
       </c>
       <c r="B211">
         <v>0.73724953810078075</v>
@@ -8331,7 +8348,7 @@
         <v>0.99987585943468282</v>
       </c>
       <c r="E211">
-        <v>0.029325821237585942</v>
+        <v>2.9325821237585942E-2</v>
       </c>
       <c r="F211">
         <v>0.85775113377388434</v>
@@ -8343,7 +8360,7 @@
         <v>0.9853370893812069</v>
       </c>
       <c r="I211">
-        <v>0.015539056531703592</v>
+        <v>1.5539056531703592E-2</v>
       </c>
       <c r="J211">
         <v>0.80356193854305835</v>
@@ -8355,9 +8372,9 @@
         <v>0.99223683791698492</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>0.042197836689362112</v>
+        <v>4.2197836689362112E-2</v>
       </c>
       <c r="B212">
         <v>0.8045038912168968</v>
@@ -8369,7 +8386,7 @@
         <v>0.97890108165531886</v>
       </c>
       <c r="E212">
-        <v>0.078341542324593186</v>
+        <v>7.8341542324593186E-2</v>
       </c>
       <c r="F212">
         <v>0.80892587469597221</v>
@@ -8381,7 +8398,7 @@
         <v>0.96087751702158486</v>
       </c>
       <c r="I212">
-        <v>0.047877734318412281</v>
+        <v>4.7877734318412281E-2</v>
       </c>
       <c r="J212">
         <v>0.72545873299295316</v>
@@ -8393,9 +8410,9 @@
         <v>0.97634608342588569</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>0.00017388932455930989</v>
+        <v>1.7388932455930989E-4</v>
       </c>
       <c r="B213">
         <v>0.70680958126339943</v>
@@ -8407,7 +8424,7 @@
         <v>0.99991305533772046</v>
       </c>
       <c r="E213">
-        <v>0.093951379181015385</v>
+        <v>9.3951379181015385E-2</v>
       </c>
       <c r="F213">
         <v>0.8093720870826725</v>
@@ -8431,9 +8448,9 @@
         <v>0.92043938309068385</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0.0069468829739916197</v>
+        <v>6.9468829739916197E-3</v>
       </c>
       <c r="B214">
         <v>0.81573401433080872</v>
@@ -8445,7 +8462,7 @@
         <v>0.9965265585130042</v>
       </c>
       <c r="E214">
-        <v>0.032937706299599696</v>
+        <v>3.2937706299599696E-2</v>
       </c>
       <c r="F214">
         <v>0.85736472071152414</v>
@@ -8457,7 +8474,7 @@
         <v>0.98353114685020016</v>
       </c>
       <c r="I214">
-        <v>0.021311772830489031</v>
+        <v>2.1311772830489031E-2</v>
       </c>
       <c r="J214">
         <v>0.80944866662059334</v>
@@ -8469,9 +8486,9 @@
         <v>0.98934411358475549</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>0.047113557858376509</v>
+        <v>4.7113557858376509E-2</v>
       </c>
       <c r="B215">
         <v>0.8421345723165472</v>
@@ -8483,7 +8500,7 @@
         <v>0.97644322107081172</v>
       </c>
       <c r="E215">
-        <v>0.061547927461139885</v>
+        <v>6.1547927461139885E-2</v>
       </c>
       <c r="F215">
         <v>0.84479891994639178</v>
@@ -8495,7 +8512,7 @@
         <v>0.96924906447898707</v>
       </c>
       <c r="I215">
-        <v>0.026183074265975822</v>
+        <v>2.6183074265975822E-2</v>
       </c>
       <c r="J215">
         <v>0.72621159713168837</v>
@@ -8507,9 +8524,9 @@
         <v>0.98703511801957389</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>0.071706219312602293</v>
+        <v>7.1706219312602293E-2</v>
       </c>
       <c r="B216">
         <v>0.82303225213376108</v>
@@ -8521,7 +8538,7 @@
         <v>0.96414689034369894</v>
       </c>
       <c r="E216">
-        <v>0.087544326241134757</v>
+        <v>8.7544326241134757E-2</v>
       </c>
       <c r="F216">
         <v>0.83343311378134732</v>
@@ -8533,7 +8550,7 @@
         <v>0.95641199678350608</v>
       </c>
       <c r="I216">
-        <v>0.040914399208947086</v>
+        <v>4.0914399208947086E-2</v>
       </c>
       <c r="J216">
         <v>0.70892601327006222</v>
@@ -8545,9 +8562,9 @@
         <v>0.98025209128932533</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>1.6664259606945663e-05</v>
+        <v>1.6664259606945663E-5</v>
       </c>
       <c r="B217">
         <v>0.79999166752306017</v>
@@ -8559,7 +8576,7 @@
         <v>0.99999166787019655</v>
       </c>
       <c r="E217">
-        <v>0.074053192316665364</v>
+        <v>7.4053192316665364E-2</v>
       </c>
       <c r="F217">
         <v>0.85653567727823043</v>
@@ -8571,7 +8588,7 @@
         <v>0.96297710701046879</v>
       </c>
       <c r="I217">
-        <v>0.060927310499594503</v>
+        <v>6.0927310499594503E-2</v>
       </c>
       <c r="J217">
         <v>0.84157555635526149</v>
@@ -8583,9 +8600,9 @@
         <v>0.96954004791900428</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>0.0034276047438285429</v>
+        <v>3.4276047438285429E-3</v>
       </c>
       <c r="B218">
         <v>0.6958057145693014</v>
@@ -8597,7 +8614,7 @@
         <v>0.99828619762808557</v>
       </c>
       <c r="E218">
-        <v>0.057541319878339194</v>
+        <v>5.7541319878339194E-2</v>
       </c>
       <c r="F218">
         <v>0.8159488611179706</v>
@@ -8609,7 +8626,7 @@
         <v>0.9712450585119341</v>
       </c>
       <c r="I218">
-        <v>0.045855633885836883</v>
+        <v>4.5855633885836883E-2</v>
       </c>
       <c r="J218">
         <v>0.76479381046391981</v>
@@ -8621,9 +8638,9 @@
         <v>0.97715863453815255</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.039642860909829235</v>
+        <v>3.9642860909829235E-2</v>
       </c>
       <c r="B219">
         <v>0.78241676904396684</v>
@@ -8647,7 +8664,7 @@
         <v>0.94824748529499681</v>
       </c>
       <c r="I219">
-        <v>0.079364828233606508</v>
+        <v>7.9364828233606508E-2</v>
       </c>
       <c r="J219">
         <v>0.75948951790868757</v>
@@ -8659,9 +8676,9 @@
         <v>0.96140617803513728</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>0.068053883735750192</v>
+        <v>6.8053883735750192E-2</v>
       </c>
       <c r="B220">
         <v>0.86264967492124089</v>
@@ -8673,7 +8690,7 @@
         <v>0.96597305813212486</v>
       </c>
       <c r="E220">
-        <v>0.086469470603507292</v>
+        <v>8.6469470603507292E-2</v>
       </c>
       <c r="F220">
         <v>0.8361632011365161</v>
@@ -8685,7 +8702,7 @@
         <v>0.95687934181437717</v>
       </c>
       <c r="I220">
-        <v>0.054063702235124737</v>
+        <v>5.4063702235124737E-2</v>
       </c>
       <c r="J220">
         <v>0.75795365292192085</v>
@@ -8697,9 +8714,9 @@
         <v>0.9734244573469597</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>0.043101796583690732</v>
+        <v>4.3101796583690732E-2</v>
       </c>
       <c r="B221">
         <v>0.84974377832660797</v>
@@ -8711,7 +8728,7 @@
         <v>0.97844910170815458</v>
       </c>
       <c r="E221">
-        <v>0.089342824718869285</v>
+        <v>8.9342824718869285E-2</v>
       </c>
       <c r="F221">
         <v>0.82717332385474684</v>
@@ -8723,7 +8740,7 @@
         <v>0.95614041551831708</v>
       </c>
       <c r="I221">
-        <v>0.055887164522262014</v>
+        <v>5.5887164522262014E-2</v>
       </c>
       <c r="J221">
         <v>0.75404418966683828</v>
@@ -8735,9 +8752,9 @@
         <v>0.97389377705069446</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>0.049207502000578315</v>
+        <v>4.9207502000578315E-2</v>
       </c>
       <c r="B222">
         <v>0.85866508381231454</v>
@@ -8749,7 +8766,7 @@
         <v>0.97579342263645963</v>
       </c>
       <c r="E222">
-        <v>0.068661865278702411</v>
+        <v>6.8661865278702411E-2</v>
       </c>
       <c r="F222">
         <v>0.85303865686922986</v>
@@ -8761,7 +8778,7 @@
         <v>0.96584839090739927</v>
       </c>
       <c r="I222">
-        <v>0.058887611208618296</v>
+        <v>5.8887611208618296E-2</v>
       </c>
       <c r="J222">
         <v>0.74445840028360244</v>
@@ -8773,9 +8790,9 @@
         <v>0.97089690913451732</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>0.001345565749235474</v>
+        <v>1.345565749235474E-3</v>
       </c>
       <c r="B223">
         <v>0.36004795122207822</v>
@@ -8811,9 +8828,9 @@
         <v>0.90616858237547904</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>0.090037186241090805</v>
+        <v>9.0037186241090805E-2</v>
       </c>
       <c r="B224">
         <v>0.79429338083301715</v>
@@ -8837,7 +8854,7 @@
         <v>0.94392796887373898</v>
       </c>
       <c r="I224">
-        <v>0.084681334572874703</v>
+        <v>8.4681334572874703E-2</v>
       </c>
       <c r="J224">
         <v>0.70969034206209769</v>
@@ -8849,9 +8866,9 @@
         <v>0.96043323692456017</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>0.088814660171653903</v>
+        <v>8.8814660171653903E-2</v>
       </c>
       <c r="B225">
         <v>0.76686401959334316</v>
@@ -8887,9 +8904,9 @@
         <v>0.9293752416299389</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>0.044744879626302553</v>
+        <v>4.4744879626302553E-2</v>
       </c>
       <c r="B226">
         <v>0.69203192602366448</v>
@@ -8925,9 +8942,9 @@
         <v>0.88659694773825215</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>0.039335412667946254</v>
+        <v>3.9335412667946254E-2</v>
       </c>
       <c r="B227">
         <v>0.6741134191678515</v>
@@ -8963,9 +8980,9 @@
         <v>0.89676203614843253</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>0.0023218701834203104</v>
+        <v>2.3218701834203104E-3</v>
       </c>
       <c r="B228">
         <v>0.50280676721477546</v>
@@ -9001,9 +9018,9 @@
         <v>0.9149680092379211</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>0.016556243121305547</v>
+        <v>1.6556243121305547E-2</v>
       </c>
       <c r="B229">
         <v>0.60473796694277338</v>
@@ -9039,9 +9056,9 @@
         <v>0.92003403814896612</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>0.063710674186478883</v>
+        <v>6.3710674186478883E-2</v>
       </c>
       <c r="B230">
         <v>0.8551688414777775</v>
@@ -9053,7 +9070,7 @@
         <v>0.9681446629067606</v>
       </c>
       <c r="E230">
-        <v>0.089199098453452974</v>
+        <v>8.9199098453452974E-2</v>
       </c>
       <c r="F230">
         <v>0.82462184069271904</v>
@@ -9065,7 +9082,7 @@
         <v>0.9560651855544825</v>
       </c>
       <c r="I230">
-        <v>0.084390157770645735</v>
+        <v>8.4390157770645735E-2</v>
       </c>
       <c r="J230">
         <v>0.75139640965906396</v>
@@ -9077,9 +9094,9 @@
         <v>0.95917593660092026</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>0.052491160398585666</v>
+        <v>5.2491160398585666E-2</v>
       </c>
       <c r="B231">
         <v>0.89498795048783319</v>
@@ -9091,7 +9108,7 @@
         <v>0.97375441980070709</v>
       </c>
       <c r="E231">
-        <v>0.045908068145290894</v>
+        <v>4.5908068145290894E-2</v>
       </c>
       <c r="F231">
         <v>0.86593077775251304</v>
@@ -9103,7 +9120,7 @@
         <v>0.97708025286617373</v>
       </c>
       <c r="I231">
-        <v>0.040797171327547413</v>
+        <v>4.0797171327547413E-2</v>
       </c>
       <c r="J231">
         <v>0.79322106756756305</v>
@@ -9115,9 +9132,9 @@
         <v>0.9796271295403407</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>0.06229063492523193</v>
+        <v>6.229063492523193E-2</v>
       </c>
       <c r="B232">
         <v>0.84461987369430935</v>
@@ -9129,7 +9146,7 @@
         <v>0.96885468253738416</v>
       </c>
       <c r="E232">
-        <v>0.090281599042350849</v>
+        <v>9.0281599042350849E-2</v>
       </c>
       <c r="F232">
         <v>0.84118194879534247</v>
@@ -9141,7 +9158,7 @@
         <v>0.95541268048435934</v>
       </c>
       <c r="I232">
-        <v>0.078610250320986216</v>
+        <v>7.8610250320986216E-2</v>
       </c>
       <c r="J232">
         <v>0.77299544162885703</v>
@@ -9153,9 +9170,9 @@
         <v>0.9618778579036622</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>0.038932435944788721</v>
+        <v>3.8932435944788721E-2</v>
       </c>
       <c r="B233">
         <v>0.82317266199596284</v>
@@ -9179,7 +9196,7 @@
         <v>0.93991418266051996</v>
       </c>
       <c r="I233">
-        <v>0.094054800891916646</v>
+        <v>9.4054800891916646E-2</v>
       </c>
       <c r="J233">
         <v>0.74330957541391318</v>
@@ -9191,9 +9208,9 @@
         <v>0.95809165857284218</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>0.069601108700891784</v>
+        <v>6.9601108700891784E-2</v>
       </c>
       <c r="B234">
         <v>0.81833725007768221</v>
@@ -9217,7 +9234,7 @@
         <v>0.94166114324736871</v>
       </c>
       <c r="I234">
-        <v>0.077560858038081465</v>
+        <v>7.7560858038081465E-2</v>
       </c>
       <c r="J234">
         <v>0.74037160929121593</v>
@@ -9229,7 +9246,7 @@
         <v>0.96469530810637105</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.11736284622119716</v>
       </c>
@@ -9267,9 +9284,9 @@
         <v>0.90807431254048598</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>0.064218324940672561</v>
+        <v>6.4218324940672561E-2</v>
       </c>
       <c r="B236">
         <v>0.83883944110505682</v>
@@ -9305,9 +9322,9 @@
         <v>0.93983378672994933</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>0.052947934617995719</v>
+        <v>5.2947934617995719E-2</v>
       </c>
       <c r="B237">
         <v>0.89312319323795286</v>
@@ -9319,7 +9336,7 @@
         <v>0.9737727818685048</v>
       </c>
       <c r="E237">
-        <v>0.04585095827458352</v>
+        <v>4.585095827458352E-2</v>
       </c>
       <c r="F237">
         <v>0.86373811221495655</v>
@@ -9331,7 +9348,7 @@
         <v>0.97711629850122728</v>
       </c>
       <c r="I237">
-        <v>0.027928351349939942</v>
+        <v>2.7928351349939942E-2</v>
       </c>
       <c r="J237">
         <v>0.75940439291560546</v>
@@ -9343,9 +9360,9 @@
         <v>0.98607760196354899</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>0.081496023356488478</v>
+        <v>8.1496023356488478E-2</v>
       </c>
       <c r="B238">
         <v>0.81420264981616364</v>
@@ -9369,7 +9386,7 @@
         <v>0.9419980536259609</v>
       </c>
       <c r="I238">
-        <v>0.092394040068458666</v>
+        <v>9.2394040068458666E-2</v>
       </c>
       <c r="J238">
         <v>0.74199178704967217</v>
@@ -9381,9 +9398,9 @@
         <v>0.95650105708245248</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>0.038707910152134518</v>
+        <v>3.8707910152134518E-2</v>
       </c>
       <c r="B239">
         <v>0.85847772461016225</v>
@@ -9395,7 +9412,7 @@
         <v>0.9806460449239327</v>
       </c>
       <c r="E239">
-        <v>0.074564176043378699</v>
+        <v>7.4564176043378699E-2</v>
       </c>
       <c r="F239">
         <v>0.8301747045916712</v>
@@ -9407,7 +9424,7 @@
         <v>0.96325757043654958</v>
       </c>
       <c r="I239">
-        <v>0.038686838889123012</v>
+        <v>3.8686838889123012E-2</v>
       </c>
       <c r="J239">
         <v>0.75347227145033291</v>
@@ -9419,9 +9436,9 @@
         <v>0.98164927116842493</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>0.057407285059901336</v>
+        <v>5.7407285059901336E-2</v>
       </c>
       <c r="B240">
         <v>0.88478341999414345</v>
@@ -9433,7 +9450,7 @@
         <v>0.97129635747004939</v>
       </c>
       <c r="E240">
-        <v>0.046863988724453839</v>
+        <v>4.6863988724453839E-2</v>
       </c>
       <c r="F240">
         <v>0.87387368214220673</v>
@@ -9445,7 +9462,7 @@
         <v>0.97658268733850107</v>
       </c>
       <c r="I240">
-        <v>0.027676841085271318</v>
+        <v>2.7676841085271318E-2</v>
       </c>
       <c r="J240">
         <v>0.79411291428552844</v>
@@ -9457,9 +9474,9 @@
         <v>0.98618360200845667</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.0093153490804497516</v>
+        <v>9.3153490804497516E-3</v>
       </c>
       <c r="B241">
         <v>0.63477555140490205</v>
@@ -9495,9 +9512,9 @@
         <v>0.93146408960167337</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>0.003551842588965559</v>
+        <v>3.551842588965559E-3</v>
       </c>
       <c r="B242">
         <v>0.5689955725523077</v>
@@ -9533,9 +9550,9 @@
         <v>0.86597444029288562</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>0.030368004866180048</v>
+        <v>3.0368004866180048E-2</v>
       </c>
       <c r="B243">
         <v>0.75019457867271178</v>
@@ -9571,9 +9588,9 @@
         <v>0.90894033860502832</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>0.0022410965133085404</v>
+        <v>2.2410965133085404E-3</v>
       </c>
       <c r="B244">
         <v>0.57818814548030806</v>
@@ -9585,7 +9602,7 @@
         <v>0.9988794517433458</v>
       </c>
       <c r="E244">
-        <v>0.086988648358965193</v>
+        <v>8.6988648358965193E-2</v>
       </c>
       <c r="F244">
         <v>0.85468308053665776</v>
@@ -9597,7 +9614,7 @@
         <v>0.95650567582051715</v>
       </c>
       <c r="I244">
-        <v>0.086688211507543397</v>
+        <v>8.6688211507543397E-2</v>
       </c>
       <c r="J244">
         <v>0.71766421925211521</v>
@@ -9609,9 +9626,9 @@
         <v>0.95666130752283052</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.0056750173973556025</v>
+        <v>5.6750173973556025E-3</v>
       </c>
       <c r="B245">
         <v>0.59551754819351765</v>
@@ -9647,9 +9664,9 @@
         <v>0.8983426119229877</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.0095265979009954496</v>
+        <v>9.5265979009954496E-3</v>
       </c>
       <c r="B246">
         <v>0.6278805854300602</v>
@@ -9685,9 +9702,9 @@
         <v>0.85920491569448831</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>0.0024188204108681246</v>
+        <v>2.4188204108681246E-3</v>
       </c>
       <c r="B247">
         <v>0.48026553926950027</v>
@@ -9723,9 +9740,9 @@
         <v>0.90711165108116742</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>0.0055759030058095474</v>
+        <v>5.5759030058095474E-3</v>
       </c>
       <c r="B248">
         <v>0.70269455958137395</v>
@@ -9761,9 +9778,9 @@
         <v>0.9251189273385535</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.0026861218154570756</v>
+        <v>2.6861218154570756E-3</v>
       </c>
       <c r="B249">
         <v>0.50812265423924141</v>
@@ -9799,9 +9816,9 @@
         <v>0.9370350299721687</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>0.004830917874396135</v>
+        <v>4.830917874396135E-3</v>
       </c>
       <c r="B250">
         <v>0.64937900585995145</v>
@@ -9837,9 +9854,9 @@
         <v>0.94088256485713406</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.0088617436221800558</v>
+        <v>8.8617436221800558E-3</v>
       </c>
       <c r="B251">
         <v>0.59294576567185264</v>
@@ -9875,9 +9892,9 @@
         <v>0.86295291526108664</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.0038833690499383072</v>
+        <v>3.8833690499383072E-3</v>
       </c>
       <c r="B252">
         <v>0.54978404946337256</v>
@@ -9913,9 +9930,9 @@
         <v>0.8321736259930298</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.0055568544930247061</v>
+        <v>5.5568544930247061E-3</v>
       </c>
       <c r="B253">
         <v>0.61054211914744594</v>
@@ -9951,9 +9968,9 @@
         <v>0.92324383654170883</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.017528735632183906</v>
+        <v>1.7528735632183906E-2</v>
       </c>
       <c r="B254">
         <v>0.67487600666666481</v>
@@ -9989,9 +10006,9 @@
         <v>0.89671398753359643</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>0.0089070072140049576</v>
+        <v>8.9070072140049576E-3</v>
       </c>
       <c r="B255">
         <v>0.61571957075862671</v>
@@ -10027,9 +10044,9 @@
         <v>0.85268709845459278</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>0.00270887007729113</v>
+        <v>2.70887007729113E-3</v>
       </c>
       <c r="B256">
         <v>0.52925563124838659</v>
@@ -10065,9 +10082,9 @@
         <v>0.8366007238375659</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.0043771255825670735</v>
+        <v>4.3771255825670735E-3</v>
       </c>
       <c r="B257">
         <v>0.61843952905354471</v>
@@ -10103,9 +10120,9 @@
         <v>0.93920571440567657</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.00039753528125621148</v>
+        <v>3.9753528125621148E-4</v>
       </c>
       <c r="B258">
         <v>0.65348077189250198</v>
@@ -10117,7 +10134,7 @@
         <v>0.99980123235937179</v>
       </c>
       <c r="E258">
-        <v>0.0487030411449016</v>
+        <v>4.87030411449016E-2</v>
       </c>
       <c r="F258">
         <v>0.88564192382307383</v>
@@ -10129,7 +10146,7 @@
         <v>0.9756484794275494</v>
       </c>
       <c r="I258">
-        <v>0.067156131981713371</v>
+        <v>6.7156131981713371E-2</v>
       </c>
       <c r="J258">
         <v>0.87713928299223132</v>
@@ -10141,9 +10158,9 @@
         <v>0.96642193400914345</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>0.0021739130434782609</v>
+        <v>2.1739130434782609E-3</v>
       </c>
       <c r="B259">
         <v>0.55097379008282898</v>
@@ -10179,9 +10196,9 @@
         <v>0.88195436741088928</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.0011385800897412493</v>
+        <v>1.1385800897412493E-3</v>
       </c>
       <c r="B260">
         <v>0.61962296258223615</v>
@@ -10193,7 +10210,7 @@
         <v>0.99943070995512928</v>
       </c>
       <c r="E260">
-        <v>0.076522670714951432</v>
+        <v>7.6522670714951432E-2</v>
       </c>
       <c r="F260">
         <v>0.86969521850030818</v>
@@ -10217,9 +10234,9 @@
         <v>0.94021974115318474</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.0089837512914436</v>
+        <v>8.9837512914436E-3</v>
       </c>
       <c r="B261">
         <v>0.85077647858395722</v>
@@ -10231,7 +10248,7 @@
         <v>0.99550812435427827</v>
       </c>
       <c r="E261">
-        <v>0.077449046679815906</v>
+        <v>7.7449046679815906E-2</v>
       </c>
       <c r="F261">
         <v>0.87205604959450933</v>
@@ -10255,9 +10272,9 @@
         <v>0.9491664318587395</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.010974293563579278</v>
+        <v>1.0974293563579278E-2</v>
       </c>
       <c r="B262">
         <v>0.71599767775508549</v>
@@ -10269,7 +10286,7 @@
         <v>0.99451285321821037</v>
       </c>
       <c r="E262">
-        <v>0.05336047880690737</v>
+        <v>5.336047880690737E-2</v>
       </c>
       <c r="F262">
         <v>0.8229715698832315</v>
@@ -10281,7 +10298,7 @@
         <v>0.97331976059654612</v>
       </c>
       <c r="I262">
-        <v>0.095123626373626369</v>
+        <v>9.5123626373626369E-2</v>
       </c>
       <c r="J262">
         <v>0.70019512436492004</v>
@@ -10293,9 +10310,9 @@
         <v>0.95243818681318682</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>0.027438469380324765</v>
+        <v>2.7438469380324765E-2</v>
       </c>
       <c r="B263">
         <v>0.68974100811829875</v>
@@ -10307,7 +10324,7 @@
         <v>0.98628076530983766</v>
       </c>
       <c r="E263">
-        <v>0.075652625063715132</v>
+        <v>7.5652625063715132E-2</v>
       </c>
       <c r="F263">
         <v>0.79338545100186308</v>
@@ -10331,9 +10348,9 @@
         <v>0.91371908298745119</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.025423728813559324</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="B264">
         <v>0.7306531334521591</v>
@@ -10345,7 +10362,7 @@
         <v>0.98728813559322037</v>
       </c>
       <c r="E264">
-        <v>0.053941730114397207</v>
+        <v>5.3941730114397207E-2</v>
       </c>
       <c r="F264">
         <v>0.81964628583939447</v>
@@ -10369,9 +10386,9 @@
         <v>0.94266030914029919</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.0369039928767219</v>
+        <v>3.69039928767219E-2</v>
       </c>
       <c r="B265">
         <v>0.7397713030966333</v>
@@ -10383,7 +10400,7 @@
         <v>0.98154800356163907</v>
       </c>
       <c r="E265">
-        <v>0.065021736473628161</v>
+        <v>6.5021736473628161E-2</v>
       </c>
       <c r="F265">
         <v>0.81166717827143431</v>
@@ -10407,9 +10424,9 @@
         <v>0.92650627651587902</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.03695849118761324</v>
+        <v>3.695849118761324E-2</v>
       </c>
       <c r="B266">
         <v>0.89139039703220047</v>
@@ -10445,9 +10462,9 @@
         <v>0.862599516828639</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.036205281171724127</v>
+        <v>3.6205281171724127E-2</v>
       </c>
       <c r="B267">
         <v>0.73700023224617239</v>
@@ -10459,7 +10476,7 @@
         <v>0.98189735941413792</v>
       </c>
       <c r="E267">
-        <v>0.061741142278055036</v>
+        <v>6.1741142278055036E-2</v>
       </c>
       <c r="F267">
         <v>0.81738401945864392</v>
@@ -10483,9 +10500,9 @@
         <v>0.93034920999126813</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.016344559067436745</v>
+        <v>1.6344559067436745E-2</v>
       </c>
       <c r="B268">
         <v>0.95799598435520428</v>
@@ -10497,7 +10514,7 @@
         <v>0.99182772046628154</v>
       </c>
       <c r="E268">
-        <v>0.057158905108630448</v>
+        <v>5.7158905108630448E-2</v>
       </c>
       <c r="F268">
         <v>0.84919772881132449</v>
@@ -10509,7 +10526,7 @@
         <v>0.97142054744568485</v>
       </c>
       <c r="I268">
-        <v>0.046769317633773656</v>
+        <v>4.6769317633773656E-2</v>
       </c>
       <c r="J268">
         <v>0.78959090698422929</v>
@@ -10521,9 +10538,9 @@
         <v>0.97661534118311322</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.0059296338672768876</v>
+        <v>5.9296338672768876E-3</v>
       </c>
       <c r="B269">
         <v>0.92870232138302566</v>
@@ -10535,7 +10552,7 @@
         <v>0.99703518306636152</v>
       </c>
       <c r="E269">
-        <v>0.054121853546910764</v>
+        <v>5.4121853546910764E-2</v>
       </c>
       <c r="F269">
         <v>0.86749705355614215</v>
@@ -10547,7 +10564,7 @@
         <v>0.9729390732265446</v>
       </c>
       <c r="I269">
-        <v>0.049402173913043482</v>
+        <v>4.9402173913043482E-2</v>
       </c>
       <c r="J269">
         <v>0.83620750563890012</v>
@@ -10559,9 +10576,9 @@
         <v>0.97529891304347816</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>0.0028610554115518169</v>
+        <v>2.8610554115518169E-3</v>
       </c>
       <c r="B270">
         <v>0.89226703414762121</v>
@@ -10573,7 +10590,7 @@
         <v>0.99856947229422399</v>
       </c>
       <c r="E270">
-        <v>0.056543747248985185</v>
+        <v>5.6543747248985185E-2</v>
       </c>
       <c r="F270">
         <v>0.86868614893547025</v>
@@ -10585,7 +10602,7 @@
         <v>0.97172812637550754</v>
       </c>
       <c r="I270">
-        <v>0.046681664791901015</v>
+        <v>4.6681664791901015E-2</v>
       </c>
       <c r="J270">
         <v>0.82489797038674351</v>
@@ -10597,9 +10614,9 @@
         <v>0.97665916760404958</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>0.0011568402005503826</v>
+        <v>1.1568402005503826E-3</v>
       </c>
       <c r="B271">
         <v>0.87567477706849861</v>
@@ -10611,7 +10628,7 @@
         <v>0.9994215798997248</v>
       </c>
       <c r="E271">
-        <v>0.06024286575941494</v>
+        <v>6.024286575941494E-2</v>
       </c>
       <c r="F271">
         <v>0.87788267358329108</v>
@@ -10623,7 +10640,7 @@
         <v>0.96987856712029241</v>
       </c>
       <c r="I271">
-        <v>0.021551155426546537</v>
+        <v>2.1551155426546537E-2</v>
       </c>
       <c r="J271">
         <v>0.80968911009154054</v>
@@ -10635,9 +10652,9 @@
         <v>0.98922442228672669</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>0.0014928978645279737</v>
+        <v>1.4928978645279737E-3</v>
       </c>
       <c r="B272">
         <v>0.8878880075790031</v>
@@ -10649,7 +10666,7 @@
         <v>0.99925355106773595</v>
       </c>
       <c r="E272">
-        <v>0.069542951009759421</v>
+        <v>6.9542951009759421E-2</v>
       </c>
       <c r="F272">
         <v>0.86803786775629987</v>
@@ -10661,7 +10678,7 @@
         <v>0.96523496634135331</v>
       </c>
       <c r="I272">
-        <v>0.043414822688182433</v>
+        <v>4.3414822688182433E-2</v>
       </c>
       <c r="J272">
         <v>0.80399915719309067</v>
@@ -10673,9 +10690,9 @@
         <v>0.97829258865590873</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>0.037655927581165302</v>
+        <v>3.7655927581165302E-2</v>
       </c>
       <c r="B273">
         <v>0.8870114639374721</v>
@@ -10687,7 +10704,7 @@
         <v>0.9811720362094174</v>
       </c>
       <c r="E273">
-        <v>0.073287259303808625</v>
+        <v>7.3287259303808625E-2</v>
       </c>
       <c r="F273">
         <v>0.84891326519793575</v>
@@ -10699,7 +10716,7 @@
         <v>0.96343241150710124</v>
       </c>
       <c r="I273">
-        <v>0.063319818745528264</v>
+        <v>6.3319818745528264E-2</v>
       </c>
       <c r="J273">
         <v>0.80174291474389636</v>
@@ -10711,9 +10728,9 @@
         <v>0.96835045987619106</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>0.044751924021614542</v>
+        <v>4.4751924021614542E-2</v>
       </c>
       <c r="B274">
         <v>0.88541708043254719</v>
@@ -10725,7 +10742,7 @@
         <v>0.97762403798919273</v>
       </c>
       <c r="E274">
-        <v>0.064903662463839301</v>
+        <v>6.4903662463839301E-2</v>
       </c>
       <c r="F274">
         <v>0.83957625760276233</v>
@@ -10737,7 +10754,7 @@
         <v>0.96757727926059356</v>
       </c>
       <c r="I274">
-        <v>0.061773374815785168</v>
+        <v>6.1773374815785168E-2</v>
       </c>
       <c r="J274">
         <v>0.78681158003125462</v>
@@ -10749,9 +10766,9 @@
         <v>0.96912059021523567</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>0.010200832876991455</v>
+        <v>1.0200832876991455E-2</v>
       </c>
       <c r="B275">
         <v>0.97221266037102327</v>
@@ -10763,7 +10780,7 @@
         <v>0.99489958356150421</v>
       </c>
       <c r="E275">
-        <v>0.015848859569807573</v>
+        <v>1.5848859569807573E-2</v>
       </c>
       <c r="F275">
         <v>0.83721922021218043</v>
@@ -10775,7 +10792,7 @@
         <v>0.99207557021509629</v>
       </c>
       <c r="I275">
-        <v>0.017004571908867467</v>
+        <v>1.7004571908867467E-2</v>
       </c>
       <c r="J275">
         <v>0.80852542803949456</v>
@@ -10787,9 +10804,9 @@
         <v>0.9914977140455663</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>0.01469116174998528</v>
+        <v>1.469116174998528E-2</v>
       </c>
       <c r="B276">
         <v>0.96969591056600368</v>
@@ -10801,7 +10818,7 @@
         <v>0.99265441912500729</v>
       </c>
       <c r="E276">
-        <v>0.044535712182770991</v>
+        <v>4.4535712182770991E-2</v>
       </c>
       <c r="F276">
         <v>0.79350549917402524</v>
@@ -10813,7 +10830,7 @@
         <v>0.9778452472079926</v>
       </c>
       <c r="I276">
-        <v>0.053200259082612028</v>
+        <v>5.3200259082612028E-2</v>
       </c>
       <c r="J276">
         <v>0.75920227337853208</v>
@@ -10825,9 +10842,9 @@
         <v>0.9734273489175449</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>0.036892138939670929</v>
+        <v>3.6892138939670929E-2</v>
       </c>
       <c r="B277">
         <v>0.90799467312961124</v>
@@ -10839,7 +10856,7 @@
         <v>0.9815539305301646</v>
       </c>
       <c r="E277">
-        <v>0.060661182205971963</v>
+        <v>6.0661182205971963E-2</v>
       </c>
       <c r="F277">
         <v>0.86508925853411345</v>
@@ -10851,7 +10868,7 @@
         <v>0.96966940889701403</v>
       </c>
       <c r="I277">
-        <v>0.051953077391834239</v>
+        <v>5.1953077391834239E-2</v>
       </c>
       <c r="J277">
         <v>0.81201144992846142</v>
@@ -10863,9 +10880,9 @@
         <v>0.9740234613040829</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>0.0054524445728316604</v>
+        <v>5.4524445728316604E-3</v>
       </c>
       <c r="B278">
         <v>0.75381127928596847</v>
@@ -10901,9 +10918,9 @@
         <v>0.89092101778965349</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>0.00028896166441918705</v>
+        <v>2.8896166441918705E-4</v>
       </c>
       <c r="B279">
         <v>0.4998554774063011</v>
@@ -10939,9 +10956,9 @@
         <v>0.90453562790299458</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.0032069157836028999</v>
+        <v>3.2069157836028999E-3</v>
       </c>
       <c r="B280">
         <v>0.70839597847784008</v>
@@ -10953,7 +10970,7 @@
         <v>0.9983965421081985</v>
       </c>
       <c r="E280">
-        <v>0.082159788064696038</v>
+        <v>8.2159788064696038E-2</v>
       </c>
       <c r="F280">
         <v>0.79780162377128716</v>
@@ -10977,9 +10994,9 @@
         <v>0.92067240658114891</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>0.0089837512914436</v>
+        <v>8.9837512914436E-3</v>
       </c>
       <c r="B281">
         <v>0.85077647858395722</v>
@@ -10991,7 +11008,7 @@
         <v>0.99550812435427827</v>
       </c>
       <c r="E281">
-        <v>0.077449046679815906</v>
+        <v>7.7449046679815906E-2</v>
       </c>
       <c r="F281">
         <v>0.87205604959450933</v>
@@ -11015,9 +11032,9 @@
         <v>0.9491664318587395</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>0.010974293563579278</v>
+        <v>1.0974293563579278E-2</v>
       </c>
       <c r="B282">
         <v>0.71599767775508549</v>
@@ -11029,7 +11046,7 @@
         <v>0.99451285321821037</v>
       </c>
       <c r="E282">
-        <v>0.05336047880690737</v>
+        <v>5.336047880690737E-2</v>
       </c>
       <c r="F282">
         <v>0.8229715698832315</v>
@@ -11041,7 +11058,7 @@
         <v>0.97331976059654612</v>
       </c>
       <c r="I282">
-        <v>0.095123626373626369</v>
+        <v>9.5123626373626369E-2</v>
       </c>
       <c r="J282">
         <v>0.70019512436492004</v>
@@ -11053,9 +11070,9 @@
         <v>0.95243818681318682</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>0.027438469380324765</v>
+        <v>2.7438469380324765E-2</v>
       </c>
       <c r="B283">
         <v>0.68974100811829875</v>
@@ -11067,7 +11084,7 @@
         <v>0.98628076530983766</v>
       </c>
       <c r="E283">
-        <v>0.075652625063715132</v>
+        <v>7.5652625063715132E-2</v>
       </c>
       <c r="F283">
         <v>0.79338545100186308</v>
@@ -11091,9 +11108,9 @@
         <v>0.91371908298745119</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>0.025423728813559324</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="B284">
         <v>0.7306531334521591</v>
@@ -11105,7 +11122,7 @@
         <v>0.98728813559322037</v>
       </c>
       <c r="E284">
-        <v>0.053941730114397207</v>
+        <v>5.3941730114397207E-2</v>
       </c>
       <c r="F284">
         <v>0.81964628583939447</v>
@@ -11129,9 +11146,9 @@
         <v>0.94266030914029919</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>0.0369039928767219</v>
+        <v>3.69039928767219E-2</v>
       </c>
       <c r="B285">
         <v>0.7397713030966333</v>
@@ -11143,7 +11160,7 @@
         <v>0.98154800356163907</v>
       </c>
       <c r="E285">
-        <v>0.065021736473628161</v>
+        <v>6.5021736473628161E-2</v>
       </c>
       <c r="F285">
         <v>0.81166717827143431</v>
@@ -11167,9 +11184,9 @@
         <v>0.92650627651587902</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>0.03695849118761324</v>
+        <v>3.695849118761324E-2</v>
       </c>
       <c r="B286">
         <v>0.89139039703220047</v>
@@ -11205,9 +11222,9 @@
         <v>0.862599516828639</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>0.036205281171724127</v>
+        <v>3.6205281171724127E-2</v>
       </c>
       <c r="B287">
         <v>0.73700023224617239</v>
@@ -11219,7 +11236,7 @@
         <v>0.98189735941413792</v>
       </c>
       <c r="E287">
-        <v>0.061741142278055036</v>
+        <v>6.1741142278055036E-2</v>
       </c>
       <c r="F287">
         <v>0.81738401945864392</v>
@@ -11243,9 +11260,9 @@
         <v>0.93034920999126813</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>0.016344559067436745</v>
+        <v>1.6344559067436745E-2</v>
       </c>
       <c r="B288">
         <v>0.95799598435520428</v>
@@ -11257,7 +11274,7 @@
         <v>0.99182772046628154</v>
       </c>
       <c r="E288">
-        <v>0.057158905108630448</v>
+        <v>5.7158905108630448E-2</v>
       </c>
       <c r="F288">
         <v>0.84919772881132449</v>
@@ -11269,7 +11286,7 @@
         <v>0.97142054744568485</v>
       </c>
       <c r="I288">
-        <v>0.046769317633773656</v>
+        <v>4.6769317633773656E-2</v>
       </c>
       <c r="J288">
         <v>0.78959090698422929</v>
@@ -11281,9 +11298,9 @@
         <v>0.97661534118311322</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>0.0059296338672768876</v>
+        <v>5.9296338672768876E-3</v>
       </c>
       <c r="B289">
         <v>0.92870232138302566</v>
@@ -11295,7 +11312,7 @@
         <v>0.99703518306636152</v>
       </c>
       <c r="E289">
-        <v>0.054121853546910764</v>
+        <v>5.4121853546910764E-2</v>
       </c>
       <c r="F289">
         <v>0.86749705355614215</v>
@@ -11307,7 +11324,7 @@
         <v>0.9729390732265446</v>
       </c>
       <c r="I289">
-        <v>0.049402173913043482</v>
+        <v>4.9402173913043482E-2</v>
       </c>
       <c r="J289">
         <v>0.83620750563890012</v>
@@ -11319,9 +11336,9 @@
         <v>0.97529891304347816</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>0.0028610554115518169</v>
+        <v>2.8610554115518169E-3</v>
       </c>
       <c r="B290">
         <v>0.89226703414762121</v>
@@ -11333,7 +11350,7 @@
         <v>0.99856947229422399</v>
       </c>
       <c r="E290">
-        <v>0.056543747248985185</v>
+        <v>5.6543747248985185E-2</v>
       </c>
       <c r="F290">
         <v>0.86868614893547025</v>
@@ -11345,7 +11362,7 @@
         <v>0.97172812637550754</v>
       </c>
       <c r="I290">
-        <v>0.046681664791901015</v>
+        <v>4.6681664791901015E-2</v>
       </c>
       <c r="J290">
         <v>0.82489797038674351</v>
@@ -11357,9 +11374,9 @@
         <v>0.97665916760404958</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>0.0011568402005503826</v>
+        <v>1.1568402005503826E-3</v>
       </c>
       <c r="B291">
         <v>0.87567477706849861</v>
@@ -11371,7 +11388,7 @@
         <v>0.9994215798997248</v>
       </c>
       <c r="E291">
-        <v>0.06024286575941494</v>
+        <v>6.024286575941494E-2</v>
       </c>
       <c r="F291">
         <v>0.87788267358329108</v>
@@ -11383,7 +11400,7 @@
         <v>0.96987856712029241</v>
       </c>
       <c r="I291">
-        <v>0.021551155426546537</v>
+        <v>2.1551155426546537E-2</v>
       </c>
       <c r="J291">
         <v>0.80968911009154054</v>
@@ -11395,9 +11412,9 @@
         <v>0.98922442228672669</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>0.0014928978645279737</v>
+        <v>1.4928978645279737E-3</v>
       </c>
       <c r="B292">
         <v>0.8878880075790031</v>
@@ -11409,7 +11426,7 @@
         <v>0.99925355106773595</v>
       </c>
       <c r="E292">
-        <v>0.069542951009759421</v>
+        <v>6.9542951009759421E-2</v>
       </c>
       <c r="F292">
         <v>0.86803786775629987</v>
@@ -11421,7 +11438,7 @@
         <v>0.96523496634135331</v>
       </c>
       <c r="I292">
-        <v>0.043414822688182433</v>
+        <v>4.3414822688182433E-2</v>
       </c>
       <c r="J292">
         <v>0.80399915719309067</v>
@@ -11433,9 +11450,9 @@
         <v>0.97829258865590873</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>0.037655927581165302</v>
+        <v>3.7655927581165302E-2</v>
       </c>
       <c r="B293">
         <v>0.8870114639374721</v>
@@ -11447,7 +11464,7 @@
         <v>0.9811720362094174</v>
       </c>
       <c r="E293">
-        <v>0.073287259303808625</v>
+        <v>7.3287259303808625E-2</v>
       </c>
       <c r="F293">
         <v>0.84891326519793575</v>
@@ -11459,7 +11476,7 @@
         <v>0.96343241150710124</v>
       </c>
       <c r="I293">
-        <v>0.063319818745528264</v>
+        <v>6.3319818745528264E-2</v>
       </c>
       <c r="J293">
         <v>0.80174291474389636</v>
@@ -11471,9 +11488,9 @@
         <v>0.96835045987619106</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>0.044751924021614542</v>
+        <v>4.4751924021614542E-2</v>
       </c>
       <c r="B294">
         <v>0.88541708043254719</v>
@@ -11485,7 +11502,7 @@
         <v>0.97762403798919273</v>
       </c>
       <c r="E294">
-        <v>0.064903662463839301</v>
+        <v>6.4903662463839301E-2</v>
       </c>
       <c r="F294">
         <v>0.83957625760276233</v>
@@ -11497,7 +11514,7 @@
         <v>0.96757727926059356</v>
       </c>
       <c r="I294">
-        <v>0.061773374815785168</v>
+        <v>6.1773374815785168E-2</v>
       </c>
       <c r="J294">
         <v>0.78681158003125462</v>
@@ -11509,9 +11526,9 @@
         <v>0.96912059021523567</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>0.010200832876991455</v>
+        <v>1.0200832876991455E-2</v>
       </c>
       <c r="B295">
         <v>0.97221266037102327</v>
@@ -11523,7 +11540,7 @@
         <v>0.99489958356150421</v>
       </c>
       <c r="E295">
-        <v>0.015848859569807573</v>
+        <v>1.5848859569807573E-2</v>
       </c>
       <c r="F295">
         <v>0.83721922021218043</v>
@@ -11535,7 +11552,7 @@
         <v>0.99207557021509629</v>
       </c>
       <c r="I295">
-        <v>0.017004571908867467</v>
+        <v>1.7004571908867467E-2</v>
       </c>
       <c r="J295">
         <v>0.80852542803949456</v>
@@ -11547,9 +11564,9 @@
         <v>0.9914977140455663</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>0.01469116174998528</v>
+        <v>1.469116174998528E-2</v>
       </c>
       <c r="B296">
         <v>0.96969591056600368</v>
@@ -11561,7 +11578,7 @@
         <v>0.99265441912500729</v>
       </c>
       <c r="E296">
-        <v>0.044535712182770991</v>
+        <v>4.4535712182770991E-2</v>
       </c>
       <c r="F296">
         <v>0.79350549917402524</v>
@@ -11573,7 +11590,7 @@
         <v>0.9778452472079926</v>
       </c>
       <c r="I296">
-        <v>0.053200259082612028</v>
+        <v>5.3200259082612028E-2</v>
       </c>
       <c r="J296">
         <v>0.75920227337853208</v>
@@ -11585,9 +11602,9 @@
         <v>0.9734273489175449</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>0.036892138939670929</v>
+        <v>3.6892138939670929E-2</v>
       </c>
       <c r="B297">
         <v>0.90799467312961124</v>
@@ -11599,7 +11616,7 @@
         <v>0.9815539305301646</v>
       </c>
       <c r="E297">
-        <v>0.060661182205971963</v>
+        <v>6.0661182205971963E-2</v>
       </c>
       <c r="F297">
         <v>0.86508925853411345</v>
@@ -11611,7 +11628,7 @@
         <v>0.96966940889701403</v>
       </c>
       <c r="I297">
-        <v>0.051953077391834239</v>
+        <v>5.1953077391834239E-2</v>
       </c>
       <c r="J297">
         <v>0.81201144992846142</v>
@@ -11623,9 +11640,9 @@
         <v>0.9740234613040829</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>0.0054524445728316604</v>
+        <v>5.4524445728316604E-3</v>
       </c>
       <c r="B298">
         <v>0.75381127928596847</v>
@@ -11661,9 +11678,9 @@
         <v>0.89092101778965349</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>0.00028896166441918705</v>
+        <v>2.8896166441918705E-4</v>
       </c>
       <c r="B299">
         <v>0.4998554774063011</v>
@@ -11699,9 +11716,9 @@
         <v>0.90453562790299458</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>0.0032069157836028999</v>
+        <v>3.2069157836028999E-3</v>
       </c>
       <c r="B300">
         <v>0.70839597847784008</v>
@@ -11713,7 +11730,7 @@
         <v>0.9983965421081985</v>
       </c>
       <c r="E300">
-        <v>0.082159788064696038</v>
+        <v>8.2159788064696038E-2</v>
       </c>
       <c r="F300">
         <v>0.79780162377128716</v>
@@ -11737,9 +11754,9 @@
         <v>0.92067240658114891</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>2.4706303813417993e-05</v>
+        <v>2.4706303813417993E-5</v>
       </c>
       <c r="B301">
         <v>0.5555432020602884</v>
@@ -11751,7 +11768,7 @@
         <v>0.99998764684809338</v>
       </c>
       <c r="E301">
-        <v>0.020889179874244913</v>
+        <v>2.0889179874244913E-2</v>
       </c>
       <c r="F301">
         <v>0.83465151284147043</v>
@@ -11763,7 +11780,7 @@
         <v>0.98955541006287773</v>
       </c>
       <c r="I301">
-        <v>0.071185037862410594</v>
+        <v>7.1185037862410594E-2</v>
       </c>
       <c r="J301">
         <v>0.8411539488577443</v>
@@ -11775,9 +11792,9 @@
         <v>0.96441571650339919</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>0.0026053847737010495</v>
+        <v>2.6053847737010495E-3</v>
       </c>
       <c r="B302">
         <v>0.7911762117880442</v>
@@ -11789,7 +11806,7 @@
         <v>0.9990288276236271</v>
       </c>
       <c r="E302">
-        <v>0.024919546466593077</v>
+        <v>2.4919546466593077E-2</v>
       </c>
       <c r="F302">
         <v>0.93870683380232312</v>
@@ -11801,7 +11818,7 @@
         <v>0.9875402267667035</v>
       </c>
       <c r="I302">
-        <v>0.03603102138567179</v>
+        <v>3.603102138567179E-2</v>
       </c>
       <c r="J302">
         <v>0.81503742031250936</v>
@@ -11813,9 +11830,9 @@
         <v>0.98200631778522018</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>0.0037687664448227826</v>
+        <v>3.7687664448227826E-3</v>
       </c>
       <c r="B303">
         <v>0.7552084987111094</v>
@@ -11827,7 +11844,7 @@
         <v>0.99811561677758853</v>
       </c>
       <c r="E303">
-        <v>0.0078122581643708406</v>
+        <v>7.8122581643708406E-3</v>
       </c>
       <c r="F303">
         <v>0.77732316664949896</v>
@@ -11839,7 +11856,7 @@
         <v>0.99609387091781443</v>
       </c>
       <c r="I303">
-        <v>0.0622929887014394</v>
+        <v>6.22929887014394E-2</v>
       </c>
       <c r="J303">
         <v>0.75627302971242805</v>
@@ -11851,9 +11868,9 @@
         <v>0.96905987205282984</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>0.00017428448297715922</v>
+        <v>1.7428448297715922E-4</v>
       </c>
       <c r="B304">
         <v>0.83039621940552155</v>
@@ -11865,7 +11882,7 @@
         <v>0.99991285775851146</v>
       </c>
       <c r="E304">
-        <v>0.0036726493776459554</v>
+        <v>3.6726493776459554E-3</v>
       </c>
       <c r="F304">
         <v>0.83802788828122232</v>
@@ -11877,7 +11894,7 @@
         <v>0.99816367531117711</v>
       </c>
       <c r="I304">
-        <v>0.023284406925748471</v>
+        <v>2.3284406925748471E-2</v>
       </c>
       <c r="J304">
         <v>0.80698770019497812</v>
@@ -11889,9 +11906,9 @@
         <v>0.98836624669387607</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>0.015683694356344334</v>
+        <v>1.5683694356344334E-2</v>
       </c>
       <c r="B305">
         <v>0.92648817913397574</v>
@@ -11903,7 +11920,7 @@
         <v>0.99215815282182773</v>
       </c>
       <c r="E305">
-        <v>0.014131632813730121</v>
+        <v>1.4131632813730121E-2</v>
       </c>
       <c r="F305">
         <v>0.92329039611971897</v>
@@ -11915,7 +11932,7 @@
         <v>0.9929341835931349</v>
       </c>
       <c r="I305">
-        <v>0.02077569336662393</v>
+        <v>2.077569336662393E-2</v>
       </c>
       <c r="J305">
         <v>0.80160953726248829</v>
@@ -11927,9 +11944,9 @@
         <v>0.98961215331668806</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>0.00013004195266472923</v>
+        <v>1.3004195266472923E-4</v>
       </c>
       <c r="B306">
         <v>0.82829316333845004</v>
@@ -11941,7 +11958,7 @@
         <v>0.99993497902366768</v>
       </c>
       <c r="E306">
-        <v>0.0029118089401015462</v>
+        <v>2.9118089401015462E-3</v>
       </c>
       <c r="F306">
         <v>0.89340436528901634</v>
@@ -11953,7 +11970,7 @@
         <v>0.99854409552994905</v>
       </c>
       <c r="I306">
-        <v>0.020761480442821119</v>
+        <v>2.0761480442821119E-2</v>
       </c>
       <c r="J306">
         <v>0.86346514199445079</v>
@@ -11965,9 +11982,9 @@
         <v>0.98961925977858944</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>0.00094919251030320081</v>
+        <v>9.4919251030320081E-4</v>
       </c>
       <c r="B307">
         <v>0.95756298842810728</v>
@@ -11979,7 +11996,7 @@
         <v>0.99952540374484833</v>
       </c>
       <c r="E307">
-        <v>0.0034533300161173428</v>
+        <v>3.4533300161173428E-3</v>
       </c>
       <c r="F307">
         <v>0.91269916158468756</v>
@@ -11991,7 +12008,7 @@
         <v>0.99827333499194137</v>
       </c>
       <c r="I307">
-        <v>0.020519865436412214</v>
+        <v>2.0519865436412214E-2</v>
       </c>
       <c r="J307">
         <v>0.88125761168367467</v>
@@ -12003,10 +12020,13 @@
         <v>0.98974006728179387</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0</v>
       </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
       <c r="C308">
         <v>1</v>
       </c>
@@ -12014,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="E308">
-        <v>0.036805950143508605</v>
+        <v>3.6805950143508605E-2</v>
       </c>
       <c r="F308">
         <v>0.78125756219219533</v>
@@ -12038,12 +12058,12 @@
         <v>0.94333049230007127</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>0.00011438157694067408</v>
+        <v>1.1438157694067408E-4</v>
       </c>
       <c r="B309">
-        <v>-5.7194059443692456e-05</v>
+        <v>-5.7194059443692456E-5</v>
       </c>
       <c r="C309">
         <v>0.99977125647083642</v>
@@ -12052,7 +12072,7 @@
         <v>0.99994280921152967</v>
       </c>
       <c r="E309">
-        <v>0.0019368613695287479</v>
+        <v>1.9368613695287479E-3</v>
       </c>
       <c r="F309">
         <v>0.84426555827786365</v>
@@ -12064,7 +12084,7 @@
         <v>0.99903156931523551</v>
       </c>
       <c r="I309">
-        <v>0.018362055818209547</v>
+        <v>1.8362055818209547E-2</v>
       </c>
       <c r="J309">
         <v>0.85895653943636097</v>
@@ -12076,9 +12096,9 @@
         <v>0.9908189720908952</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>0.0004606060606060606</v>
+        <v>4.606060606060606E-4</v>
       </c>
       <c r="B310">
         <v>0.75721628660094631</v>
@@ -12090,7 +12110,7 @@
         <v>0.99976969696969697</v>
       </c>
       <c r="E310">
-        <v>0.0010585858585858586</v>
+        <v>1.0585858585858586E-3</v>
       </c>
       <c r="F310">
         <v>0.79463153108865026</v>
@@ -12102,7 +12122,7 @@
         <v>0.99947070707070707</v>
       </c>
       <c r="I310">
-        <v>0.013987878787878789</v>
+        <v>1.3987878787878789E-2</v>
       </c>
       <c r="J310">
         <v>0.86750277679009447</v>
@@ -12114,9 +12134,9 @@
         <v>0.99300606060606067</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>0.004700609350330771</v>
+        <v>4.700609350330771E-3</v>
       </c>
       <c r="B311">
         <v>0.89942699264821058</v>
@@ -12128,7 +12148,7 @@
         <v>0.99764969532483461</v>
       </c>
       <c r="E311">
-        <v>0.0059075666436148701</v>
+        <v>5.9075666436148701E-3</v>
       </c>
       <c r="F311">
         <v>0.88596879781301419</v>
@@ -12140,7 +12160,7 @@
         <v>0.99704621667819238</v>
       </c>
       <c r="I311">
-        <v>0.022201490102950194</v>
+        <v>2.2201490102950194E-2</v>
       </c>
       <c r="J311">
         <v>0.84892085675650109</v>
@@ -12152,9 +12172,9 @@
         <v>0.98889925494852493</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>0.0025838085964668247</v>
+        <v>2.5838085964668247E-3</v>
       </c>
       <c r="B312">
         <v>0.85054135324671742</v>
@@ -12166,7 +12186,7 @@
         <v>0.99870809570176655</v>
       </c>
       <c r="E312">
-        <v>0.010672555292808458</v>
+        <v>1.0672555292808458E-2</v>
       </c>
       <c r="F312">
         <v>0.8700106147958917</v>
@@ -12178,7 +12198,7 @@
         <v>0.99466372235359579</v>
       </c>
       <c r="I312">
-        <v>0.028554040895813048</v>
+        <v>2.8554040895813048E-2</v>
       </c>
       <c r="J312">
         <v>0.82059312813221497</v>
@@ -12190,9 +12210,9 @@
         <v>0.98574152640608337</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>0.00014065330647792867</v>
+        <v>1.4065330647792867E-4</v>
       </c>
       <c r="B313">
         <v>0.77109165156788462</v>
@@ -12204,7 +12224,7 @@
         <v>0.99992967334676119</v>
       </c>
       <c r="E313">
-        <v>0.0041464594749693381</v>
+        <v>4.1464594749693381E-3</v>
       </c>
       <c r="F313">
         <v>0.86722952759007832</v>
@@ -12216,7 +12236,7 @@
         <v>0.99792677026251542</v>
       </c>
       <c r="I313">
-        <v>0.011767055619943513</v>
+        <v>1.1767055619943513E-2</v>
       </c>
       <c r="J313">
         <v>0.78994005388755484</v>
@@ -12228,9 +12248,9 @@
         <v>0.99412022294486768</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>0.00010754856489883713</v>
+        <v>1.0754856489883713E-4</v>
       </c>
       <c r="B314">
         <v>0.58968980841176222</v>
@@ -12242,7 +12262,7 @@
         <v>0.99994622571755054</v>
       </c>
       <c r="E314">
-        <v>0.0030281642804328829</v>
+        <v>3.0281642804328829E-3</v>
       </c>
       <c r="F314">
         <v>0.88787635699637746</v>
@@ -12254,7 +12274,7 @@
         <v>0.99848591785978358</v>
       </c>
       <c r="I314">
-        <v>0.027270282987161391</v>
+        <v>2.7270282987161391E-2</v>
       </c>
       <c r="J314">
         <v>0.87354801385808678</v>
@@ -12266,9 +12286,9 @@
         <v>0.98636485850641931</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>0.00012260765550239233</v>
+        <v>1.2260765550239233E-4</v>
       </c>
       <c r="B315">
         <v>0.7735256745175344</v>
@@ -12280,7 +12300,7 @@
         <v>0.99993869617224873</v>
       </c>
       <c r="E315">
-        <v>0.0057715311004784674</v>
+        <v>5.7715311004784674E-3</v>
       </c>
       <c r="F315">
         <v>0.84877496556660426</v>
@@ -12292,7 +12312,7 @@
         <v>0.99711423444976088</v>
       </c>
       <c r="I315">
-        <v>0.021309808612440192</v>
+        <v>2.1309808612440192E-2</v>
       </c>
       <c r="J315">
         <v>0.80448569755980248</v>
@@ -12304,9 +12324,9 @@
         <v>0.98934509569377982</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>0.00050505050505050505</v>
+        <v>5.0505050505050505E-4</v>
       </c>
       <c r="B316">
         <v>0.747560700585294</v>
@@ -12318,7 +12338,7 @@
         <v>0.99974747474747483</v>
       </c>
       <c r="E316">
-        <v>0.0016237961005402864</v>
+        <v>1.6237961005402864E-3</v>
       </c>
       <c r="F316">
         <v>0.83217374877394878</v>
@@ -12330,7 +12350,7 @@
         <v>0.99918810194972985</v>
       </c>
       <c r="I316">
-        <v>0.018772022551092317</v>
+        <v>1.8772022551092317E-2</v>
       </c>
       <c r="J316">
         <v>0.83451128466793911</v>
@@ -12342,9 +12362,9 @@
         <v>0.99061398872445383</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>0.0013768255806472366</v>
+        <v>1.3768255806472366E-3</v>
       </c>
       <c r="B317">
         <v>0.73247688884658679</v>
@@ -12356,7 +12376,7 @@
         <v>0.9993115872096765</v>
       </c>
       <c r="E317">
-        <v>0.0051791803384160073</v>
+        <v>5.1791803384160073E-3</v>
       </c>
       <c r="F317">
         <v>0.81238594593364155</v>
@@ -12368,7 +12388,7 @@
         <v>0.99741040983079199</v>
       </c>
       <c r="I317">
-        <v>0.040291449527118314</v>
+        <v>4.0291449527118314E-2</v>
       </c>
       <c r="J317">
         <v>0.83476460631864113</v>
@@ -12380,9 +12400,9 @@
         <v>0.97985427523644086</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>0.00029783516383770538</v>
+        <v>2.9783516383770538E-4</v>
       </c>
       <c r="B318">
         <v>0.80975299046428462</v>
@@ -12394,7 +12414,7 @@
         <v>0.99985108241808118</v>
       </c>
       <c r="E318">
-        <v>0.0017813379322864664</v>
+        <v>1.7813379322864664E-3</v>
       </c>
       <c r="F318">
         <v>0.85262644064111981</v>
@@ -12406,7 +12426,7 @@
         <v>0.9991093310338568</v>
       </c>
       <c r="I318">
-        <v>0.031933602614141784</v>
+        <v>3.1933602614141784E-2</v>
       </c>
       <c r="J318">
         <v>0.8188235589878522</v>
@@ -12418,9 +12438,9 @@
         <v>0.98403319869292905</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>0.00015335165374423399</v>
+        <v>1.5335165374423399E-4</v>
       </c>
       <c r="B319">
         <v>0.48971923101554521</v>
@@ -12432,7 +12452,7 @@
         <v>0.99992332417312801</v>
       </c>
       <c r="E319">
-        <v>0.0018340857787810384</v>
+        <v>1.8340857787810384E-3</v>
       </c>
       <c r="F319">
         <v>0.7602860454016791</v>
@@ -12444,7 +12464,7 @@
         <v>0.99908295711060946</v>
       </c>
       <c r="I319">
-        <v>0.02640715477475709</v>
+        <v>2.640715477475709E-2</v>
       </c>
       <c r="J319">
         <v>0.80976849608890411</v>
@@ -12456,9 +12476,9 @@
         <v>0.98680460136748782</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>0.002104381252772165</v>
+        <v>2.104381252772165E-3</v>
       </c>
       <c r="B320">
         <v>0.76398166984796512</v>
@@ -12470,7 +12490,7 @@
         <v>0.99952996402345873</v>
       </c>
       <c r="E320">
-        <v>0.022712039820610125</v>
+        <v>2.2712039820610125E-2</v>
       </c>
       <c r="F320">
         <v>0.86838660899306264</v>
@@ -12494,9 +12514,9 @@
         <v>0.93377318351321614</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>0.036348836348836351</v>
+        <v>3.6348836348836351E-2</v>
       </c>
       <c r="B321">
         <v>0.92713333284627619</v>
@@ -12508,7 +12528,7 @@
         <v>0.98182558182558188</v>
       </c>
       <c r="E321">
-        <v>0.032863432863432865</v>
+        <v>3.2863432863432865E-2</v>
       </c>
       <c r="F321">
         <v>0.85148332248618586</v>
@@ -12532,9 +12552,9 @@
         <v>0.93568468568468566</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>0.036936517783291975</v>
+        <v>3.6936517783291975E-2</v>
       </c>
       <c r="B322">
         <v>0.89620352491755551</v>
@@ -12546,7 +12566,7 @@
         <v>0.98153174110835406</v>
       </c>
       <c r="E322">
-        <v>0.05339295561069754</v>
+        <v>5.339295561069754E-2</v>
       </c>
       <c r="F322">
         <v>0.84061765205810968</v>
@@ -12570,9 +12590,9 @@
         <v>0.90359772769046964</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>0.023264889184753293</v>
+        <v>2.3264889184753293E-2</v>
       </c>
       <c r="B323">
         <v>0.89380248323658817</v>
@@ -12584,7 +12604,7 @@
         <v>0.98836755540762333</v>
       </c>
       <c r="E323">
-        <v>0.038116772068359984</v>
+        <v>3.8116772068359984E-2</v>
       </c>
       <c r="F323">
         <v>0.89370811053336296</v>
@@ -12596,7 +12616,7 @@
         <v>0.98094161396582003</v>
       </c>
       <c r="I323">
-        <v>0.086580508912277476</v>
+        <v>8.6580508912277476E-2</v>
       </c>
       <c r="J323">
         <v>0.8594860858938721</v>
@@ -12608,9 +12628,9 @@
         <v>0.95671357137664947</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>0.013191273465246067</v>
+        <v>1.3191273465246067E-2</v>
       </c>
       <c r="B324">
         <v>0.91873991989636827</v>
@@ -12622,7 +12642,7 @@
         <v>0.99340436326737702</v>
       </c>
       <c r="E324">
-        <v>0.020323258679423063</v>
+        <v>2.0323258679423063E-2</v>
       </c>
       <c r="F324">
         <v>0.87109620940044108</v>
@@ -12634,7 +12654,7 @@
         <v>0.98984803459689308</v>
       </c>
       <c r="I324">
-        <v>0.091889541204609695</v>
+        <v>9.1889541204609695E-2</v>
       </c>
       <c r="J324">
         <v>0.74706889885063799</v>
@@ -12646,9 +12666,9 @@
         <v>0.95543717233214942</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>0.036101670297748731</v>
+        <v>3.6101670297748731E-2</v>
       </c>
       <c r="B325">
         <v>0.9225801154409039</v>
@@ -12660,7 +12680,7 @@
         <v>0.9819491648511256</v>
       </c>
       <c r="E325">
-        <v>0.030384894698620192</v>
+        <v>3.0384894698620192E-2</v>
       </c>
       <c r="F325">
         <v>0.8899203923697101</v>
@@ -12672,7 +12692,7 @@
         <v>0.98482304526748943</v>
       </c>
       <c r="I325">
-        <v>0.093954974582425563</v>
+        <v>9.3954974582425563E-2</v>
       </c>
       <c r="J325">
         <v>0.74738358341571642</v>
@@ -12684,9 +12704,9 @@
         <v>0.95395836359235053</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>0.005710704088028414</v>
+        <v>5.710704088028414E-3</v>
       </c>
       <c r="B326">
         <v>0.83403595308382861</v>
@@ -12698,7 +12718,7 @@
         <v>0.99714464795598579</v>
       </c>
       <c r="E326">
-        <v>0.031408872484156282</v>
+        <v>3.1408872484156282E-2</v>
       </c>
       <c r="F326">
         <v>0.863634474581497</v>
@@ -12722,9 +12742,9 @@
         <v>0.94831993355567412</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.018694196428571428</v>
+        <v>1.8694196428571428E-2</v>
       </c>
       <c r="B327">
         <v>0.89471598522018103</v>
@@ -12736,7 +12756,7 @@
         <v>0.9906529017857143</v>
       </c>
       <c r="E327">
-        <v>0.053469348867595821</v>
+        <v>5.3469348867595821E-2</v>
       </c>
       <c r="F327">
         <v>0.83904914302253508</v>
@@ -12760,9 +12780,9 @@
         <v>0.91645910460220681</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>0.021256954461158047</v>
+        <v>2.1256954461158047E-2</v>
       </c>
       <c r="B328">
         <v>0.8435086296683848</v>
@@ -12774,7 +12794,7 @@
         <v>0.99073459715639811</v>
       </c>
       <c r="E328">
-        <v>0.060729445703688427</v>
+        <v>6.0729445703688427E-2</v>
       </c>
       <c r="F328">
         <v>0.86876983177195966</v>
@@ -12798,9 +12818,9 @@
         <v>0.9271589165922568</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>0.018191428445579881</v>
+        <v>1.8191428445579881E-2</v>
       </c>
       <c r="B329">
         <v>0.84151793223546478</v>
@@ -12812,7 +12832,7 @@
         <v>0.99714795401488776</v>
       </c>
       <c r="E329">
-        <v>0.050411839844954419</v>
+        <v>5.0411839844954419E-2</v>
       </c>
       <c r="F329">
         <v>0.89795401760277005</v>
@@ -12824,7 +12844,7 @@
         <v>0.97479734282139263</v>
       </c>
       <c r="I329">
-        <v>0.098281186529435655</v>
+        <v>9.8281186529435655E-2</v>
       </c>
       <c r="J329">
         <v>0.83725587907720167</v>
@@ -12836,9 +12856,9 @@
         <v>0.95101928118489809</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>0.029990998167252758</v>
+        <v>2.9990998167252758E-2</v>
       </c>
       <c r="B330">
         <v>0.93039254430251228</v>
@@ -12850,7 +12870,7 @@
         <v>0.98500450091637348</v>
       </c>
       <c r="E330">
-        <v>0.033760110871493984</v>
+        <v>3.3760110871493984E-2</v>
       </c>
       <c r="F330">
         <v>0.92355133647742294</v>
@@ -12862,7 +12882,7 @@
         <v>0.983119944564253</v>
       </c>
       <c r="I330">
-        <v>0.046349724440299722</v>
+        <v>4.6349724440299722E-2</v>
       </c>
       <c r="J330">
         <v>0.75335273697420169</v>
@@ -12874,9 +12894,9 @@
         <v>0.97682513777985014</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>0.032635486951967212</v>
+        <v>3.2635486951967212E-2</v>
       </c>
       <c r="B331">
         <v>0.9321212047070917</v>
@@ -12888,7 +12908,7 @@
         <v>0.98422817111871086</v>
       </c>
       <c r="E331">
-        <v>0.037079828696429132</v>
+        <v>3.7079828696429132E-2</v>
       </c>
       <c r="F331">
         <v>0.90360434843860171</v>
@@ -12900,7 +12920,7 @@
         <v>0.98146008565178522</v>
       </c>
       <c r="I331">
-        <v>0.084858428074067238</v>
+        <v>8.4858428074067238E-2</v>
       </c>
       <c r="J331">
         <v>0.73655310667719953</v>
@@ -12912,9 +12932,9 @@
         <v>0.95814590586519599</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>0.04145307259034238</v>
+        <v>4.145307259034238E-2</v>
       </c>
       <c r="B332">
         <v>0.91708943150350319</v>
@@ -12926,7 +12946,7 @@
         <v>0.97927346370482882</v>
       </c>
       <c r="E332">
-        <v>0.04734404995464421</v>
+        <v>4.734404995464421E-2</v>
       </c>
       <c r="F332">
         <v>0.8834016131982545</v>
@@ -12950,9 +12970,9 @@
         <v>0.94791161248584821</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>0.022205497780210425</v>
+        <v>2.2205497780210425E-2</v>
       </c>
       <c r="B333">
         <v>0.93756114232979426</v>
@@ -12964,7 +12984,7 @@
         <v>0.98997483731679126</v>
       </c>
       <c r="E333">
-        <v>0.024942224654868336</v>
+        <v>2.4942224654868336E-2</v>
       </c>
       <c r="F333">
         <v>0.92468831145433172</v>
@@ -12988,9 +13008,9 @@
         <v>0.94586348800908182</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>0.042385265700483093</v>
+        <v>4.2385265700483093E-2</v>
       </c>
       <c r="B334">
         <v>0.91516429657216181</v>
@@ -13002,7 +13022,7 @@
         <v>0.97880736714975847</v>
       </c>
       <c r="E334">
-        <v>0.042071256038647344</v>
+        <v>4.2071256038647344E-2</v>
       </c>
       <c r="F334">
         <v>0.89023801390106816</v>
@@ -13026,9 +13046,9 @@
         <v>0.92517361111111107</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>0.011890207359463022</v>
+        <v>1.1890207359463022E-2</v>
       </c>
       <c r="B335">
         <v>0.93711787348452669</v>
@@ -13040,7 +13060,7 @@
         <v>0.99405489632026844</v>
       </c>
       <c r="E335">
-        <v>0.01707419393503536</v>
+        <v>1.707419393503536E-2</v>
       </c>
       <c r="F335">
         <v>0.90569951702099583</v>
@@ -13052,7 +13072,7 @@
         <v>0.99146290303248241</v>
       </c>
       <c r="I335">
-        <v>0.053278197291142276</v>
+        <v>5.3278197291142276E-2</v>
       </c>
       <c r="J335">
         <v>0.80236074541655911</v>
@@ -13064,9 +13084,9 @@
         <v>0.97336090135442888</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>0.025738775999520468</v>
+        <v>2.5738775999520468E-2</v>
       </c>
       <c r="B336">
         <v>0.91070170523715843</v>
@@ -13078,7 +13098,7 @@
         <v>0.98925478031529102</v>
       </c>
       <c r="E336">
-        <v>0.037643109752442609</v>
+        <v>3.7643109752442609E-2</v>
       </c>
       <c r="F336">
         <v>0.79025755657788432</v>
@@ -13102,9 +13122,9 @@
         <v>0.90865851465563741</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.030605832076420314</v>
+        <v>3.0605832076420314E-2</v>
       </c>
       <c r="B337">
         <v>0.9103955781986961</v>
@@ -13116,7 +13136,7 @@
         <v>0.9846970839617899</v>
       </c>
       <c r="E337">
-        <v>0.022184514831573653</v>
+        <v>2.2184514831573653E-2</v>
       </c>
       <c r="F337">
         <v>0.82822879418866291</v>
@@ -13140,9 +13160,9 @@
         <v>0.93131703536115307</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>0.035029785029785029</v>
+        <v>3.5029785029785029E-2</v>
       </c>
       <c r="B338">
         <v>0.91025488717281222</v>
@@ -13154,7 +13174,7 @@
         <v>0.98401482776482785</v>
       </c>
       <c r="E338">
-        <v>0.054929638262971585</v>
+        <v>5.4929638262971585E-2</v>
       </c>
       <c r="F338">
         <v>0.81728917257912226</v>
@@ -13178,9 +13198,9 @@
         <v>0.87698387003942568</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>0.0291854798817004</v>
+        <v>2.91854798817004E-2</v>
       </c>
       <c r="B339">
         <v>0.90335605161415811</v>
@@ -13192,7 +13212,7 @@
         <v>0.98540726005914969</v>
       </c>
       <c r="E339">
-        <v>0.068106469640996523</v>
+        <v>6.8106469640996523E-2</v>
       </c>
       <c r="F339">
         <v>0.77859189623461833</v>
@@ -13216,9 +13236,9 @@
         <v>0.86121548279358273</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>0.037761069340016704</v>
+        <v>3.7761069340016704E-2</v>
       </c>
       <c r="B340">
         <v>0.90193139343508089</v>
@@ -13230,7 +13250,7 @@
         <v>0.98111946532999161</v>
       </c>
       <c r="E340">
-        <v>0.02722779170147591</v>
+        <v>2.722779170147591E-2</v>
       </c>
       <c r="F340">
         <v>0.89071234166397262</v>
@@ -13242,7 +13262,7 @@
         <v>0.98638610414926198</v>
       </c>
       <c r="I340">
-        <v>0.091715399610136444</v>
+        <v>9.1715399610136444E-2</v>
       </c>
       <c r="J340">
         <v>0.75329025758751811</v>
@@ -13254,9 +13274,9 @@
         <v>0.95484776756706569</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>0.060472019464720195</v>
+        <v>6.0472019464720195E-2</v>
       </c>
       <c r="B341">
         <v>0.86872784461701691</v>
@@ -13268,7 +13288,7 @@
         <v>0.96976399026763982</v>
       </c>
       <c r="E341">
-        <v>0.052058394160583936</v>
+        <v>5.2058394160583936E-2</v>
       </c>
       <c r="F341">
         <v>0.74583633087809598</v>
@@ -13292,9 +13312,9 @@
         <v>0.90182319545823186</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>0.060483297074192297</v>
+        <v>6.0483297074192297E-2</v>
       </c>
       <c r="B342">
         <v>0.85762450955175784</v>
@@ -13306,7 +13326,7 @@
         <v>0.9697583514629039</v>
       </c>
       <c r="E342">
-        <v>0.055135920948295121</v>
+        <v>5.5135920948295121E-2</v>
       </c>
       <c r="F342">
         <v>0.73824988179651208</v>
@@ -13330,9 +13350,9 @@
         <v>0.89993027739937259</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>0.052535231433188112</v>
+        <v>5.2535231433188112E-2</v>
       </c>
       <c r="B343">
         <v>0.86526541744882401</v>
@@ -13344,7 +13364,7 @@
         <v>0.97373238428340603</v>
       </c>
       <c r="E343">
-        <v>0.042022049047882024</v>
+        <v>4.2022049047882024E-2</v>
       </c>
       <c r="F343">
         <v>0.73143052335226688</v>
@@ -13368,9 +13388,9 @@
         <v>0.91799785918335353</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>0.053745910812672174</v>
+        <v>5.3745910812672174E-2</v>
       </c>
       <c r="B344">
         <v>0.87690643928724954</v>
@@ -13382,7 +13402,7 @@
         <v>0.97312704459366384</v>
       </c>
       <c r="E344">
-        <v>0.041725852272727279</v>
+        <v>4.1725852272727279E-2</v>
       </c>
       <c r="F344">
         <v>0.77803377980325306</v>
@@ -13406,9 +13426,9 @@
         <v>0.92144321410123964</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>0.028379049890677799</v>
+        <v>2.8379049890677799E-2</v>
       </c>
       <c r="B345">
         <v>0.83718116702835199</v>
@@ -13420,7 +13440,7 @@
         <v>0.98581047505466113</v>
       </c>
       <c r="E345">
-        <v>0.019205923275690713</v>
+        <v>1.9205923275690713E-2</v>
       </c>
       <c r="F345">
         <v>0.75652767657374842</v>
@@ -13444,9 +13464,9 @@
         <v>0.93170757967269591</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>0.0021520803443328554</v>
+        <v>2.1520803443328554E-3</v>
       </c>
       <c r="B346">
         <v>0.63925728805294113</v>
@@ -13458,7 +13478,7 @@
         <v>0.99892395982783355</v>
       </c>
       <c r="E346">
-        <v>0.026436350593452458</v>
+        <v>2.6436350593452458E-2</v>
       </c>
       <c r="F346">
         <v>0.81699659901506438</v>
@@ -13470,7 +13490,7 @@
         <v>0.9867818247032738</v>
       </c>
       <c r="I346">
-        <v>0.080148689187426625</v>
+        <v>8.0148689187426625E-2</v>
       </c>
       <c r="J346">
         <v>0.7715532290017264</v>
@@ -13482,9 +13502,9 @@
         <v>0.9599256554062866</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>0.014206886667383281</v>
+        <v>1.4206886667383281E-2</v>
       </c>
       <c r="B347">
         <v>0.83180101866383882</v>
@@ -13496,7 +13516,7 @@
         <v>0.99289655666630838</v>
       </c>
       <c r="E347">
-        <v>0.039189867067970903</v>
+        <v>3.9189867067970903E-2</v>
       </c>
       <c r="F347">
         <v>0.83010413551591355</v>
@@ -13520,9 +13540,9 @@
         <v>0.94681972362559264</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>0.018164177845271239</v>
+        <v>1.8164177845271239E-2</v>
       </c>
       <c r="B348">
         <v>0.83930685274709271</v>
@@ -13534,7 +13554,7 @@
         <v>0.99091791107736438</v>
       </c>
       <c r="E348">
-        <v>0.029469332658398722</v>
+        <v>2.9469332658398722E-2</v>
       </c>
       <c r="F348">
         <v>0.82366503331205998</v>
@@ -13558,9 +13578,9 @@
         <v>0.94955988638600641</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.011943467354288997</v>
+        <v>1.1943467354288997E-2</v>
       </c>
       <c r="B349">
         <v>0.77905961810079649</v>
@@ -13572,7 +13592,7 @@
         <v>0.99435934806676285</v>
       </c>
       <c r="E349">
-        <v>0.028329386044816905</v>
+        <v>2.8329386044816905E-2</v>
       </c>
       <c r="F349">
         <v>0.83418251025807544</v>
@@ -13584,7 +13604,7 @@
         <v>0.9858353069775917</v>
       </c>
       <c r="I349">
-        <v>0.087086760934456331</v>
+        <v>8.7086760934456331E-2</v>
       </c>
       <c r="J349">
         <v>0.82154462441833431</v>
@@ -13596,9 +13616,9 @@
         <v>0.95645661953277195</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>0.0013168280464836393</v>
+        <v>1.3168280464836393E-3</v>
       </c>
       <c r="B350">
         <v>0.58018632124681613</v>
@@ -13634,9 +13654,9 @@
         <v>0.89520569088536184</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>0.00051285687275477406</v>
+        <v>5.1285687275477406E-4</v>
       </c>
       <c r="B351">
         <v>0.5595823038536597</v>
@@ -13648,7 +13668,7 @@
         <v>0.99974357156362259</v>
       </c>
       <c r="E351">
-        <v>0.061816978634902625</v>
+        <v>6.1816978634902625E-2</v>
       </c>
       <c r="F351">
         <v>0.88895735261413433</v>
@@ -13660,7 +13680,7 @@
         <v>0.96909151068254851</v>
       </c>
       <c r="I351">
-        <v>0.094450746833049742</v>
+        <v>9.4450746833049742E-2</v>
       </c>
       <c r="J351">
         <v>0.84512118462639219</v>
@@ -13672,9 +13692,9 @@
         <v>0.95278408016638305</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>0.00094323846949760138</v>
+        <v>9.4323846949760138E-4</v>
       </c>
       <c r="B352">
         <v>0.67106093673280787</v>
@@ -13686,7 +13706,7 @@
         <v>0.99952838076525119</v>
       </c>
       <c r="E352">
-        <v>0.0515149298188773</v>
+        <v>5.15149298188773E-2</v>
       </c>
       <c r="F352">
         <v>0.90579375795310302</v>
@@ -13698,7 +13718,7 @@
         <v>0.97424253509056136</v>
       </c>
       <c r="I352">
-        <v>0.063374651184665717</v>
+        <v>6.3374651184665717E-2</v>
       </c>
       <c r="J352">
         <v>0.88724597935193716</v>
@@ -13710,9 +13730,9 @@
         <v>0.96831267440766722</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>0.0014650431677225109</v>
+        <v>1.4650431677225109E-3</v>
       </c>
       <c r="B353">
         <v>0.63572330663484566</v>
@@ -13748,9 +13768,9 @@
         <v>0.89926324395857682</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>0.00069307035457690967</v>
+        <v>6.9307035457690967E-4</v>
       </c>
       <c r="B354">
         <v>0.59300444486972259</v>
@@ -13762,7 +13782,7 @@
         <v>0.99965346482271145</v>
       </c>
       <c r="E354">
-        <v>0.082893330652755878</v>
+        <v>8.2893330652755878E-2</v>
       </c>
       <c r="F354">
         <v>0.86096017089570975</v>
@@ -13786,9 +13806,9 @@
         <v>0.93597431936258679</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>0.0001957990231804288</v>
+        <v>1.957990231804288E-4</v>
       </c>
       <c r="B355">
         <v>0.62126481368267494</v>
@@ -13800,7 +13820,7 @@
         <v>0.99990210048840977</v>
       </c>
       <c r="E355">
-        <v>0.069138810629711417</v>
+        <v>6.9138810629711417E-2</v>
       </c>
       <c r="F355">
         <v>0.87101397056557039</v>
@@ -13824,9 +13844,9 @@
         <v>0.94346756444144708</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>0.0023707545810575398</v>
+        <v>2.3707545810575398E-3</v>
       </c>
       <c r="B356">
         <v>0.6400396327916662</v>
@@ -13838,7 +13858,7 @@
         <v>0.9988146227094713</v>
       </c>
       <c r="E356">
-        <v>0.023435760409708305</v>
+        <v>2.3435760409708305E-2</v>
       </c>
       <c r="F356">
         <v>0.79376636305016024</v>
@@ -13862,9 +13882,9 @@
         <v>0.94698110818587078</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>0.010403770118614961</v>
+        <v>1.0403770118614961E-2</v>
       </c>
       <c r="B357">
         <v>0.73484152118167301</v>
@@ -13876,7 +13896,7 @@
         <v>0.99479811494069259</v>
       </c>
       <c r="E357">
-        <v>0.02131008959356737</v>
+        <v>2.131008959356737E-2</v>
       </c>
       <c r="F357">
         <v>0.79175035659283444</v>
@@ -13900,9 +13920,9 @@
         <v>0.94590882667483167</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>0.010928689677491629</v>
+        <v>1.0928689677491629E-2</v>
       </c>
       <c r="B358">
         <v>0.73319057175485869</v>
@@ -13914,7 +13934,7 @@
         <v>0.9945356551612542</v>
       </c>
       <c r="E358">
-        <v>0.027530215710924958</v>
+        <v>2.7530215710924958E-2</v>
       </c>
       <c r="F358">
         <v>0.79355979444899472</v>
@@ -13938,9 +13958,9 @@
         <v>0.94287643610201777</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>0.0016246003483143146</v>
+        <v>1.6246003483143146E-3</v>
       </c>
       <c r="B359">
         <v>0.55981888419550641</v>
@@ -13952,7 +13972,7 @@
         <v>0.99918769982584288</v>
       </c>
       <c r="E359">
-        <v>0.030243560084219284</v>
+        <v>3.0243560084219284E-2</v>
       </c>
       <c r="F359">
         <v>0.79227937946762306</v>
@@ -13976,9 +13996,9 @@
         <v>0.93463528805247242</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>0.0011502071609671635</v>
+        <v>1.1502071609671635E-3</v>
       </c>
       <c r="B360">
         <v>0.46494923248254744</v>
@@ -13990,7 +14010,7 @@
         <v>0.99942489641951637</v>
       </c>
       <c r="E360">
-        <v>0.030520685177169011</v>
+        <v>3.0520685177169011E-2</v>
       </c>
       <c r="F360">
         <v>0.79311252744970895</v>
@@ -14014,9 +14034,9 @@
         <v>0.9378398573578216</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>0.021181262729124236</v>
+        <v>2.1181262729124236E-2</v>
       </c>
       <c r="B361">
         <v>0.92887543812810092</v>
@@ -14028,7 +14048,7 @@
         <v>0.98940936863543794</v>
       </c>
       <c r="E361">
-        <v>0.052720977596741339</v>
+        <v>5.2720977596741339E-2</v>
       </c>
       <c r="F361">
         <v>0.80621409316948023</v>
@@ -14052,9 +14072,9 @@
         <v>0.94510590631364566</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>0.0024181991879627419</v>
+        <v>2.4181991879627419E-3</v>
       </c>
       <c r="B362">
         <v>0.95106877530379452</v>
@@ -14066,7 +14086,7 @@
         <v>0.9987909004060187</v>
       </c>
       <c r="E362">
-        <v>0.01568545497969907</v>
+        <v>1.568545497969907E-2</v>
       </c>
       <c r="F362">
         <v>0.72955218097743579</v>
@@ -14090,9 +14110,9 @@
         <v>0.94748925244805349</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>0.0038348185278009837</v>
+        <v>3.8348185278009837E-3</v>
       </c>
       <c r="B363">
         <v>0.94009954037641619</v>
@@ -14104,7 +14124,7 @@
         <v>0.99808259073609951</v>
       </c>
       <c r="E363">
-        <v>0.044550032488628974</v>
+        <v>4.4550032488628974E-2</v>
       </c>
       <c r="F363">
         <v>0.69048415438202249</v>
@@ -14128,9 +14148,9 @@
         <v>0.90861992945326286</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>0.004683739050596789</v>
+        <v>4.683739050596789E-3</v>
       </c>
       <c r="B364">
         <v>0.9563278698649913</v>
@@ -14142,7 +14162,7 @@
         <v>0.99765813047470164</v>
       </c>
       <c r="E364">
-        <v>0.011191344698379613</v>
+        <v>1.1191344698379613E-2</v>
       </c>
       <c r="F364">
         <v>0.69569726972107415</v>
@@ -14154,7 +14174,7 @@
         <v>0.99440432765081044</v>
       </c>
       <c r="I364">
-        <v>0.084580262537531939</v>
+        <v>8.4580262537531939E-2</v>
       </c>
       <c r="J364">
         <v>0.79111420956488632</v>
@@ -14166,9 +14186,9 @@
         <v>0.95774295474660254</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>0.0046858974358974358</v>
+        <v>4.6858974358974358E-3</v>
       </c>
       <c r="B365">
         <v>0.93519477130611839</v>
@@ -14180,7 +14200,7 @@
         <v>0.99765705128205118</v>
       </c>
       <c r="E365">
-        <v>0.085865384615384621</v>
+        <v>8.5865384615384621E-2</v>
       </c>
       <c r="F365">
         <v>0.8278703581244522</v>
@@ -14192,7 +14212,7 @@
         <v>0.95706730769230774</v>
       </c>
       <c r="I365">
-        <v>0.095448717948717954</v>
+        <v>9.5448717948717954E-2</v>
       </c>
       <c r="J365">
         <v>0.74114698308656857</v>
@@ -14204,9 +14224,9 @@
         <v>0.952275641025641</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>0.0098205254863218319</v>
+        <v>9.8205254863218319E-3</v>
       </c>
       <c r="B366">
         <v>0.90464972848032599</v>
@@ -14218,7 +14238,7 @@
         <v>0.99508973725683925</v>
       </c>
       <c r="E366">
-        <v>0.05965822219085927</v>
+        <v>5.965822219085927E-2</v>
       </c>
       <c r="F366">
         <v>0.85418580747975792</v>
@@ -14242,9 +14262,9 @@
         <v>0.94493939108821601</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>0.0026258372234625534</v>
+        <v>2.6258372234625534E-3</v>
       </c>
       <c r="B367">
         <v>0.94724477578763122</v>
@@ -14256,7 +14276,7 @@
         <v>0.99868708138826867</v>
       </c>
       <c r="E367">
-        <v>0.010839506799269332</v>
+        <v>1.0839506799269332E-2</v>
       </c>
       <c r="F367">
         <v>0.79742706994155277</v>
@@ -14268,7 +14288,7 @@
         <v>0.99458024660036537</v>
       </c>
       <c r="I367">
-        <v>0.066692459914755434</v>
+        <v>6.6692459914755434E-2</v>
       </c>
       <c r="J367">
         <v>0.80566116995565107</v>
@@ -14280,9 +14300,9 @@
         <v>0.96665377004262221</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>0.0070382675033837825</v>
+        <v>7.0382675033837825E-3</v>
       </c>
       <c r="B368">
         <v>0.85780778709503092</v>
@@ -14294,7 +14314,7 @@
         <v>0.99648086624830812</v>
       </c>
       <c r="E368">
-        <v>0.027094868955334073</v>
+        <v>2.7094868955334073E-2</v>
       </c>
       <c r="F368">
         <v>0.8445225945396837</v>
@@ -14306,7 +14326,7 @@
         <v>0.98645256552233285</v>
       </c>
       <c r="I368">
-        <v>0.06974898486526393</v>
+        <v>6.974898486526393E-2</v>
       </c>
       <c r="J368">
         <v>0.84355871508142766</v>
@@ -14318,9 +14338,9 @@
         <v>0.96512550756736804</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>0.0040693105826130182</v>
+        <v>4.0693105826130182E-3</v>
       </c>
       <c r="B369">
         <v>0.97071990754439996</v>
@@ -14332,7 +14352,7 @@
         <v>0.99796534470869358</v>
       </c>
       <c r="E369">
-        <v>0.0098505380310149604</v>
+        <v>9.8505380310149604E-3</v>
       </c>
       <c r="F369">
         <v>0.77121862696537513</v>
@@ -14344,7 +14364,7 @@
         <v>0.99507473098449262</v>
       </c>
       <c r="I369">
-        <v>0.082256202190612124</v>
+        <v>8.2256202190612124E-2</v>
       </c>
       <c r="J369">
         <v>0.83004298211029015</v>
@@ -14356,9 +14376,9 @@
         <v>0.95887189890469371</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>0.0050539480550085003</v>
+        <v>5.0539480550085003E-3</v>
       </c>
       <c r="B370">
         <v>0.96730356514234217</v>
@@ -14370,7 +14390,7 @@
         <v>0.99747302597249576</v>
       </c>
       <c r="E370">
-        <v>0.014088774428116952</v>
+        <v>1.4088774428116952E-2</v>
       </c>
       <c r="F370">
         <v>0.7535239739854358</v>
@@ -14382,7 +14402,7 @@
         <v>0.99295561278594147</v>
       </c>
       <c r="I370">
-        <v>0.093824168055345158</v>
+        <v>9.3824168055345158E-2</v>
       </c>
       <c r="J370">
         <v>0.80703811155681981</v>
@@ -14394,9 +14414,9 @@
         <v>0.95308791597232756</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>0.0083433436047422576</v>
+        <v>8.3433436047422576E-3</v>
       </c>
       <c r="B371">
         <v>0.9420924581324962</v>
@@ -14408,7 +14428,7 @@
         <v>0.9958283281976289</v>
       </c>
       <c r="E371">
-        <v>0.052440765307010674</v>
+        <v>5.2440765307010674E-2</v>
       </c>
       <c r="F371">
         <v>0.8920962818916679</v>
@@ -14420,7 +14440,7 @@
         <v>0.97377961734649476</v>
       </c>
       <c r="I371">
-        <v>0.066006859212061064</v>
+        <v>6.6006859212061064E-2</v>
       </c>
       <c r="J371">
         <v>0.78794333150635609</v>
@@ -14432,9 +14452,9 @@
         <v>0.96699657039396958</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>0.010562183474389043</v>
+        <v>1.0562183474389043E-2</v>
       </c>
       <c r="B372">
         <v>0.90036899077562726</v>
@@ -14446,7 +14466,7 @@
         <v>0.9947189082628054</v>
       </c>
       <c r="E372">
-        <v>0.065106556541246058</v>
+        <v>6.5106556541246058E-2</v>
       </c>
       <c r="F372">
         <v>0.86536519530005251</v>
@@ -14470,9 +14490,9 @@
         <v>0.94856989905169775</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.019515332255788012</v>
+        <v>1.9515332255788012E-2</v>
       </c>
       <c r="B373">
         <v>0.88721529685675571</v>
@@ -14484,7 +14504,7 @@
         <v>0.99024233387210614</v>
       </c>
       <c r="E373">
-        <v>0.0527181460149794</v>
+        <v>5.27181460149794E-2</v>
       </c>
       <c r="F373">
         <v>0.83252820857591081</v>
@@ -14508,9 +14528,9 @@
         <v>0.92561617380350736</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.039353533257237727</v>
+        <v>3.9353533257237727E-2</v>
       </c>
       <c r="B374">
         <v>0.87979776850478253</v>
@@ -14522,7 +14542,7 @@
         <v>0.98032323337138116</v>
       </c>
       <c r="E374">
-        <v>0.07120473176299677</v>
+        <v>7.120473176299677E-2</v>
       </c>
       <c r="F374">
         <v>0.85341533073394671</v>
@@ -14546,9 +14566,9 @@
         <v>0.91572411884749749</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.01162407730597111</v>
+        <v>1.162407730597111E-2</v>
       </c>
       <c r="B375">
         <v>0.95015582896196782</v>
@@ -14560,7 +14580,7 @@
         <v>0.99418796134701437</v>
       </c>
       <c r="E375">
-        <v>0.044112753719636827</v>
+        <v>4.4112753719636827E-2</v>
       </c>
       <c r="F375">
         <v>0.89401197820306133</v>
@@ -14584,9 +14604,9 @@
         <v>0.94636547398348025</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0.026485105795450617</v>
+        <v>2.6485105795450617E-2</v>
       </c>
       <c r="B376">
         <v>0.90290084252837233</v>
@@ -14598,7 +14618,7 @@
         <v>0.9868797676987332</v>
       </c>
       <c r="E376">
-        <v>0.06517034275654969</v>
+        <v>6.517034275654969E-2</v>
       </c>
       <c r="F376">
         <v>0.88163593462430478</v>
@@ -14622,9 +14642,9 @@
         <v>0.94628852990921952</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>0.020205396431273739</v>
+        <v>2.0205396431273739E-2</v>
       </c>
       <c r="B377">
         <v>0.90402872665217282</v>
@@ -14636,7 +14656,7 @@
         <v>0.98989730178436319</v>
       </c>
       <c r="E377">
-        <v>0.079504800664085759</v>
+        <v>7.9504800664085759E-2</v>
       </c>
       <c r="F377">
         <v>0.8725929849074392</v>
@@ -14660,9 +14680,9 @@
         <v>0.92593742118267008</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.021670046306104536</v>
+        <v>2.1670046306104536E-2</v>
       </c>
       <c r="B378">
         <v>0.92235889117374048</v>
@@ -14674,7 +14694,7 @@
         <v>0.98916497684694793</v>
       </c>
       <c r="E378">
-        <v>0.055137934687206798</v>
+        <v>5.5137934687206798E-2</v>
       </c>
       <c r="F378">
         <v>0.91051535779100568</v>
@@ -14686,7 +14706,7 @@
         <v>0.97243103265639663</v>
       </c>
       <c r="I378">
-        <v>0.071596652643685116</v>
+        <v>7.1596652643685116E-2</v>
       </c>
       <c r="J378">
         <v>0.81201595491911815</v>
@@ -14698,9 +14718,9 @@
         <v>0.96420419579714101</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>0.019910489717413816</v>
+        <v>1.9910489717413816E-2</v>
       </c>
       <c r="B379">
         <v>0.91877432475223864</v>
@@ -14712,7 +14732,7 @@
         <v>0.99004475514129309</v>
       </c>
       <c r="E379">
-        <v>0.065274079005770078</v>
+        <v>6.5274079005770078E-2</v>
       </c>
       <c r="F379">
         <v>0.89114014737987224</v>
@@ -14724,7 +14744,7 @@
         <v>0.96736296049711512</v>
       </c>
       <c r="I379">
-        <v>0.09698550081372985</v>
+        <v>9.698550081372985E-2</v>
       </c>
       <c r="J379">
         <v>0.77580304694278468</v>
@@ -14736,9 +14756,9 @@
         <v>0.95153190807318633</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>0.0049519586104951954</v>
+        <v>4.9519586104951954E-3</v>
       </c>
       <c r="B380">
         <v>0.96347035109941348</v>
@@ -14750,7 +14770,7 @@
         <v>0.99752402069475243</v>
       </c>
       <c r="E380">
-        <v>0.0098546440009854644</v>
+        <v>9.8546440009854644E-3</v>
       </c>
       <c r="F380">
         <v>0.79401425994931918</v>
@@ -14762,7 +14782,7 @@
         <v>0.99507267799950727</v>
       </c>
       <c r="I380">
-        <v>0.054348361665434837</v>
+        <v>5.4348361665434837E-2</v>
       </c>
       <c r="J380">
         <v>0.85059470566160933</v>
@@ -14774,9 +14794,9 @@
         <v>0.97282581916728261</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>0.021181262729124236</v>
+        <v>2.1181262729124236E-2</v>
       </c>
       <c r="B381">
         <v>0.92887543812810092</v>
@@ -14788,7 +14808,7 @@
         <v>0.98940936863543794</v>
       </c>
       <c r="E381">
-        <v>0.052720977596741339</v>
+        <v>5.2720977596741339E-2</v>
       </c>
       <c r="F381">
         <v>0.80621409316948023</v>
@@ -14812,9 +14832,9 @@
         <v>0.94510590631364566</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>0.0024181991879627419</v>
+        <v>2.4181991879627419E-3</v>
       </c>
       <c r="B382">
         <v>0.95106877530379452</v>
@@ -14826,7 +14846,7 @@
         <v>0.9987909004060187</v>
       </c>
       <c r="E382">
-        <v>0.01568545497969907</v>
+        <v>1.568545497969907E-2</v>
       </c>
       <c r="F382">
         <v>0.72955218097743579</v>
@@ -14850,9 +14870,9 @@
         <v>0.94748925244805349</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>0.0038348185278009837</v>
+        <v>3.8348185278009837E-3</v>
       </c>
       <c r="B383">
         <v>0.94009954037641619</v>
@@ -14864,7 +14884,7 @@
         <v>0.99808259073609951</v>
       </c>
       <c r="E383">
-        <v>0.044550032488628974</v>
+        <v>4.4550032488628974E-2</v>
       </c>
       <c r="F383">
         <v>0.69048415438202249</v>
@@ -14888,9 +14908,9 @@
         <v>0.90861992945326286</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>0.004683739050596789</v>
+        <v>4.683739050596789E-3</v>
       </c>
       <c r="B384">
         <v>0.9563278698649913</v>
@@ -14902,7 +14922,7 @@
         <v>0.99765813047470164</v>
       </c>
       <c r="E384">
-        <v>0.011191344698379613</v>
+        <v>1.1191344698379613E-2</v>
       </c>
       <c r="F384">
         <v>0.69569726972107415</v>
@@ -14914,7 +14934,7 @@
         <v>0.99440432765081044</v>
       </c>
       <c r="I384">
-        <v>0.084580262537531939</v>
+        <v>8.4580262537531939E-2</v>
       </c>
       <c r="J384">
         <v>0.79111420956488632</v>
@@ -14926,9 +14946,9 @@
         <v>0.95774295474660254</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>0.0046858974358974358</v>
+        <v>4.6858974358974358E-3</v>
       </c>
       <c r="B385">
         <v>0.93519477130611839</v>
@@ -14940,7 +14960,7 @@
         <v>0.99765705128205118</v>
       </c>
       <c r="E385">
-        <v>0.085865384615384621</v>
+        <v>8.5865384615384621E-2</v>
       </c>
       <c r="F385">
         <v>0.8278703581244522</v>
@@ -14952,7 +14972,7 @@
         <v>0.95706730769230774</v>
       </c>
       <c r="I385">
-        <v>0.095448717948717954</v>
+        <v>9.5448717948717954E-2</v>
       </c>
       <c r="J385">
         <v>0.74114698308656857</v>
@@ -14964,9 +14984,9 @@
         <v>0.952275641025641</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>0.0098205254863218319</v>
+        <v>9.8205254863218319E-3</v>
       </c>
       <c r="B386">
         <v>0.90464972848032599</v>
@@ -14978,7 +14998,7 @@
         <v>0.99508973725683925</v>
       </c>
       <c r="E386">
-        <v>0.05965822219085927</v>
+        <v>5.965822219085927E-2</v>
       </c>
       <c r="F386">
         <v>0.85418580747975792</v>
@@ -15002,9 +15022,9 @@
         <v>0.94493939108821601</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>0.0026258372234625534</v>
+        <v>2.6258372234625534E-3</v>
       </c>
       <c r="B387">
         <v>0.94724477578763122</v>
@@ -15016,7 +15036,7 @@
         <v>0.99868708138826867</v>
       </c>
       <c r="E387">
-        <v>0.010839506799269332</v>
+        <v>1.0839506799269332E-2</v>
       </c>
       <c r="F387">
         <v>0.79742706994155277</v>
@@ -15028,7 +15048,7 @@
         <v>0.99458024660036537</v>
       </c>
       <c r="I387">
-        <v>0.066692459914755434</v>
+        <v>6.6692459914755434E-2</v>
       </c>
       <c r="J387">
         <v>0.80566116995565107</v>
@@ -15040,9 +15060,9 @@
         <v>0.96665377004262221</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>0.0070382675033837825</v>
+        <v>7.0382675033837825E-3</v>
       </c>
       <c r="B388">
         <v>0.85780778709503092</v>
@@ -15054,7 +15074,7 @@
         <v>0.99648086624830812</v>
       </c>
       <c r="E388">
-        <v>0.027094868955334073</v>
+        <v>2.7094868955334073E-2</v>
       </c>
       <c r="F388">
         <v>0.8445225945396837</v>
@@ -15066,7 +15086,7 @@
         <v>0.98645256552233285</v>
       </c>
       <c r="I388">
-        <v>0.06974898486526393</v>
+        <v>6.974898486526393E-2</v>
       </c>
       <c r="J388">
         <v>0.84355871508142766</v>
@@ -15078,9 +15098,9 @@
         <v>0.96512550756736804</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>0.0040693105826130182</v>
+        <v>4.0693105826130182E-3</v>
       </c>
       <c r="B389">
         <v>0.97071990754439996</v>
@@ -15092,7 +15112,7 @@
         <v>0.99796534470869358</v>
       </c>
       <c r="E389">
-        <v>0.0098505380310149604</v>
+        <v>9.8505380310149604E-3</v>
       </c>
       <c r="F389">
         <v>0.77121862696537513</v>
@@ -15104,7 +15124,7 @@
         <v>0.99507473098449262</v>
       </c>
       <c r="I389">
-        <v>0.082256202190612124</v>
+        <v>8.2256202190612124E-2</v>
       </c>
       <c r="J389">
         <v>0.83004298211029015</v>
@@ -15116,9 +15136,9 @@
         <v>0.95887189890469371</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>0.0050539480550085003</v>
+        <v>5.0539480550085003E-3</v>
       </c>
       <c r="B390">
         <v>0.96730356514234217</v>
@@ -15130,7 +15150,7 @@
         <v>0.99747302597249576</v>
       </c>
       <c r="E390">
-        <v>0.014088774428116952</v>
+        <v>1.4088774428116952E-2</v>
       </c>
       <c r="F390">
         <v>0.7535239739854358</v>
@@ -15142,7 +15162,7 @@
         <v>0.99295561278594147</v>
       </c>
       <c r="I390">
-        <v>0.093824168055345158</v>
+        <v>9.3824168055345158E-2</v>
       </c>
       <c r="J390">
         <v>0.80703811155681981</v>
@@ -15154,9 +15174,9 @@
         <v>0.95308791597232756</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>0.0083433436047422576</v>
+        <v>8.3433436047422576E-3</v>
       </c>
       <c r="B391">
         <v>0.9420924581324962</v>
@@ -15168,7 +15188,7 @@
         <v>0.9958283281976289</v>
       </c>
       <c r="E391">
-        <v>0.052440765307010674</v>
+        <v>5.2440765307010674E-2</v>
       </c>
       <c r="F391">
         <v>0.8920962818916679</v>
@@ -15180,7 +15200,7 @@
         <v>0.97377961734649476</v>
       </c>
       <c r="I391">
-        <v>0.066006859212061064</v>
+        <v>6.6006859212061064E-2</v>
       </c>
       <c r="J391">
         <v>0.78794333150635609</v>
@@ -15192,9 +15212,9 @@
         <v>0.96699657039396958</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>0.010562183474389043</v>
+        <v>1.0562183474389043E-2</v>
       </c>
       <c r="B392">
         <v>0.90036899077562726</v>
@@ -15206,7 +15226,7 @@
         <v>0.9947189082628054</v>
       </c>
       <c r="E392">
-        <v>0.065106556541246058</v>
+        <v>6.5106556541246058E-2</v>
       </c>
       <c r="F392">
         <v>0.86536519530005251</v>
@@ -15230,9 +15250,9 @@
         <v>0.94856989905169775</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>0.019515332255788012</v>
+        <v>1.9515332255788012E-2</v>
       </c>
       <c r="B393">
         <v>0.88721529685675571</v>
@@ -15244,7 +15264,7 @@
         <v>0.99024233387210614</v>
       </c>
       <c r="E393">
-        <v>0.0527181460149794</v>
+        <v>5.27181460149794E-2</v>
       </c>
       <c r="F393">
         <v>0.83252820857591081</v>
@@ -15268,9 +15288,9 @@
         <v>0.92561617380350736</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>0.039353533257237727</v>
+        <v>3.9353533257237727E-2</v>
       </c>
       <c r="B394">
         <v>0.87979776850478253</v>
@@ -15282,7 +15302,7 @@
         <v>0.98032323337138116</v>
       </c>
       <c r="E394">
-        <v>0.07120473176299677</v>
+        <v>7.120473176299677E-2</v>
       </c>
       <c r="F394">
         <v>0.85341533073394671</v>
@@ -15306,9 +15326,9 @@
         <v>0.91572411884749749</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>0.01162407730597111</v>
+        <v>1.162407730597111E-2</v>
       </c>
       <c r="B395">
         <v>0.95015582896196782</v>
@@ -15320,7 +15340,7 @@
         <v>0.99418796134701437</v>
       </c>
       <c r="E395">
-        <v>0.044112753719636827</v>
+        <v>4.4112753719636827E-2</v>
       </c>
       <c r="F395">
         <v>0.89401197820306133</v>
@@ -15344,9 +15364,9 @@
         <v>0.94636547398348025</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>0.026485105795450617</v>
+        <v>2.6485105795450617E-2</v>
       </c>
       <c r="B396">
         <v>0.90290084252837233</v>
@@ -15358,7 +15378,7 @@
         <v>0.9868797676987332</v>
       </c>
       <c r="E396">
-        <v>0.06517034275654969</v>
+        <v>6.517034275654969E-2</v>
       </c>
       <c r="F396">
         <v>0.88163593462430478</v>
@@ -15382,9 +15402,9 @@
         <v>0.94628852990921952</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>0.020205396431273739</v>
+        <v>2.0205396431273739E-2</v>
       </c>
       <c r="B397">
         <v>0.90402872665217282</v>
@@ -15396,7 +15416,7 @@
         <v>0.98989730178436319</v>
       </c>
       <c r="E397">
-        <v>0.079504800664085759</v>
+        <v>7.9504800664085759E-2</v>
       </c>
       <c r="F397">
         <v>0.8725929849074392</v>
@@ -15420,9 +15440,9 @@
         <v>0.92593742118267008</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>0.021670046306104536</v>
+        <v>2.1670046306104536E-2</v>
       </c>
       <c r="B398">
         <v>0.92235889117374048</v>
@@ -15434,7 +15454,7 @@
         <v>0.98916497684694793</v>
       </c>
       <c r="E398">
-        <v>0.055137934687206798</v>
+        <v>5.5137934687206798E-2</v>
       </c>
       <c r="F398">
         <v>0.91051535779100568</v>
@@ -15446,7 +15466,7 @@
         <v>0.97243103265639663</v>
       </c>
       <c r="I398">
-        <v>0.071596652643685116</v>
+        <v>7.1596652643685116E-2</v>
       </c>
       <c r="J398">
         <v>0.81201595491911815</v>
@@ -15458,9 +15478,9 @@
         <v>0.96420419579714101</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>0.019910489717413816</v>
+        <v>1.9910489717413816E-2</v>
       </c>
       <c r="B399">
         <v>0.91877432475223864</v>
@@ -15472,7 +15492,7 @@
         <v>0.99004475514129309</v>
       </c>
       <c r="E399">
-        <v>0.065274079005770078</v>
+        <v>6.5274079005770078E-2</v>
       </c>
       <c r="F399">
         <v>0.89114014737987224</v>
@@ -15484,7 +15504,7 @@
         <v>0.96736296049711512</v>
       </c>
       <c r="I399">
-        <v>0.09698550081372985</v>
+        <v>9.698550081372985E-2</v>
       </c>
       <c r="J399">
         <v>0.77580304694278468</v>
@@ -15496,9 +15516,9 @@
         <v>0.95153190807318633</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>0.0049519586104951954</v>
+        <v>4.9519586104951954E-3</v>
       </c>
       <c r="B400">
         <v>0.96347035109941348</v>
@@ -15510,7 +15530,7 @@
         <v>0.99752402069475243</v>
       </c>
       <c r="E400">
-        <v>0.0098546440009854644</v>
+        <v>9.8546440009854644E-3</v>
       </c>
       <c r="F400">
         <v>0.79401425994931918</v>
@@ -15522,7 +15542,7 @@
         <v>0.99507267799950727</v>
       </c>
       <c r="I400">
-        <v>0.054348361665434837</v>
+        <v>5.4348361665434837E-2</v>
       </c>
       <c r="J400">
         <v>0.85059470566160933</v>
